--- a/Meiru Zhong. UPS Financial Model.xlsx
+++ b/Meiru Zhong. UPS Financial Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhongmeiru/Desktop/brandeis/CFM/hw/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF9E9D4-AC5A-AF48-913A-44C6BDAA560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B3635-D70D-4547-9C6F-7B873CBCBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="4" xr2:uid="{9FCFE7B9-A04B-7F49-9C8B-16E8ECB0D342}"/>
+    <workbookView xWindow="1580" yWindow="940" windowWidth="22100" windowHeight="16140" activeTab="4" xr2:uid="{9FCFE7B9-A04B-7F49-9C8B-16E8ECB0D342}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="653">
   <si>
     <t>Meiru Zhong</t>
   </si>
@@ -2239,6 +2239,9 @@
   <si>
     <t>SHARES</t>
   </si>
+  <si>
+    <t>Verified: On November 10, 1999, UPS offered 109,400,000 shares on the NYSE. The Initial Public Offering stock price was $50.</t>
+  </si>
 </sst>
 </file>
 
@@ -2259,8 +2262,8 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
-    <numFmt numFmtId="175" formatCode="General&quot;A&quot;"/>
-    <numFmt numFmtId="176" formatCode="General&quot;E&quot;"/>
+    <numFmt numFmtId="173" formatCode="General&quot;A&quot;"/>
+    <numFmt numFmtId="174" formatCode="General&quot;E&quot;"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2678,7 +2681,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3532,111 +3535,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -3671,8 +3569,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -3687,6 +3585,112 @@
     <xf numFmtId="38" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3788,8 +3792,8 @@
       <sheetName val="Data Sources"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="45">
           <cell r="L45" t="str">
@@ -3802,7 +3806,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="6">
           <cell r="K6">
@@ -3822,9 +3826,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4396,7 +4400,7 @@
   <dimension ref="B1:P354"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4409,50 +4413,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="20">
-      <c r="B1" s="346" t="s">
+      <c r="B1" s="365" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="369" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="369"/>
+      <c r="I3" s="369"/>
+      <c r="J3" s="369"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="369"/>
+      <c r="M3" s="369"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
+      <c r="H4" s="378"/>
+      <c r="I4" s="378"/>
+      <c r="J4" s="378"/>
+      <c r="K4" s="378"/>
+      <c r="L4" s="378"/>
+      <c r="M4" s="378"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="6"/>
@@ -5085,78 +5089,78 @@
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="330"/>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="330"/>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330"/>
-      <c r="K24" s="330"/>
-      <c r="L24" s="330"/>
-      <c r="M24" s="330"/>
+      <c r="B24" s="378"/>
+      <c r="C24" s="378"/>
+      <c r="D24" s="378"/>
+      <c r="E24" s="378"/>
+      <c r="F24" s="378"/>
+      <c r="G24" s="378"/>
+      <c r="H24" s="378"/>
+      <c r="I24" s="378"/>
+      <c r="J24" s="378"/>
+      <c r="K24" s="378"/>
+      <c r="L24" s="378"/>
+      <c r="M24" s="378"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="331" t="s">
+      <c r="B25" s="388" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="331"/>
-      <c r="D25" s="331"/>
-      <c r="E25" s="331"/>
-      <c r="F25" s="331"/>
-      <c r="G25" s="331"/>
-      <c r="H25" s="331"/>
-      <c r="I25" s="331"/>
-      <c r="J25" s="331"/>
-      <c r="K25" s="331"/>
-      <c r="L25" s="331"/>
-      <c r="M25" s="331"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="388"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="388"/>
+      <c r="H25" s="388"/>
+      <c r="I25" s="388"/>
+      <c r="J25" s="388"/>
+      <c r="K25" s="388"/>
+      <c r="L25" s="388"/>
+      <c r="M25" s="388"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="369" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="332"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="332"/>
+      <c r="C27" s="380"/>
+      <c r="D27" s="380"/>
+      <c r="E27" s="380"/>
+      <c r="F27" s="380"/>
+      <c r="G27" s="380"/>
+      <c r="H27" s="380"/>
+      <c r="I27" s="380"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="333"/>
-      <c r="C28" s="333"/>
-      <c r="D28" s="333"/>
-      <c r="E28" s="333"/>
-      <c r="F28" s="333"/>
-      <c r="G28" s="333"/>
-      <c r="H28" s="333"/>
-      <c r="I28" s="333"/>
+      <c r="B28" s="379"/>
+      <c r="C28" s="379"/>
+      <c r="D28" s="379"/>
+      <c r="E28" s="379"/>
+      <c r="F28" s="379"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="379"/>
+      <c r="I28" s="379"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="332" t="s">
+      <c r="B29" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
-      <c r="H29" s="332"/>
-      <c r="I29" s="332"/>
+      <c r="C29" s="380"/>
+      <c r="D29" s="380"/>
+      <c r="E29" s="380"/>
+      <c r="F29" s="380"/>
+      <c r="G29" s="380"/>
+      <c r="H29" s="380"/>
+      <c r="I29" s="380"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="340"/>
-      <c r="C30" s="340"/>
-      <c r="D30" s="340"/>
-      <c r="E30" s="340"/>
-      <c r="F30" s="340"/>
-      <c r="G30" s="340"/>
-      <c r="H30" s="340"/>
-      <c r="I30" s="340"/>
+      <c r="B30" s="382"/>
+      <c r="C30" s="382"/>
+      <c r="D30" s="382"/>
+      <c r="E30" s="382"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="382"/>
+      <c r="H30" s="382"/>
+      <c r="I30" s="382"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="25"/>
@@ -6223,16 +6227,16 @@
       <c r="P62" s="122"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="334" t="s">
+      <c r="B63" s="383" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="334"/>
-      <c r="D63" s="334"/>
-      <c r="E63" s="334"/>
-      <c r="F63" s="334"/>
-      <c r="G63" s="334"/>
-      <c r="H63" s="334"/>
-      <c r="I63" s="334"/>
+      <c r="C63" s="383"/>
+      <c r="D63" s="383"/>
+      <c r="E63" s="383"/>
+      <c r="F63" s="383"/>
+      <c r="G63" s="383"/>
+      <c r="H63" s="383"/>
+      <c r="I63" s="383"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="56" t="s">
@@ -6259,11 +6263,11 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="336" t="s">
+      <c r="F68" s="386" t="s">
         <v>517</v>
       </c>
-      <c r="G68" s="336"/>
-      <c r="H68" s="336"/>
+      <c r="G68" s="386"/>
+      <c r="H68" s="386"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="31" t="s">
@@ -7038,11 +7042,11 @@
       </c>
     </row>
     <row r="117" spans="2:8">
-      <c r="B117" s="334" t="s">
+      <c r="B117" s="383" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="334"/>
-      <c r="D117" s="334"/>
+      <c r="C117" s="383"/>
+      <c r="D117" s="383"/>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="67" t="s">
@@ -7077,13 +7081,13 @@
       <c r="B122" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C122" s="335" t="s">
+      <c r="C122" s="385" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="335"/>
-      <c r="E122" s="335"/>
-      <c r="F122" s="335"/>
-      <c r="G122" s="335"/>
+      <c r="D122" s="385"/>
+      <c r="E122" s="385"/>
+      <c r="F122" s="385"/>
+      <c r="G122" s="385"/>
       <c r="H122" s="68" t="s">
         <v>105</v>
       </c>
@@ -7213,48 +7217,48 @@
       <c r="H128" s="73"/>
     </row>
     <row r="129" spans="2:13">
-      <c r="B129" s="337"/>
-      <c r="C129" s="337"/>
-      <c r="D129" s="337"/>
-      <c r="E129" s="337"/>
-      <c r="F129" s="337"/>
-      <c r="G129" s="337"/>
-      <c r="H129" s="337"/>
+      <c r="B129" s="387"/>
+      <c r="C129" s="387"/>
+      <c r="D129" s="387"/>
+      <c r="E129" s="387"/>
+      <c r="F129" s="387"/>
+      <c r="G129" s="387"/>
+      <c r="H129" s="387"/>
     </row>
     <row r="130" spans="2:13">
-      <c r="B130" s="341" t="s">
+      <c r="B130" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="341"/>
-      <c r="D130" s="341"/>
-      <c r="E130" s="341"/>
-      <c r="F130" s="341"/>
-      <c r="G130" s="341"/>
-      <c r="H130" s="341"/>
+      <c r="C130" s="368"/>
+      <c r="D130" s="368"/>
+      <c r="E130" s="368"/>
+      <c r="F130" s="368"/>
+      <c r="G130" s="368"/>
+      <c r="H130" s="368"/>
     </row>
     <row r="132" spans="2:13">
-      <c r="B132" s="329" t="s">
+      <c r="B132" s="369" t="s">
         <v>112</v>
       </c>
-      <c r="C132" s="329"/>
-      <c r="D132" s="329"/>
-      <c r="E132" s="329"/>
-      <c r="F132" s="329"/>
+      <c r="C132" s="369"/>
+      <c r="D132" s="369"/>
+      <c r="E132" s="369"/>
+      <c r="F132" s="369"/>
     </row>
     <row r="133" spans="2:13">
-      <c r="B133" s="342"/>
-      <c r="C133" s="342"/>
-      <c r="D133" s="342"/>
-      <c r="E133" s="342"/>
-      <c r="F133" s="342"/>
+      <c r="B133" s="370"/>
+      <c r="C133" s="370"/>
+      <c r="D133" s="370"/>
+      <c r="E133" s="370"/>
+      <c r="F133" s="370"/>
     </row>
     <row r="134" spans="2:13">
       <c r="B134" s="25"/>
       <c r="C134" s="74"/>
-      <c r="D134" s="343" t="s">
+      <c r="D134" s="384" t="s">
         <v>113</v>
       </c>
-      <c r="E134" s="343"/>
+      <c r="E134" s="384"/>
       <c r="F134" s="74"/>
       <c r="H134" s="122"/>
       <c r="I134" s="122"/>
@@ -8577,20 +8581,20 @@
       <c r="M176" s="132"/>
     </row>
     <row r="177" spans="2:6">
-      <c r="B177" s="339"/>
-      <c r="C177" s="339"/>
-      <c r="D177" s="339"/>
-      <c r="E177" s="339"/>
-      <c r="F177" s="339"/>
+      <c r="B177" s="371"/>
+      <c r="C177" s="371"/>
+      <c r="D177" s="371"/>
+      <c r="E177" s="371"/>
+      <c r="F177" s="371"/>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="341" t="s">
+      <c r="B178" s="368" t="s">
         <v>132</v>
       </c>
-      <c r="C178" s="341"/>
-      <c r="D178" s="341"/>
-      <c r="E178" s="341"/>
-      <c r="F178" s="341"/>
+      <c r="C178" s="368"/>
+      <c r="D178" s="368"/>
+      <c r="E178" s="368"/>
+      <c r="F178" s="368"/>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="58"/>
@@ -8607,18 +8611,18 @@
       <c r="F180" s="58"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="329" t="s">
+      <c r="B181" s="369" t="s">
         <v>133</v>
       </c>
-      <c r="C181" s="329"/>
-      <c r="D181" s="329"/>
+      <c r="C181" s="369"/>
+      <c r="D181" s="369"/>
       <c r="E181" s="58"/>
       <c r="F181" s="58"/>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="345"/>
-      <c r="C182" s="345"/>
-      <c r="D182" s="345"/>
+      <c r="B182" s="381"/>
+      <c r="C182" s="381"/>
+      <c r="D182" s="381"/>
       <c r="E182" s="58"/>
       <c r="F182" s="58"/>
     </row>
@@ -8837,35 +8841,35 @@
       <c r="F200" s="58"/>
     </row>
     <row r="201" spans="2:6">
-      <c r="B201" s="339"/>
-      <c r="C201" s="339"/>
-      <c r="D201" s="339"/>
+      <c r="B201" s="371"/>
+      <c r="C201" s="371"/>
+      <c r="D201" s="371"/>
       <c r="E201" s="58"/>
       <c r="F201" s="58"/>
     </row>
     <row r="202" spans="2:6">
-      <c r="B202" s="341" t="s">
+      <c r="B202" s="368" t="s">
         <v>154</v>
       </c>
-      <c r="C202" s="341"/>
-      <c r="D202" s="341"/>
+      <c r="C202" s="368"/>
+      <c r="D202" s="368"/>
       <c r="E202" s="58"/>
       <c r="F202" s="58"/>
     </row>
     <row r="203" spans="2:6">
-      <c r="B203" s="344" t="s">
+      <c r="B203" s="367" t="s">
         <v>155</v>
       </c>
-      <c r="C203" s="341"/>
-      <c r="D203" s="341"/>
+      <c r="C203" s="368"/>
+      <c r="D203" s="368"/>
       <c r="E203" s="58"/>
       <c r="F203" s="58"/>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="329" t="s">
+      <c r="B205" s="369" t="s">
         <v>156</v>
       </c>
-      <c r="C205" s="329"/>
+      <c r="C205" s="369"/>
       <c r="D205" s="56"/>
     </row>
     <row r="206" spans="2:6">
@@ -9032,36 +9036,36 @@
       <c r="D223" s="85"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="339"/>
-      <c r="C224" s="339"/>
-      <c r="D224" s="339"/>
+      <c r="B224" s="371"/>
+      <c r="C224" s="371"/>
+      <c r="D224" s="371"/>
     </row>
     <row r="225" spans="2:8">
-      <c r="B225" s="341" t="s">
+      <c r="B225" s="368" t="s">
         <v>174</v>
       </c>
-      <c r="C225" s="341"/>
-      <c r="D225" s="341"/>
+      <c r="C225" s="368"/>
+      <c r="D225" s="368"/>
     </row>
     <row r="227" spans="2:8">
-      <c r="B227" s="329" t="s">
+      <c r="B227" s="369" t="s">
         <v>175</v>
       </c>
-      <c r="C227" s="329"/>
-      <c r="D227" s="329"/>
-      <c r="E227" s="329"/>
-      <c r="F227" s="329"/>
-      <c r="G227" s="329"/>
-      <c r="H227" s="329"/>
+      <c r="C227" s="369"/>
+      <c r="D227" s="369"/>
+      <c r="E227" s="369"/>
+      <c r="F227" s="369"/>
+      <c r="G227" s="369"/>
+      <c r="H227" s="369"/>
     </row>
     <row r="228" spans="2:8">
-      <c r="B228" s="338"/>
-      <c r="C228" s="338"/>
-      <c r="D228" s="338"/>
-      <c r="E228" s="338"/>
-      <c r="F228" s="338"/>
-      <c r="G228" s="338"/>
-      <c r="H228" s="338"/>
+      <c r="B228" s="377"/>
+      <c r="C228" s="377"/>
+      <c r="D228" s="377"/>
+      <c r="E228" s="377"/>
+      <c r="F228" s="377"/>
+      <c r="G228" s="377"/>
+      <c r="H228" s="377"/>
     </row>
     <row r="229" spans="2:8" ht="45">
       <c r="B229" s="97"/>
@@ -9232,94 +9236,94 @@
       </c>
     </row>
     <row r="237" spans="2:8">
-      <c r="B237" s="338"/>
-      <c r="C237" s="338"/>
-      <c r="D237" s="338"/>
-      <c r="E237" s="338"/>
-      <c r="F237" s="338"/>
-      <c r="G237" s="338"/>
-      <c r="H237" s="338"/>
+      <c r="B237" s="377"/>
+      <c r="C237" s="377"/>
+      <c r="D237" s="377"/>
+      <c r="E237" s="377"/>
+      <c r="F237" s="377"/>
+      <c r="G237" s="377"/>
+      <c r="H237" s="377"/>
     </row>
     <row r="238" spans="2:8">
-      <c r="B238" s="339"/>
-      <c r="C238" s="339"/>
-      <c r="D238" s="339"/>
-      <c r="E238" s="339"/>
-      <c r="F238" s="339"/>
-      <c r="G238" s="339"/>
-      <c r="H238" s="339"/>
+      <c r="B238" s="371"/>
+      <c r="C238" s="371"/>
+      <c r="D238" s="371"/>
+      <c r="E238" s="371"/>
+      <c r="F238" s="371"/>
+      <c r="G238" s="371"/>
+      <c r="H238" s="371"/>
     </row>
     <row r="239" spans="2:8">
-      <c r="B239" s="352" t="s">
+      <c r="B239" s="376" t="s">
         <v>188</v>
       </c>
-      <c r="C239" s="352"/>
-      <c r="D239" s="352"/>
-      <c r="E239" s="352"/>
-      <c r="F239" s="352"/>
-      <c r="G239" s="352"/>
-      <c r="H239" s="352"/>
+      <c r="C239" s="376"/>
+      <c r="D239" s="376"/>
+      <c r="E239" s="376"/>
+      <c r="F239" s="376"/>
+      <c r="G239" s="376"/>
+      <c r="H239" s="376"/>
     </row>
     <row r="240" spans="2:8">
-      <c r="B240" s="330"/>
-      <c r="C240" s="330"/>
-      <c r="D240" s="330"/>
-      <c r="E240" s="330"/>
-      <c r="F240" s="330"/>
-      <c r="G240" s="330"/>
-      <c r="H240" s="330"/>
+      <c r="B240" s="378"/>
+      <c r="C240" s="378"/>
+      <c r="D240" s="378"/>
+      <c r="E240" s="378"/>
+      <c r="F240" s="378"/>
+      <c r="G240" s="378"/>
+      <c r="H240" s="378"/>
     </row>
     <row r="241" spans="2:8">
-      <c r="B241" s="344" t="s">
+      <c r="B241" s="367" t="s">
         <v>189</v>
       </c>
-      <c r="C241" s="341"/>
-      <c r="D241" s="341"/>
-      <c r="E241" s="341"/>
-      <c r="F241" s="341"/>
-      <c r="G241" s="341"/>
-      <c r="H241" s="341"/>
+      <c r="C241" s="368"/>
+      <c r="D241" s="368"/>
+      <c r="E241" s="368"/>
+      <c r="F241" s="368"/>
+      <c r="G241" s="368"/>
+      <c r="H241" s="368"/>
     </row>
     <row r="243" spans="2:8">
-      <c r="B243" s="329" t="s">
+      <c r="B243" s="369" t="s">
         <v>190</v>
       </c>
-      <c r="C243" s="329"/>
-      <c r="D243" s="329"/>
-      <c r="E243" s="329"/>
-      <c r="F243" s="329"/>
+      <c r="C243" s="369"/>
+      <c r="D243" s="369"/>
+      <c r="E243" s="369"/>
+      <c r="F243" s="369"/>
     </row>
     <row r="244" spans="2:8">
-      <c r="B244" s="333"/>
-      <c r="C244" s="333"/>
-      <c r="D244" s="333"/>
-      <c r="E244" s="333"/>
-      <c r="F244" s="333"/>
+      <c r="B244" s="379"/>
+      <c r="C244" s="379"/>
+      <c r="D244" s="379"/>
+      <c r="E244" s="379"/>
+      <c r="F244" s="379"/>
     </row>
     <row r="245" spans="2:8">
-      <c r="B245" s="332" t="s">
+      <c r="B245" s="380" t="s">
         <v>191</v>
       </c>
-      <c r="C245" s="332"/>
-      <c r="D245" s="332"/>
-      <c r="E245" s="332"/>
-      <c r="F245" s="332"/>
+      <c r="C245" s="380"/>
+      <c r="D245" s="380"/>
+      <c r="E245" s="380"/>
+      <c r="F245" s="380"/>
     </row>
     <row r="246" spans="2:8">
-      <c r="B246" s="332" t="s">
+      <c r="B246" s="380" t="s">
         <v>192</v>
       </c>
-      <c r="C246" s="332"/>
-      <c r="D246" s="332"/>
-      <c r="E246" s="332"/>
-      <c r="F246" s="332"/>
+      <c r="C246" s="380"/>
+      <c r="D246" s="380"/>
+      <c r="E246" s="380"/>
+      <c r="F246" s="380"/>
     </row>
     <row r="247" spans="2:8">
-      <c r="B247" s="342"/>
-      <c r="C247" s="342"/>
-      <c r="D247" s="342"/>
-      <c r="E247" s="342"/>
-      <c r="F247" s="342"/>
+      <c r="B247" s="370"/>
+      <c r="C247" s="370"/>
+      <c r="D247" s="370"/>
+      <c r="E247" s="370"/>
+      <c r="F247" s="370"/>
     </row>
     <row r="248" spans="2:8">
       <c r="B248" s="31" t="s">
@@ -9843,45 +9847,45 @@
       </c>
     </row>
     <row r="283" spans="2:6">
-      <c r="B283" s="339"/>
-      <c r="C283" s="339"/>
-      <c r="D283" s="339"/>
-      <c r="E283" s="339"/>
-      <c r="F283" s="339"/>
+      <c r="B283" s="371"/>
+      <c r="C283" s="371"/>
+      <c r="D283" s="371"/>
+      <c r="E283" s="371"/>
+      <c r="F283" s="371"/>
     </row>
     <row r="284" spans="2:6">
-      <c r="B284" s="341" t="s">
+      <c r="B284" s="368" t="s">
         <v>305</v>
       </c>
-      <c r="C284" s="341"/>
-      <c r="D284" s="341"/>
-      <c r="E284" s="341"/>
-      <c r="F284" s="341"/>
+      <c r="C284" s="368"/>
+      <c r="D284" s="368"/>
+      <c r="E284" s="368"/>
+      <c r="F284" s="368"/>
     </row>
     <row r="285" spans="2:6">
-      <c r="B285" s="341"/>
-      <c r="C285" s="341"/>
-      <c r="D285" s="341"/>
-      <c r="E285" s="341"/>
-      <c r="F285" s="341"/>
+      <c r="B285" s="368"/>
+      <c r="C285" s="368"/>
+      <c r="D285" s="368"/>
+      <c r="E285" s="368"/>
+      <c r="F285" s="368"/>
     </row>
     <row r="286" spans="2:6">
-      <c r="B286" s="344" t="s">
+      <c r="B286" s="367" t="s">
         <v>306</v>
       </c>
-      <c r="C286" s="341"/>
-      <c r="D286" s="341"/>
-      <c r="E286" s="341"/>
-      <c r="F286" s="341"/>
+      <c r="C286" s="368"/>
+      <c r="D286" s="368"/>
+      <c r="E286" s="368"/>
+      <c r="F286" s="368"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="329" t="s">
+      <c r="B288" s="369" t="s">
         <v>307</v>
       </c>
-      <c r="C288" s="342"/>
-      <c r="D288" s="342"/>
-      <c r="E288" s="342"/>
-      <c r="F288" s="342"/>
+      <c r="C288" s="370"/>
+      <c r="D288" s="370"/>
+      <c r="E288" s="370"/>
+      <c r="F288" s="370"/>
     </row>
     <row r="290" spans="2:7">
       <c r="B290" t="s">
@@ -10656,66 +10660,66 @@
       </c>
     </row>
     <row r="336" spans="2:7">
-      <c r="B336" s="339"/>
-      <c r="C336" s="339"/>
-      <c r="D336" s="339"/>
-      <c r="E336" s="339"/>
-      <c r="F336" s="339"/>
-      <c r="G336" s="339"/>
+      <c r="B336" s="371"/>
+      <c r="C336" s="371"/>
+      <c r="D336" s="371"/>
+      <c r="E336" s="371"/>
+      <c r="F336" s="371"/>
+      <c r="G336" s="371"/>
     </row>
     <row r="337" spans="2:7">
-      <c r="B337" s="341" t="s">
+      <c r="B337" s="368" t="s">
         <v>305</v>
       </c>
-      <c r="C337" s="341"/>
-      <c r="D337" s="341"/>
-      <c r="E337" s="341"/>
-      <c r="F337" s="341"/>
-      <c r="G337" s="341"/>
+      <c r="C337" s="368"/>
+      <c r="D337" s="368"/>
+      <c r="E337" s="368"/>
+      <c r="F337" s="368"/>
+      <c r="G337" s="368"/>
     </row>
     <row r="338" spans="2:7">
-      <c r="B338" s="341"/>
-      <c r="C338" s="341"/>
-      <c r="D338" s="341"/>
-      <c r="E338" s="341"/>
-      <c r="F338" s="341"/>
-      <c r="G338" s="341"/>
+      <c r="B338" s="368"/>
+      <c r="C338" s="368"/>
+      <c r="D338" s="368"/>
+      <c r="E338" s="368"/>
+      <c r="F338" s="368"/>
+      <c r="G338" s="368"/>
     </row>
     <row r="339" spans="2:7">
-      <c r="B339" s="344" t="s">
+      <c r="B339" s="367" t="s">
         <v>493</v>
       </c>
-      <c r="C339" s="341"/>
-      <c r="D339" s="341"/>
-      <c r="E339" s="341"/>
-      <c r="F339" s="341"/>
-      <c r="G339" s="341"/>
+      <c r="C339" s="368"/>
+      <c r="D339" s="368"/>
+      <c r="E339" s="368"/>
+      <c r="F339" s="368"/>
+      <c r="G339" s="368"/>
     </row>
     <row r="340" spans="2:7">
-      <c r="B340" s="341" t="s">
+      <c r="B340" s="368" t="s">
         <v>494</v>
       </c>
-      <c r="C340" s="341"/>
-      <c r="D340" s="341"/>
-      <c r="E340" s="341"/>
-      <c r="F340" s="341"/>
-      <c r="G340" s="341"/>
+      <c r="C340" s="368"/>
+      <c r="D340" s="368"/>
+      <c r="E340" s="368"/>
+      <c r="F340" s="368"/>
+      <c r="G340" s="368"/>
     </row>
     <row r="342" spans="2:7">
-      <c r="B342" s="348" t="s">
+      <c r="B342" s="372" t="s">
         <v>495</v>
       </c>
-      <c r="C342" s="348"/>
+      <c r="C342" s="372"/>
     </row>
     <row r="343" spans="2:7">
-      <c r="B343" s="349"/>
-      <c r="C343" s="349"/>
+      <c r="B343" s="373"/>
+      <c r="C343" s="373"/>
     </row>
     <row r="344" spans="2:7">
-      <c r="B344" s="350" t="s">
+      <c r="B344" s="374" t="s">
         <v>496</v>
       </c>
-      <c r="C344" s="350"/>
+      <c r="C344" s="374"/>
     </row>
     <row r="345" spans="2:7">
       <c r="B345" s="109"/>
@@ -10775,14 +10779,14 @@
       <c r="C352" s="115"/>
     </row>
     <row r="353" spans="2:7">
-      <c r="B353" s="351"/>
-      <c r="C353" s="351"/>
+      <c r="B353" s="375"/>
+      <c r="C353" s="375"/>
     </row>
     <row r="354" spans="2:7">
-      <c r="B354" s="347" t="s">
+      <c r="B354" s="366" t="s">
         <v>504</v>
       </c>
-      <c r="C354" s="347"/>
+      <c r="C354" s="366"/>
       <c r="D354" s="58"/>
       <c r="E354" s="58"/>
       <c r="F354" s="58"/>
@@ -10790,6 +10794,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B228:H228"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B227:H227"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B237:H237"/>
+    <mergeCell ref="B240:H240"/>
+    <mergeCell ref="B241:H241"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B354:C354"/>
     <mergeCell ref="B286:F286"/>
@@ -10806,45 +10849,6 @@
     <mergeCell ref="B285:F285"/>
     <mergeCell ref="B238:H238"/>
     <mergeCell ref="B239:H239"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B237:H237"/>
-    <mergeCell ref="B240:H240"/>
-    <mergeCell ref="B241:H241"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B228:H228"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B227:H227"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10873,29 +10877,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20">
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="389" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="390" t="s">
         <v>507</v>
       </c>
-      <c r="C3" s="355"/>
-      <c r="D3" s="355"/>
-      <c r="E3" s="356"/>
-      <c r="G3" s="354" t="s">
+      <c r="C3" s="391"/>
+      <c r="D3" s="391"/>
+      <c r="E3" s="392"/>
+      <c r="G3" s="390" t="s">
         <v>526</v>
       </c>
-      <c r="H3" s="355"/>
-      <c r="I3" s="356"/>
+      <c r="H3" s="391"/>
+      <c r="I3" s="392"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="144" t="s">
@@ -10987,12 +10991,12 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="360" t="s">
+      <c r="B9" s="396" t="s">
         <v>525</v>
       </c>
-      <c r="C9" s="361"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="362"/>
+      <c r="C9" s="397"/>
+      <c r="D9" s="397"/>
+      <c r="E9" s="398"/>
       <c r="F9" s="155"/>
       <c r="G9" s="149" t="s">
         <v>167</v>
@@ -11127,19 +11131,19 @@
     <row r="17" spans="2:9" ht="16" customHeight="1">
       <c r="B17" s="167"/>
       <c r="C17" s="168"/>
-      <c r="G17" s="357" t="s">
+      <c r="G17" s="393" t="s">
         <v>528</v>
       </c>
-      <c r="H17" s="358"/>
-      <c r="I17" s="359"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="395"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="396" t="s">
         <v>524</v>
       </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="362"/>
+      <c r="C18" s="397"/>
+      <c r="D18" s="397"/>
+      <c r="E18" s="398"/>
       <c r="G18" s="164" t="s">
         <v>518</v>
       </c>
@@ -11280,12 +11284,12 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="354" t="s">
+      <c r="B27" s="390" t="s">
         <v>511</v>
       </c>
-      <c r="C27" s="355"/>
-      <c r="D27" s="355"/>
-      <c r="E27" s="356"/>
+      <c r="C27" s="391"/>
+      <c r="D27" s="391"/>
+      <c r="E27" s="392"/>
       <c r="H27" s="173"/>
     </row>
     <row r="28" spans="2:9">
@@ -11298,11 +11302,11 @@
         <f>'Data Source'!M170</f>
         <v>0.15906941395354476</v>
       </c>
-      <c r="G28" s="357" t="s">
+      <c r="G28" s="393" t="s">
         <v>523</v>
       </c>
-      <c r="H28" s="358"/>
-      <c r="I28" s="359"/>
+      <c r="H28" s="394"/>
+      <c r="I28" s="395"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="174" t="s">
@@ -11332,12 +11336,12 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="354" t="s">
+      <c r="B31" s="390" t="s">
         <v>527</v>
       </c>
-      <c r="C31" s="355"/>
-      <c r="D31" s="355"/>
-      <c r="E31" s="356"/>
+      <c r="C31" s="391"/>
+      <c r="D31" s="391"/>
+      <c r="E31" s="392"/>
       <c r="G31" s="177" t="s">
         <v>530</v>
       </c>
@@ -11392,12 +11396,12 @@
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="354" t="s">
+      <c r="B35" s="390" t="s">
         <v>537</v>
       </c>
-      <c r="C35" s="355"/>
-      <c r="D35" s="355"/>
-      <c r="E35" s="356"/>
+      <c r="C35" s="391"/>
+      <c r="D35" s="391"/>
+      <c r="E35" s="392"/>
       <c r="G35" s="152" t="s">
         <v>521</v>
       </c>
@@ -11424,11 +11428,11 @@
         <f>'Data Source'!H75</f>
         <v>0.10826845400891985</v>
       </c>
-      <c r="G37" s="354" t="s">
+      <c r="G37" s="390" t="s">
         <v>532</v>
       </c>
-      <c r="H37" s="355"/>
-      <c r="I37" s="356"/>
+      <c r="H37" s="391"/>
+      <c r="I37" s="392"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="186" t="s">
@@ -11519,11 +11523,11 @@
       <c r="C43" s="145"/>
       <c r="D43" s="145"/>
       <c r="E43" s="146"/>
-      <c r="G43" s="354" t="s">
+      <c r="G43" s="390" t="s">
         <v>546</v>
       </c>
-      <c r="H43" s="355"/>
-      <c r="I43" s="356"/>
+      <c r="H43" s="391"/>
+      <c r="I43" s="392"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="187" t="s">
@@ -11541,11 +11545,11 @@
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="G46" s="354" t="s">
+      <c r="G46" s="390" t="s">
         <v>623</v>
       </c>
-      <c r="H46" s="355"/>
-      <c r="I46" s="356"/>
+      <c r="H46" s="391"/>
+      <c r="I46" s="392"/>
     </row>
     <row r="47" spans="2:9">
       <c r="G47" s="202" t="s">
@@ -11607,18 +11611,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="327"/>
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="389" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
-      <c r="J1" s="353"/>
-      <c r="K1" s="353"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="203"/>
@@ -11633,18 +11637,18 @@
       <c r="K2" s="290"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="363" t="s">
+      <c r="B3" s="399" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="363"/>
-      <c r="K3" s="363"/>
+      <c r="C3" s="399"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="399"/>
+      <c r="F3" s="399"/>
+      <c r="G3" s="399"/>
+      <c r="H3" s="399"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
+      <c r="K3" s="399"/>
     </row>
     <row r="4" spans="1:11" s="204" customFormat="1">
       <c r="B4" s="200"/>
@@ -12651,18 +12655,18 @@
       <c r="K39" s="302"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="363" t="s">
+      <c r="B41" s="399" t="s">
         <v>550</v>
       </c>
-      <c r="C41" s="363"/>
-      <c r="D41" s="363"/>
-      <c r="E41" s="363"/>
-      <c r="F41" s="363"/>
-      <c r="G41" s="363"/>
-      <c r="H41" s="363"/>
-      <c r="I41" s="363"/>
-      <c r="J41" s="363"/>
-      <c r="K41" s="363"/>
+      <c r="C41" s="399"/>
+      <c r="D41" s="399"/>
+      <c r="E41" s="399"/>
+      <c r="F41" s="399"/>
+      <c r="G41" s="399"/>
+      <c r="H41" s="399"/>
+      <c r="I41" s="399"/>
+      <c r="J41" s="399"/>
+      <c r="K41" s="399"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="145"/>
@@ -12888,18 +12892,18 @@
       <c r="K49" s="303"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="363" t="s">
+      <c r="B51" s="399" t="s">
         <v>552</v>
       </c>
-      <c r="C51" s="363"/>
-      <c r="D51" s="363"/>
-      <c r="E51" s="363"/>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="I51" s="363"/>
-      <c r="J51" s="363"/>
-      <c r="K51" s="363"/>
+      <c r="C51" s="399"/>
+      <c r="D51" s="399"/>
+      <c r="E51" s="399"/>
+      <c r="F51" s="399"/>
+      <c r="G51" s="399"/>
+      <c r="H51" s="399"/>
+      <c r="I51" s="399"/>
+      <c r="J51" s="399"/>
+      <c r="K51" s="399"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="200" t="s">
@@ -13114,18 +13118,18 @@
     </row>
     <row r="59" spans="2:11" ht="17" thickTop="1"/>
     <row r="61" spans="2:11">
-      <c r="B61" s="363" t="s">
+      <c r="B61" s="399" t="s">
         <v>559</v>
       </c>
-      <c r="C61" s="363"/>
-      <c r="D61" s="363"/>
-      <c r="E61" s="363"/>
-      <c r="F61" s="363"/>
-      <c r="G61" s="363"/>
-      <c r="H61" s="363"/>
-      <c r="I61" s="363"/>
-      <c r="J61" s="363"/>
-      <c r="K61" s="363"/>
+      <c r="C61" s="399"/>
+      <c r="D61" s="399"/>
+      <c r="E61" s="399"/>
+      <c r="F61" s="399"/>
+      <c r="G61" s="399"/>
+      <c r="H61" s="399"/>
+      <c r="I61" s="399"/>
+      <c r="J61" s="399"/>
+      <c r="K61" s="399"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="200" t="s">
@@ -13774,18 +13778,18 @@
       <c r="F84" s="264"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="363" t="s">
+      <c r="B85" s="399" t="s">
         <v>568</v>
       </c>
-      <c r="C85" s="363"/>
-      <c r="D85" s="363"/>
-      <c r="E85" s="363"/>
-      <c r="F85" s="363"/>
-      <c r="G85" s="363"/>
-      <c r="H85" s="363"/>
-      <c r="I85" s="363"/>
-      <c r="J85" s="363"/>
-      <c r="K85" s="363"/>
+      <c r="C85" s="399"/>
+      <c r="D85" s="399"/>
+      <c r="E85" s="399"/>
+      <c r="F85" s="399"/>
+      <c r="G85" s="399"/>
+      <c r="H85" s="399"/>
+      <c r="I85" s="399"/>
+      <c r="J85" s="399"/>
+      <c r="K85" s="399"/>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="200" t="s">
@@ -14401,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:11" s="386" customFormat="1" ht="17" thickBot="1">
+    <row r="109" spans="2:11" s="351" customFormat="1" ht="17" thickBot="1">
       <c r="B109" s="238" t="s">
         <v>650</v>
       </c>
@@ -14432,18 +14436,18 @@
     </row>
     <row r="110" spans="2:11" ht="17" thickTop="1"/>
     <row r="112" spans="2:11">
-      <c r="B112" s="363" t="s">
+      <c r="B112" s="399" t="s">
         <v>566</v>
       </c>
-      <c r="C112" s="363"/>
-      <c r="D112" s="363"/>
-      <c r="E112" s="363"/>
-      <c r="F112" s="363"/>
-      <c r="G112" s="363"/>
-      <c r="H112" s="363"/>
-      <c r="I112" s="363"/>
-      <c r="J112" s="363"/>
-      <c r="K112" s="363"/>
+      <c r="C112" s="399"/>
+      <c r="D112" s="399"/>
+      <c r="E112" s="399"/>
+      <c r="F112" s="399"/>
+      <c r="G112" s="399"/>
+      <c r="H112" s="399"/>
+      <c r="I112" s="399"/>
+      <c r="J112" s="399"/>
+      <c r="K112" s="399"/>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="206" t="s">
@@ -16291,18 +16295,18 @@
     </row>
     <row r="204" spans="2:11" ht="17" thickTop="1"/>
     <row r="206" spans="2:11">
-      <c r="B206" s="363" t="s">
+      <c r="B206" s="399" t="s">
         <v>587</v>
       </c>
-      <c r="C206" s="363"/>
-      <c r="D206" s="363"/>
-      <c r="E206" s="363"/>
-      <c r="F206" s="363"/>
-      <c r="G206" s="363"/>
-      <c r="H206" s="363"/>
-      <c r="I206" s="363"/>
-      <c r="J206" s="363"/>
-      <c r="K206" s="363"/>
+      <c r="C206" s="399"/>
+      <c r="D206" s="399"/>
+      <c r="E206" s="399"/>
+      <c r="F206" s="399"/>
+      <c r="G206" s="399"/>
+      <c r="H206" s="399"/>
+      <c r="I206" s="399"/>
+      <c r="J206" s="399"/>
+      <c r="K206" s="399"/>
     </row>
     <row r="207" spans="2:11">
       <c r="B207" s="200" t="s">
@@ -16411,23 +16415,23 @@
         <v>3237</v>
       </c>
       <c r="G210" s="319">
-        <f>G36</f>
+        <f t="shared" ref="G210:K211" si="66">G36</f>
         <v>3599.3105348425479</v>
       </c>
       <c r="H210" s="319">
-        <f>H36</f>
+        <f t="shared" si="66"/>
         <v>3830.061364442</v>
       </c>
       <c r="I210" s="319">
-        <f>I36</f>
+        <f t="shared" si="66"/>
         <v>4093.9127055116078</v>
       </c>
       <c r="J210" s="319">
-        <f>J36</f>
+        <f t="shared" si="66"/>
         <v>4394.1364498125213</v>
       </c>
       <c r="K210" s="319">
-        <f>K36</f>
+        <f t="shared" si="66"/>
         <v>4734.4235314850466</v>
       </c>
     </row>
@@ -16449,23 +16453,23 @@
         <v>901</v>
       </c>
       <c r="G211" s="319">
-        <f>G37</f>
+        <f t="shared" si="66"/>
         <v>984.01110515186883</v>
       </c>
       <c r="H211" s="319">
-        <f>H37</f>
+        <f t="shared" si="66"/>
         <v>1310.2542017079868</v>
       </c>
       <c r="I211" s="319">
-        <f>I37</f>
+        <f t="shared" si="66"/>
         <v>1744.6612788261918</v>
       </c>
       <c r="J211" s="319">
-        <f>J37</f>
+        <f t="shared" si="66"/>
         <v>2323.0934683267033</v>
       </c>
       <c r="K211" s="319">
-        <f>K37</f>
+        <f t="shared" si="66"/>
         <v>3093.3014494441777</v>
       </c>
     </row>
@@ -16479,11 +16483,11 @@
         <v>22368</v>
       </c>
       <c r="E212" s="280">
-        <f t="shared" ref="E212:F212" si="66">SUM(E209:E211)</f>
+        <f t="shared" ref="E212:F212" si="67">SUM(E209:E211)</f>
         <v>22458</v>
       </c>
       <c r="F212" s="280">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>24788</v>
       </c>
       <c r="G212" s="320">
@@ -16491,19 +16495,19 @@
         <v>26344.1776825054</v>
       </c>
       <c r="H212" s="320">
-        <f t="shared" ref="H212:K212" si="67">SUM(H209:H211)</f>
+        <f t="shared" ref="H212:K212" si="68">SUM(H209:H211)</f>
         <v>28102.976826474252</v>
       </c>
       <c r="I212" s="320">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>30108.345584131504</v>
       </c>
       <c r="J212" s="320">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>32411.142229054865</v>
       </c>
       <c r="K212" s="320">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>35075.953038810258</v>
       </c>
     </row>
@@ -16551,23 +16555,23 @@
         <v>14346</v>
       </c>
       <c r="G215" s="298">
-        <f>G44</f>
+        <f t="shared" ref="G215:K218" si="69">G44</f>
         <v>15094.961282286298</v>
       </c>
       <c r="H215" s="298">
-        <f>H44</f>
+        <f t="shared" si="69"/>
         <v>15883.023568501492</v>
       </c>
       <c r="I215" s="298">
-        <f>I44</f>
+        <f t="shared" si="69"/>
         <v>16712.228203831786</v>
       </c>
       <c r="J215" s="298">
-        <f>J44</f>
+        <f t="shared" si="69"/>
         <v>17584.723105923178</v>
       </c>
       <c r="K215" s="298">
-        <f>K44</f>
+        <f t="shared" si="69"/>
         <v>18502.768328707349</v>
       </c>
     </row>
@@ -16580,23 +16584,23 @@
       <c r="E216" s="285"/>
       <c r="F216" s="285"/>
       <c r="G216" s="298">
-        <f>G45</f>
+        <f t="shared" si="69"/>
         <v>211</v>
       </c>
       <c r="H216" s="298">
-        <f>H45</f>
+        <f t="shared" si="69"/>
         <v>146</v>
       </c>
       <c r="I216" s="298">
-        <f>I45</f>
+        <f t="shared" si="69"/>
         <v>115</v>
       </c>
       <c r="J216" s="298">
-        <f>J45</f>
+        <f t="shared" si="69"/>
         <v>94</v>
       </c>
       <c r="K216" s="298">
-        <f>K45</f>
+        <f t="shared" si="69"/>
         <v>77</v>
       </c>
     </row>
@@ -16609,23 +16613,23 @@
       <c r="E217" s="285"/>
       <c r="F217" s="285"/>
       <c r="G217" s="294">
-        <f>G46</f>
+        <f t="shared" si="69"/>
         <v>710.73095238095243</v>
       </c>
       <c r="H217" s="294">
-        <f>H46</f>
+        <f t="shared" si="69"/>
         <v>765.29627290599183</v>
       </c>
       <c r="I217" s="294">
-        <f>I46</f>
+        <f t="shared" si="69"/>
         <v>809.55412855608608</v>
       </c>
       <c r="J217" s="294">
-        <f>J46</f>
+        <f t="shared" si="69"/>
         <v>859.85142152649632</v>
       </c>
       <c r="K217" s="294">
-        <f>K46</f>
+        <f t="shared" si="69"/>
         <v>917.4402001119455</v>
       </c>
     </row>
@@ -16647,23 +16651,23 @@
         <v>7352</v>
       </c>
       <c r="G218" s="298">
-        <f>G47</f>
+        <f t="shared" si="69"/>
         <v>7648.3904087928177</v>
       </c>
       <c r="H218" s="298">
-        <f>H47</f>
+        <f t="shared" si="69"/>
         <v>7956.7295763484717</v>
       </c>
       <c r="I218" s="298">
-        <f>I47</f>
+        <f t="shared" si="69"/>
         <v>8277.4992079844651</v>
       </c>
       <c r="J218" s="298">
-        <f>J47</f>
+        <f t="shared" si="69"/>
         <v>8611.2004286097017</v>
       </c>
       <c r="K218" s="298">
-        <f>K47</f>
+        <f t="shared" si="69"/>
         <v>8958.3545656108599</v>
       </c>
     </row>
@@ -16689,19 +16693,19 @@
         <v>—</v>
       </c>
       <c r="H219" s="322" t="str">
-        <f t="shared" ref="H219:K219" si="68">G219</f>
+        <f t="shared" ref="H219:K219" si="70">G219</f>
         <v>—</v>
       </c>
       <c r="I219" s="322" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>—</v>
       </c>
       <c r="J219" s="322" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>—</v>
       </c>
       <c r="K219" s="322" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>—</v>
       </c>
     </row>
@@ -16715,11 +16719,11 @@
         <v>20339</v>
       </c>
       <c r="E220" s="280">
-        <f t="shared" ref="E220:F220" si="69">SUM(E215:E219)</f>
+        <f t="shared" ref="E220:F220" si="71">SUM(E215:E219)</f>
         <v>20750</v>
       </c>
       <c r="F220" s="280">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>21698</v>
       </c>
       <c r="G220" s="307">
@@ -16727,19 +16731,19 @@
         <v>23665.082643460068</v>
       </c>
       <c r="H220" s="307">
-        <f t="shared" ref="H220:K220" si="70">SUM(H215:H219)</f>
+        <f t="shared" ref="H220:K220" si="72">SUM(H215:H219)</f>
         <v>24751.049417755956</v>
       </c>
       <c r="I220" s="307">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>25914.281540372336</v>
       </c>
       <c r="J220" s="307">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>27149.774956059373</v>
       </c>
       <c r="K220" s="307">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>28455.563094430152</v>
       </c>
     </row>
@@ -16753,11 +16757,11 @@
         <v>2029</v>
       </c>
       <c r="E221" s="280">
-        <f t="shared" ref="E221:F221" si="71">E212-E220</f>
+        <f t="shared" ref="E221:F221" si="73">E212-E220</f>
         <v>1708</v>
       </c>
       <c r="F221" s="280">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>3090</v>
       </c>
       <c r="G221" s="313">
@@ -16765,19 +16769,19 @@
         <v>2679.0950390453327</v>
       </c>
       <c r="H221" s="313">
-        <f t="shared" ref="H221:K221" si="72">H212-H220</f>
+        <f t="shared" ref="H221:K221" si="74">H212-H220</f>
         <v>3351.9274087182966</v>
       </c>
       <c r="I221" s="313">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>4194.0640437591683</v>
       </c>
       <c r="J221" s="313">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>5261.3672729954924</v>
       </c>
       <c r="K221" s="313">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>6620.3899443801056</v>
       </c>
     </row>
@@ -16853,19 +16857,19 @@
         <v>2512.8404890453326</v>
       </c>
       <c r="H224" s="323">
-        <f t="shared" ref="H224:K224" si="73">H221-H223</f>
+        <f t="shared" ref="H224:K224" si="75">H221-H223</f>
         <v>3184.0103132182967</v>
       </c>
       <c r="I224" s="323">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4024.4677773041681</v>
       </c>
       <c r="J224" s="323">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>5090.0750438759424</v>
       </c>
       <c r="K224" s="323">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>6447.3847929693602</v>
       </c>
     </row>
@@ -16929,11 +16933,11 @@
         <v>1146</v>
       </c>
       <c r="E227" s="273">
-        <f t="shared" ref="E227:F227" si="74">E224-E225</f>
+        <f t="shared" ref="E227:F227" si="76">E224-E225</f>
         <v>909</v>
       </c>
       <c r="F227" s="273">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1741</v>
       </c>
       <c r="G227" s="314">
@@ -16945,32 +16949,32 @@
         <v>2069.6067035918932</v>
       </c>
       <c r="I227" s="314">
-        <f t="shared" ref="I227:K227" si="75">I224-I225</f>
+        <f t="shared" ref="I227:K227" si="77">I224-I225</f>
         <v>2615.904055247709</v>
       </c>
       <c r="J227" s="314">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>3308.5487785193627</v>
       </c>
       <c r="K227" s="314">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>4190.8001154300837</v>
       </c>
     </row>
     <row r="228" spans="2:11" ht="17" thickTop="1"/>
     <row r="230" spans="2:11">
-      <c r="B230" s="363" t="s">
+      <c r="B230" s="399" t="s">
         <v>594</v>
       </c>
-      <c r="C230" s="363"/>
-      <c r="D230" s="363"/>
-      <c r="E230" s="363"/>
-      <c r="F230" s="363"/>
-      <c r="G230" s="363"/>
-      <c r="H230" s="363"/>
-      <c r="I230" s="363"/>
-      <c r="J230" s="363"/>
-      <c r="K230" s="363"/>
+      <c r="C230" s="399"/>
+      <c r="D230" s="399"/>
+      <c r="E230" s="399"/>
+      <c r="F230" s="399"/>
+      <c r="G230" s="399"/>
+      <c r="H230" s="399"/>
+      <c r="I230" s="399"/>
+      <c r="J230" s="399"/>
+      <c r="K230" s="399"/>
     </row>
     <row r="231" spans="2:11">
       <c r="B231" s="200" t="s">
@@ -16985,7 +16989,7 @@
         <v>1997</v>
       </c>
       <c r="F231" s="262">
-        <f t="shared" ref="F231" si="76">E231+1</f>
+        <f t="shared" ref="F231" si="78">E231+1</f>
         <v>1998</v>
       </c>
       <c r="G231" s="291">
@@ -16993,15 +16997,15 @@
         <v>1999</v>
       </c>
       <c r="H231" s="291">
-        <f t="shared" ref="H231:J231" si="77">G231+1</f>
+        <f t="shared" ref="H231:J231" si="79">G231+1</f>
         <v>2000</v>
       </c>
       <c r="I231" s="291">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>2001</v>
       </c>
       <c r="J231" s="291">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>2002</v>
       </c>
       <c r="K231" s="291">
@@ -17032,23 +17036,23 @@
       <c r="E233" s="265"/>
       <c r="F233" s="265"/>
       <c r="G233" s="305">
-        <f t="shared" ref="G233:K233" si="78">G227</f>
+        <f t="shared" ref="G233:K233" si="80">G227</f>
         <v>1633.3463178794664</v>
       </c>
       <c r="H233" s="305">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>2069.6067035918932</v>
       </c>
       <c r="I233" s="305">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>2615.904055247709</v>
       </c>
       <c r="J233" s="305">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>3308.5487785193627</v>
       </c>
       <c r="K233" s="305">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>4190.8001154300837</v>
       </c>
     </row>
@@ -17065,19 +17069,19 @@
         <v>710.73095238095243</v>
       </c>
       <c r="H234" s="294">
-        <f t="shared" ref="H234:K234" si="79">H203</f>
+        <f t="shared" ref="H234:K234" si="81">H203</f>
         <v>765.29627290599183</v>
       </c>
       <c r="I234" s="294">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>809.55412855608608</v>
       </c>
       <c r="J234" s="294">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>859.85142152649632</v>
       </c>
       <c r="K234" s="294">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>917.4402001119455</v>
       </c>
     </row>
@@ -17123,19 +17127,19 @@
         <v>2416.2421530034817</v>
       </c>
       <c r="H236" s="307">
-        <f t="shared" ref="H236:K236" si="80">H233+H234-H235</f>
+        <f t="shared" ref="H236:K236" si="82">H233+H234-H235</f>
         <v>2790.5837857438955</v>
       </c>
       <c r="I236" s="307">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>3374.9257959484376</v>
       </c>
       <c r="J236" s="307">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>4110.373060264732</v>
       </c>
       <c r="K236" s="307">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>5041.0909431956579</v>
       </c>
     </row>
@@ -17178,19 +17182,19 @@
         <v>1253.519389788856</v>
       </c>
       <c r="H239" s="300">
-        <f t="shared" ref="H239:K239" si="81">H107</f>
+        <f t="shared" ref="H239:K239" si="83">H107</f>
         <v>1142.8631139070189</v>
       </c>
       <c r="I239" s="300">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1298.4311524405362</v>
       </c>
       <c r="J239" s="300">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1486.017042804021</v>
       </c>
       <c r="K239" s="300">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1714.2623280284004</v>
       </c>
     </row>
@@ -17207,19 +17211,19 @@
         <v>0</v>
       </c>
       <c r="H240" s="300">
-        <f t="shared" ref="H240:K240" si="82">H108</f>
+        <f t="shared" ref="H240:K240" si="84">H108</f>
         <v>0</v>
       </c>
       <c r="I240" s="300">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="J240" s="300">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="K240" s="300">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
     </row>
@@ -17236,19 +17240,19 @@
         <v>-1253.519389788856</v>
       </c>
       <c r="H241" s="313">
-        <f t="shared" ref="H241:K241" si="83">-SUM(H239:H240)</f>
+        <f t="shared" ref="H241:K241" si="85">-SUM(H239:H240)</f>
         <v>-1142.8631139070189</v>
       </c>
       <c r="I241" s="313">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1298.4311524405362</v>
       </c>
       <c r="J241" s="313">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1486.017042804021</v>
       </c>
       <c r="K241" s="313">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1714.2623280284004</v>
       </c>
     </row>
@@ -17291,19 +17295,19 @@
         <v>196</v>
       </c>
       <c r="H244" s="305">
-        <f t="shared" ref="H244:K244" si="84">H57</f>
+        <f t="shared" ref="H244:K244" si="86">H57</f>
         <v>23.869999999999891</v>
       </c>
       <c r="I244" s="305">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>24.108700000000226</v>
       </c>
       <c r="J244" s="305">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>24.349787000000106</v>
       </c>
       <c r="K244" s="305">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>24.593284869999934</v>
       </c>
     </row>
@@ -17320,19 +17324,19 @@
         <v>11.935</v>
       </c>
       <c r="H245" s="306">
-        <f t="shared" ref="H245:K245" si="85">H55</f>
+        <f t="shared" ref="H245:K245" si="87">H55</f>
         <v>12.054349999999999</v>
       </c>
       <c r="I245" s="306">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>12.174893500000001</v>
       </c>
       <c r="J245" s="306">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>12.296642435000001</v>
       </c>
       <c r="K245" s="306">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>12.419608859350001</v>
       </c>
     </row>
@@ -17349,19 +17353,19 @@
         <v>184.065</v>
       </c>
       <c r="H246" s="307">
-        <f t="shared" ref="H246:K246" si="86">H244-H245</f>
+        <f t="shared" ref="H246:K246" si="88">H244-H245</f>
         <v>11.815649999999891</v>
       </c>
       <c r="I246" s="307">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>11.933806500000225</v>
       </c>
       <c r="J246" s="307">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>12.053144565000105</v>
       </c>
       <c r="K246" s="307">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>12.173676010649933</v>
       </c>
     </row>
@@ -17390,19 +17394,19 @@
         <v>1346.7877632146258</v>
       </c>
       <c r="H248" s="324">
-        <f t="shared" ref="H248:K248" si="87">H236+H241+H246</f>
+        <f t="shared" ref="H248:K248" si="89">H236+H241+H246</f>
         <v>1659.5363218368766</v>
       </c>
       <c r="I248" s="324">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2088.4284500079016</v>
       </c>
       <c r="J248" s="324">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2636.4091620257109</v>
       </c>
       <c r="K248" s="324">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>3339.0022911779074</v>
       </c>
     </row>
@@ -17419,19 +17423,19 @@
         <v>1240</v>
       </c>
       <c r="H249" s="325">
-        <f t="shared" ref="H249:K249" si="88">G250</f>
+        <f t="shared" ref="H249:K249" si="90">G250</f>
         <v>2586.7877632146256</v>
       </c>
       <c r="I249" s="325">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>4246.3240850515022</v>
       </c>
       <c r="J249" s="325">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>6334.7525350594042</v>
       </c>
       <c r="K249" s="325">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>8971.1616970851155</v>
       </c>
     </row>
@@ -17451,36 +17455,36 @@
         <v>2586.7877632146256</v>
       </c>
       <c r="H250" s="326">
-        <f t="shared" ref="H250:K250" si="89">SUM(H248:H249)</f>
+        <f t="shared" ref="H250:K250" si="91">SUM(H248:H249)</f>
         <v>4246.3240850515022</v>
       </c>
       <c r="I250" s="326">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>6334.7525350594042</v>
       </c>
       <c r="J250" s="326">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>8971.1616970851155</v>
       </c>
       <c r="K250" s="326">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>12310.163988263022</v>
       </c>
     </row>
     <row r="251" spans="2:11" ht="17" thickTop="1"/>
     <row r="253" spans="2:11">
-      <c r="B253" s="363" t="s">
+      <c r="B253" s="399" t="s">
         <v>595</v>
       </c>
-      <c r="C253" s="363"/>
-      <c r="D253" s="363"/>
-      <c r="E253" s="363"/>
-      <c r="F253" s="363"/>
-      <c r="G253" s="363"/>
-      <c r="H253" s="363"/>
-      <c r="I253" s="363"/>
-      <c r="J253" s="363"/>
-      <c r="K253" s="363"/>
+      <c r="C253" s="399"/>
+      <c r="D253" s="399"/>
+      <c r="E253" s="399"/>
+      <c r="F253" s="399"/>
+      <c r="G253" s="399"/>
+      <c r="H253" s="399"/>
+      <c r="I253" s="399"/>
+      <c r="J253" s="399"/>
+      <c r="K253" s="399"/>
     </row>
     <row r="254" spans="2:11">
       <c r="B254" s="200" t="s">
@@ -17495,7 +17499,7 @@
         <v>1997</v>
       </c>
       <c r="F254" s="262">
-        <f t="shared" ref="F254" si="90">E254+1</f>
+        <f t="shared" ref="F254" si="92">E254+1</f>
         <v>1998</v>
       </c>
       <c r="G254" s="291">
@@ -17503,15 +17507,15 @@
         <v>1999</v>
       </c>
       <c r="H254" s="291">
-        <f t="shared" ref="H254:J254" si="91">G254+1</f>
+        <f t="shared" ref="H254:J254" si="93">G254+1</f>
         <v>2000</v>
       </c>
       <c r="I254" s="291">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>2001</v>
       </c>
       <c r="J254" s="291">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>2002</v>
       </c>
       <c r="K254" s="291">
@@ -17566,19 +17570,19 @@
         <v>2586.7877632146265</v>
       </c>
       <c r="H257" s="305">
-        <f t="shared" ref="H257:K257" si="92">H263-SUM(H258:H262)</f>
+        <f t="shared" ref="H257:K257" si="94">H263-SUM(H258:H262)</f>
         <v>4258.2590850514989</v>
       </c>
       <c r="I257" s="305">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>6358.7418850593986</v>
       </c>
       <c r="J257" s="305">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>9007.3259405851113</v>
       </c>
       <c r="K257" s="305">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>12358.624874198016</v>
       </c>
     </row>
@@ -17601,19 +17605,19 @@
         <v>389</v>
       </c>
       <c r="H258" s="293">
-        <f t="shared" ref="H258:K258" si="93">G258</f>
+        <f t="shared" ref="H258:K258" si="95">G258</f>
         <v>389</v>
       </c>
       <c r="I258" s="293">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>389</v>
       </c>
       <c r="J258" s="293">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>389</v>
       </c>
       <c r="K258" s="293">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>389</v>
       </c>
     </row>
@@ -17636,19 +17640,19 @@
         <v>2852.2433898211489</v>
       </c>
       <c r="H259" s="300">
-        <f t="shared" ref="H259:K259" si="94">H66</f>
+        <f t="shared" ref="H259:K259" si="96">H66</f>
         <v>3042.6658540508679</v>
       </c>
       <c r="I259" s="300">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>3259.784029160207</v>
       </c>
       <c r="J259" s="300">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>3509.1042618029869</v>
       </c>
       <c r="K259" s="300">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>3797.619208401461</v>
       </c>
     </row>
@@ -17667,23 +17671,23 @@
         <v>703</v>
       </c>
       <c r="G260" s="300">
-        <f t="shared" ref="G260:K260" si="95">G67</f>
+        <f t="shared" ref="G260:K260" si="97">G67</f>
         <v>765.94954190996771</v>
       </c>
       <c r="H260" s="300">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>817.08613136324948</v>
       </c>
       <c r="I260" s="300">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>875.39166284727696</v>
       </c>
       <c r="J260" s="300">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>942.34482633365053</v>
       </c>
       <c r="K260" s="300">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1019.8234496411577</v>
       </c>
     </row>
@@ -17702,23 +17706,23 @@
         <v>380</v>
       </c>
       <c r="G261" s="300">
-        <f t="shared" ref="G261:K261" si="96">G68</f>
+        <f t="shared" ref="G261:K261" si="98">G68</f>
         <v>446.50736182616907</v>
       </c>
       <c r="H261" s="300">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>476.31724145954132</v>
       </c>
       <c r="I261" s="300">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>510.30622848587711</v>
       </c>
       <c r="J261" s="300">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>549.33631957995976</v>
       </c>
       <c r="K261" s="300">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>594.50218730108031</v>
       </c>
     </row>
@@ -17737,23 +17741,23 @@
         <v>—</v>
       </c>
       <c r="G262" s="300" t="str">
-        <f t="shared" ref="G262:K262" si="97">G69</f>
+        <f t="shared" ref="G262:K262" si="99">G69</f>
         <v>—</v>
       </c>
       <c r="H262" s="300" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>—</v>
       </c>
       <c r="I262" s="300" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>—</v>
       </c>
       <c r="J262" s="300" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>—</v>
       </c>
       <c r="K262" s="300" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>—</v>
       </c>
     </row>
@@ -17776,19 +17780,19 @@
         <v>7040.4880567719119</v>
       </c>
       <c r="H263" s="307">
-        <f t="shared" ref="H263:K263" si="98">H278-H277</f>
+        <f t="shared" ref="H263:K263" si="100">H278-H277</f>
         <v>8983.3283119251573</v>
       </c>
       <c r="I263" s="307">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>11393.22380555276</v>
       </c>
       <c r="J263" s="307">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>14397.111348301709</v>
       </c>
       <c r="K263" s="307">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>18159.569719541716</v>
       </c>
     </row>
@@ -17837,19 +17841,19 @@
         <v>3914.2665039046419</v>
       </c>
       <c r="H266" s="300">
-        <f t="shared" ref="H266:K266" si="99">H87</f>
+        <f t="shared" ref="H266:K266" si="101">H87</f>
         <v>4175.592124286607</v>
       </c>
       <c r="I266" s="300">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>4473.553512593191</v>
       </c>
       <c r="J266" s="300">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>4815.7072849052165</v>
       </c>
       <c r="K266" s="300">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>5211.6497894532104</v>
       </c>
     </row>
@@ -17872,19 +17876,19 @@
         <v>8083.7589455961997</v>
       </c>
       <c r="H267" s="300">
-        <f t="shared" ref="H267:K267" si="100">H90</f>
+        <f t="shared" ref="H267:K267" si="102">H90</f>
         <v>8623.4496690992837</v>
       </c>
       <c r="I267" s="300">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>9238.8007280429938</v>
       </c>
       <c r="J267" s="300">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>9945.4180763859677</v>
       </c>
       <c r="K267" s="300">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>10763.120131135885</v>
       </c>
     </row>
@@ -17907,19 +17911,19 @@
         <v>651</v>
       </c>
       <c r="H268" s="300">
-        <f t="shared" ref="H268:K268" si="101">H105</f>
+        <f t="shared" ref="H268:K268" si="103">H105</f>
         <v>651</v>
       </c>
       <c r="I268" s="300">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>651</v>
       </c>
       <c r="J268" s="300">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>651</v>
       </c>
       <c r="K268" s="300">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>651</v>
       </c>
     </row>
@@ -17942,19 +17946,19 @@
         <v>1492.78</v>
       </c>
       <c r="H269" s="300">
-        <f t="shared" ref="H269:K269" si="102">H96</f>
+        <f t="shared" ref="H269:K269" si="104">H96</f>
         <v>1507.7077999999999</v>
       </c>
       <c r="I269" s="300">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1522.7848779999999</v>
       </c>
       <c r="J269" s="300">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1538.0127267799999</v>
       </c>
       <c r="K269" s="300">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1553.3928540477998</v>
       </c>
     </row>
@@ -17977,19 +17981,19 @@
         <v>1821.03</v>
       </c>
       <c r="H270" s="300">
-        <f t="shared" ref="H270:K270" si="103">H99</f>
+        <f t="shared" ref="H270:K270" si="105">H99</f>
         <v>1839.2402999999999</v>
       </c>
       <c r="I270" s="300">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1857.632703</v>
       </c>
       <c r="J270" s="300">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1876.2090300300001</v>
       </c>
       <c r="K270" s="300">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1894.9711203303002</v>
       </c>
     </row>
@@ -18012,19 +18016,19 @@
         <v>4585.1139402880144</v>
       </c>
       <c r="H271" s="300">
-        <f t="shared" ref="H271:K271" si="104">H93</f>
+        <f t="shared" ref="H271:K271" si="106">H93</f>
         <v>4891.2269103099843</v>
       </c>
       <c r="I271" s="300">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>5240.2544775002261</v>
       </c>
       <c r="J271" s="300">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>5641.0483502692477</v>
       </c>
       <c r="K271" s="300">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>6104.8495491259364</v>
       </c>
     </row>
@@ -18047,19 +18051,19 @@
         <v>259.57</v>
       </c>
       <c r="H272" s="300">
-        <f t="shared" ref="H272:K272" si="105">H102</f>
+        <f t="shared" ref="H272:K272" si="107">H102</f>
         <v>262.16570000000002</v>
       </c>
       <c r="I272" s="300">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>264.78735700000004</v>
       </c>
       <c r="J272" s="300">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>267.43523057000004</v>
       </c>
       <c r="K272" s="300">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>270.10958287570003</v>
       </c>
     </row>
@@ -18080,19 +18084,19 @@
         <v>20807.519389788857</v>
       </c>
       <c r="H273" s="300">
-        <f t="shared" ref="H273:K273" si="106">SUM(H266:H272)</f>
+        <f t="shared" ref="H273:K273" si="108">SUM(H266:H272)</f>
         <v>21950.382503695877</v>
       </c>
       <c r="I273" s="300">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>23248.813656136415</v>
       </c>
       <c r="J273" s="300">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>24734.830698940434</v>
       </c>
       <c r="K273" s="300">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>26449.093026968836</v>
       </c>
     </row>
@@ -18115,15 +18119,15 @@
         <v>8880.7309523809527</v>
       </c>
       <c r="H274" s="294">
-        <f t="shared" ref="H274:J274" si="107">G274+H203</f>
+        <f t="shared" ref="H274:J274" si="109">G274+H203</f>
         <v>9646.0272252869436</v>
       </c>
       <c r="I274" s="294">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>10455.58135384303</v>
       </c>
       <c r="J274" s="294">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>11315.432775369527</v>
       </c>
       <c r="K274" s="294">
@@ -18150,19 +18154,19 @@
         <v>11926.788437407904</v>
       </c>
       <c r="H275" s="300">
-        <f t="shared" ref="H275:K275" si="108">H273-H274</f>
+        <f t="shared" ref="H275:K275" si="110">H273-H274</f>
         <v>12304.355278408933</v>
       </c>
       <c r="I275" s="300">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>12793.232302293385</v>
       </c>
       <c r="J275" s="300">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>13419.397923570907</v>
       </c>
       <c r="K275" s="300">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>14216.220051487364</v>
       </c>
     </row>
@@ -18185,19 +18189,19 @@
         <v>258</v>
       </c>
       <c r="H276" s="293">
-        <f t="shared" ref="H276:K276" si="109">G276</f>
+        <f t="shared" ref="H276:K276" si="111">G276</f>
         <v>258</v>
       </c>
       <c r="I276" s="293">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>258</v>
       </c>
       <c r="J276" s="293">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>258</v>
       </c>
       <c r="K276" s="293">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>258</v>
       </c>
     </row>
@@ -18212,27 +18216,27 @@
         <v>11435</v>
       </c>
       <c r="F277" s="280">
-        <f t="shared" ref="F277:K277" si="110">SUM(F275:F276)</f>
+        <f t="shared" ref="F277:K277" si="112">SUM(F275:F276)</f>
         <v>11642</v>
       </c>
       <c r="G277" s="307">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>12184.788437407904</v>
       </c>
       <c r="H277" s="307">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>12562.355278408933</v>
       </c>
       <c r="I277" s="307">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>13051.232302293385</v>
       </c>
       <c r="J277" s="307">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>13677.397923570907</v>
       </c>
       <c r="K277" s="307">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>14474.220051487364</v>
       </c>
     </row>
@@ -18247,7 +18251,7 @@
         <v>15912</v>
       </c>
       <c r="F278" s="280">
-        <f t="shared" ref="F278" si="111">F263+F277</f>
+        <f t="shared" ref="F278" si="113">F263+F277</f>
         <v>17067</v>
       </c>
       <c r="G278" s="307">
@@ -18255,19 +18259,19 @@
         <v>19225.276494179816</v>
       </c>
       <c r="H278" s="307">
-        <f t="shared" ref="H278:K278" si="112">H299</f>
+        <f t="shared" ref="H278:K278" si="114">H299</f>
         <v>21545.683590334091</v>
       </c>
       <c r="I278" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>24444.456107846145</v>
       </c>
       <c r="J278" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>28074.509271872615</v>
       </c>
       <c r="K278" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>32633.789771029082</v>
       </c>
     </row>
@@ -18330,19 +18334,19 @@
         <v>1410.428093472445</v>
       </c>
       <c r="H282" s="300">
-        <f t="shared" ref="H282:K282" si="113">H73</f>
+        <f t="shared" ref="H282:K282" si="115">H73</f>
         <v>1504.5915839152044</v>
       </c>
       <c r="I282" s="300">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>1611.9560447710094</v>
       </c>
       <c r="J282" s="300">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>1735.2443523696511</v>
       </c>
       <c r="K282" s="300">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>1877.9143599578558</v>
       </c>
     </row>
@@ -18361,23 +18365,23 @@
         <v>1092</v>
       </c>
       <c r="G283" s="300">
-        <f t="shared" ref="G283:K283" si="114">G74</f>
+        <f t="shared" ref="G283:K283" si="116">G74</f>
         <v>1280.5836804574574</v>
       </c>
       <c r="H283" s="300">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1366.0784530828619</v>
       </c>
       <c r="I283" s="300">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1463.5589110157168</v>
       </c>
       <c r="J283" s="300">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1575.4972618134098</v>
       </c>
       <c r="K283" s="300">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1705.0330277654271</v>
       </c>
     </row>
@@ -18396,23 +18400,23 @@
         <v>247</v>
       </c>
       <c r="G284" s="300">
-        <f t="shared" ref="G284:K284" si="115">G75</f>
+        <f t="shared" ref="G284:K284" si="117">G75</f>
         <v>247</v>
       </c>
       <c r="H284" s="300">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>247</v>
       </c>
       <c r="I284" s="300">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>247</v>
       </c>
       <c r="J284" s="300">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>247</v>
       </c>
       <c r="K284" s="300">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>247</v>
       </c>
     </row>
@@ -18431,23 +18435,23 @@
         <v>—</v>
       </c>
       <c r="G285" s="300" t="str">
-        <f t="shared" ref="G285:K285" si="116">G76</f>
+        <f t="shared" ref="G285:K285" si="118">G76</f>
         <v>—</v>
       </c>
       <c r="H285" s="300" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>—</v>
       </c>
       <c r="I285" s="300" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>—</v>
       </c>
       <c r="J285" s="300" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>—</v>
       </c>
       <c r="K285" s="300" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>—</v>
       </c>
     </row>
@@ -18466,23 +18470,23 @@
         <v>410</v>
       </c>
       <c r="G286" s="300">
-        <f t="shared" ref="G286:K286" si="117">G77</f>
+        <f t="shared" ref="G286:K286" si="119">G77</f>
         <v>410</v>
       </c>
       <c r="H286" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>410</v>
       </c>
       <c r="I286" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>410</v>
       </c>
       <c r="J286" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>410</v>
       </c>
       <c r="K286" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>410</v>
       </c>
     </row>
@@ -18540,19 +18544,19 @@
         <v>4057.8651763003481</v>
       </c>
       <c r="H288" s="313">
-        <f t="shared" ref="H288:K288" si="118">SUM(H282:H287)</f>
+        <f t="shared" ref="H288:K288" si="120">SUM(H282:H287)</f>
         <v>4284.9149188627316</v>
       </c>
       <c r="I288" s="313">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>4543.7952246270761</v>
       </c>
       <c r="J288" s="313">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>4841.071572069186</v>
       </c>
       <c r="K288" s="313">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>5185.0816373499165</v>
       </c>
     </row>
@@ -18587,19 +18591,19 @@
         <v>2375.0650000000001</v>
       </c>
       <c r="H290" s="305">
-        <f t="shared" ref="H290:K290" si="119">H56</f>
+        <f t="shared" ref="H290:K290" si="121">H56</f>
         <v>2398.81565</v>
       </c>
       <c r="I290" s="305">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2422.8038065000001</v>
       </c>
       <c r="J290" s="305">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2447.031844565</v>
       </c>
       <c r="K290" s="305">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2471.5021630106503</v>
       </c>
     </row>
@@ -18622,19 +18626,19 @@
         <v>969</v>
       </c>
       <c r="H291" s="293">
-        <f t="shared" ref="H291:K291" si="120">G291</f>
+        <f t="shared" ref="H291:K291" si="122">G291</f>
         <v>969</v>
       </c>
       <c r="I291" s="293">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>969</v>
       </c>
       <c r="J291" s="293">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>969</v>
       </c>
       <c r="K291" s="293">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>969</v>
       </c>
     </row>
@@ -18657,19 +18661,19 @@
         <v>3017</v>
       </c>
       <c r="H292" s="305">
-        <f t="shared" ref="H292:K292" si="121">G292</f>
+        <f t="shared" ref="H292:K292" si="123">G292</f>
         <v>3017</v>
       </c>
       <c r="I292" s="305">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>3017</v>
       </c>
       <c r="J292" s="305">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>3017</v>
       </c>
       <c r="K292" s="305">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>3017</v>
       </c>
     </row>
@@ -18680,11 +18684,11 @@
       <c r="C293" s="232"/>
       <c r="D293" s="233"/>
       <c r="E293" s="280">
-        <f t="shared" ref="E293:F293" si="122">SUM(E290:E292)</f>
+        <f t="shared" ref="E293:F293" si="124">SUM(E290:E292)</f>
         <v>6427</v>
       </c>
       <c r="F293" s="280">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>6177</v>
       </c>
       <c r="G293" s="307">
@@ -18692,19 +18696,19 @@
         <v>6361.0650000000005</v>
       </c>
       <c r="H293" s="307">
-        <f t="shared" ref="H293:K293" si="123">SUM(H290:H292)</f>
+        <f t="shared" ref="H293:K293" si="125">SUM(H290:H292)</f>
         <v>6384.8156500000005</v>
       </c>
       <c r="I293" s="307">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6408.8038065000001</v>
       </c>
       <c r="J293" s="307">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6433.031844565</v>
       </c>
       <c r="K293" s="307">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6457.5021630106503</v>
       </c>
     </row>
@@ -18719,27 +18723,27 @@
         <v>9825</v>
       </c>
       <c r="F294" s="280">
-        <f t="shared" ref="F294:K294" si="124">F288+F293</f>
+        <f t="shared" ref="F294:K294" si="126">F288+F293</f>
         <v>9894</v>
       </c>
       <c r="G294" s="307">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>10418.93017630035</v>
       </c>
       <c r="H294" s="307">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>10669.730568862731</v>
       </c>
       <c r="I294" s="307">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>10952.599031127076</v>
       </c>
       <c r="J294" s="307">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>11274.103416634185</v>
       </c>
       <c r="K294" s="307">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>11642.583800360568</v>
       </c>
     </row>
@@ -18788,19 +18792,19 @@
         <v>1633.3463178794664</v>
       </c>
       <c r="H297" s="305">
-        <f t="shared" ref="H297:K297" si="125">H227</f>
+        <f t="shared" ref="H297:K297" si="127">H227</f>
         <v>2069.6067035918932</v>
       </c>
       <c r="I297" s="305">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2615.904055247709</v>
       </c>
       <c r="J297" s="305">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3308.5487785193627</v>
       </c>
       <c r="K297" s="305">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4190.8001154300837</v>
       </c>
     </row>
@@ -18827,15 +18831,15 @@
         <v>10875.95302147136</v>
       </c>
       <c r="I298" s="307">
-        <f t="shared" ref="I298:K298" si="126">H298+I297</f>
+        <f t="shared" ref="I298:K298" si="128">H298+I297</f>
         <v>13491.857076719069</v>
       </c>
       <c r="J298" s="307">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>16800.40585523843</v>
       </c>
       <c r="K298" s="307">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>20991.205970668514</v>
       </c>
     </row>
@@ -18850,27 +18854,27 @@
         <v>15912</v>
       </c>
       <c r="F299" s="273">
-        <f t="shared" ref="F299:K299" si="127">F294+F298</f>
+        <f t="shared" ref="F299:K299" si="129">F294+F298</f>
         <v>17067</v>
       </c>
       <c r="G299" s="304">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>19225.276494179816</v>
       </c>
       <c r="H299" s="304">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>21545.683590334091</v>
       </c>
       <c r="I299" s="304">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>24444.456107846145</v>
       </c>
       <c r="J299" s="304">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>28074.509271872615</v>
       </c>
       <c r="K299" s="304">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>32633.789771029082</v>
       </c>
     </row>
@@ -18924,16 +18928,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B253:K253"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B61:K61"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B85:K85"/>
     <mergeCell ref="B112:K112"/>
     <mergeCell ref="B206:K206"/>
     <mergeCell ref="B230:K230"/>
-    <mergeCell ref="B253:K253"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B61:K61"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18946,10 +18950,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -18964,474 +18968,479 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20">
-      <c r="B1" s="346" t="s">
+      <c r="B1" s="365" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="364" t="str">
+      <c r="B3" s="329" t="str">
         <f>'[1]Assumptions Table '!L45</f>
         <v>Cost of Equity</v>
       </c>
-      <c r="C3" s="365">
+      <c r="C3" s="330">
         <v>0.152</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="366" t="str">
+      <c r="B4" s="331" t="str">
         <f>+'[1]Assumptions Table '!L57</f>
         <v>WACC</v>
       </c>
-      <c r="C4" s="367">
+      <c r="C4" s="332">
         <v>0.123</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="368" t="s">
+      <c r="B5" s="333" t="s">
         <v>649</v>
       </c>
-      <c r="C5" s="369">
-        <v>0.05</v>
+      <c r="C5" s="334">
+        <v>0.08</v>
       </c>
       <c r="D5" s="45"/>
-      <c r="E5" s="391" t="s">
+      <c r="E5" s="356" t="s">
         <v>630</v>
       </c>
-      <c r="F5" s="390"/>
-      <c r="G5" s="387"/>
-      <c r="H5" s="387"/>
-      <c r="I5" s="387"/>
-    </row>
-    <row r="6" spans="2:9" s="385" customFormat="1">
-      <c r="D6" s="388">
+      <c r="F5" s="355"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+    </row>
+    <row r="6" spans="2:9" s="350" customFormat="1">
+      <c r="D6" s="353">
         <v>1998</v>
       </c>
-      <c r="E6" s="389">
+      <c r="E6" s="354">
         <f>'[1]The Model'!K6</f>
         <v>1999</v>
       </c>
-      <c r="F6" s="389">
+      <c r="F6" s="354">
         <f>'[1]The Model'!L6</f>
         <v>2000</v>
       </c>
-      <c r="G6" s="389">
+      <c r="G6" s="354">
         <f>'[1]The Model'!M6</f>
         <v>2001</v>
       </c>
-      <c r="H6" s="389">
+      <c r="H6" s="354">
         <f>'[1]The Model'!N6</f>
         <v>2002</v>
       </c>
-      <c r="I6" s="389">
+      <c r="I6" s="354">
         <f>'[1]The Model'!O6</f>
         <v>2003</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="C7" s="370" t="s">
+      <c r="C7" s="335" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="371"/>
+      <c r="D7" s="336"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="371"/>
-      <c r="C8" s="371"/>
-      <c r="D8" s="371"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="C9" s="372" t="s">
+      <c r="C9" s="337" t="s">
         <v>631</v>
       </c>
-      <c r="D9" s="371"/>
+      <c r="D9" s="336"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="371"/>
-      <c r="C10" s="373" t="s">
+      <c r="B10" s="336"/>
+      <c r="C10" s="338" t="s">
         <v>609</v>
       </c>
-      <c r="E10" s="374">
+      <c r="E10" s="339">
         <f>Model!G227</f>
         <v>1633.3463178794664</v>
       </c>
-      <c r="F10" s="374">
+      <c r="F10" s="339">
         <f>Model!H227</f>
         <v>2069.6067035918932</v>
       </c>
-      <c r="G10" s="374">
+      <c r="G10" s="339">
         <f>Model!I227</f>
         <v>2615.904055247709</v>
       </c>
-      <c r="H10" s="374">
+      <c r="H10" s="339">
         <f>Model!J227</f>
         <v>3308.5487785193627</v>
       </c>
-      <c r="I10" s="374">
+      <c r="I10" s="339">
         <f>Model!K227</f>
         <v>4190.8001154300837</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="371"/>
-      <c r="C11" s="373" t="s">
+      <c r="B11" s="336"/>
+      <c r="C11" s="338" t="s">
         <v>610</v>
       </c>
-      <c r="E11" s="374">
+      <c r="E11" s="339">
         <f>Model!G203</f>
         <v>710.73095238095243</v>
       </c>
-      <c r="F11" s="374">
+      <c r="F11" s="339">
         <f>Model!H203</f>
         <v>765.29627290599183</v>
       </c>
-      <c r="G11" s="374">
+      <c r="G11" s="339">
         <f>Model!I203</f>
         <v>809.55412855608608</v>
       </c>
-      <c r="H11" s="374">
+      <c r="H11" s="339">
         <f>Model!J203</f>
         <v>859.85142152649632</v>
       </c>
-      <c r="I11" s="374">
+      <c r="I11" s="339">
         <f>Model!K203</f>
         <v>917.4402001119455</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="371"/>
-      <c r="C12" s="373" t="s">
+      <c r="B12" s="336"/>
+      <c r="C12" s="338" t="s">
         <v>632</v>
       </c>
-      <c r="E12" s="374">
+      <c r="E12" s="339">
         <f>-Model!G109</f>
         <v>-1253.519389788856</v>
       </c>
-      <c r="F12" s="374">
+      <c r="F12" s="339">
         <f>-Model!H109</f>
         <v>-1142.8631139070189</v>
       </c>
-      <c r="G12" s="374">
+      <c r="G12" s="339">
         <f>-Model!I109</f>
         <v>-1298.4311524405362</v>
       </c>
-      <c r="H12" s="374">
+      <c r="H12" s="339">
         <f>-Model!J109</f>
         <v>-1486.017042804021</v>
       </c>
-      <c r="I12" s="374">
+      <c r="I12" s="339">
         <f>-Model!K109</f>
         <v>-1714.2623280284004</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="371"/>
-      <c r="C13" s="373" t="s">
+      <c r="B13" s="336"/>
+      <c r="C13" s="338" t="s">
         <v>633</v>
       </c>
-      <c r="E13" s="374">
+      <c r="E13" s="339">
         <f>-Model!G82</f>
         <v>72.164882743062549</v>
       </c>
-      <c r="F13" s="374">
+      <c r="F13" s="339">
         <f>-Model!H82</f>
         <v>-44.319190753989687</v>
       </c>
-      <c r="G13" s="374">
+      <c r="G13" s="339">
         <f>-Model!I82</f>
         <v>-50.53238785535757</v>
       </c>
-      <c r="H13" s="374">
+      <c r="H13" s="339">
         <f>-Model!J82</f>
         <v>-58.027139781126948</v>
       </c>
-      <c r="I13" s="374">
+      <c r="I13" s="339">
         <f>-Model!K82</f>
         <v>-67.149372346371251</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="371"/>
-      <c r="C14" s="373" t="s">
+      <c r="B14" s="336"/>
+      <c r="C14" s="338" t="s">
         <v>634</v>
       </c>
-      <c r="E14" s="375">
+      <c r="E14" s="340">
         <f>Model!G57</f>
         <v>196</v>
       </c>
-      <c r="F14" s="375">
+      <c r="F14" s="340">
         <f>Model!H57</f>
         <v>23.869999999999891</v>
       </c>
-      <c r="G14" s="375">
+      <c r="G14" s="340">
         <f>Model!I57</f>
         <v>24.108700000000226</v>
       </c>
-      <c r="H14" s="375">
+      <c r="H14" s="340">
         <f>Model!J57</f>
         <v>24.349787000000106</v>
       </c>
-      <c r="I14" s="375">
+      <c r="I14" s="340">
         <f>Model!K57</f>
         <v>24.593284869999934</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="C15" s="372" t="s">
+      <c r="C15" s="337" t="s">
         <v>635</v>
       </c>
-      <c r="E15" s="374">
+      <c r="E15" s="339">
         <f>SUM(E10:E14)</f>
         <v>1358.7227632146255</v>
       </c>
-      <c r="F15" s="374">
+      <c r="F15" s="339">
         <f t="shared" ref="F15:I15" si="0">SUM(F10:F14)</f>
         <v>1671.5906718368763</v>
       </c>
-      <c r="G15" s="374">
+      <c r="G15" s="339">
         <f t="shared" si="0"/>
         <v>2100.6033435079016</v>
       </c>
-      <c r="H15" s="374">
+      <c r="H15" s="339">
         <f t="shared" si="0"/>
         <v>2648.7058044607106</v>
       </c>
-      <c r="I15" s="374">
+      <c r="I15" s="339">
         <f t="shared" si="0"/>
         <v>3351.4219000372568</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="C16" s="376" t="s">
+      <c r="C16" s="341" t="s">
         <v>636</v>
       </c>
-      <c r="E16" s="374"/>
-      <c r="F16" s="374"/>
-      <c r="G16" s="374"/>
-      <c r="H16" s="374"/>
-      <c r="I16" s="374">
+      <c r="E16" s="339"/>
+      <c r="F16" s="339"/>
+      <c r="G16" s="339"/>
+      <c r="H16" s="339"/>
+      <c r="I16" s="339">
         <f>I15*(1+C5)/(C3-C5)</f>
-        <v>34499.931323912941</v>
+        <v>50271.328500558855</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="C17" s="376" t="s">
+      <c r="C17" s="341" t="s">
         <v>637</v>
       </c>
-      <c r="E17" s="374">
+      <c r="E17" s="339">
         <f>E15+E16</f>
         <v>1358.7227632146255</v>
       </c>
-      <c r="F17" s="374">
+      <c r="F17" s="339">
         <f t="shared" ref="F17:I17" si="1">F15+F16</f>
         <v>1671.5906718368763</v>
       </c>
-      <c r="G17" s="374">
+      <c r="G17" s="339">
         <f t="shared" si="1"/>
         <v>2100.6033435079016</v>
       </c>
-      <c r="H17" s="374">
+      <c r="H17" s="339">
         <f t="shared" si="1"/>
         <v>2648.7058044607106</v>
       </c>
-      <c r="I17" s="374">
+      <c r="I17" s="339">
         <f t="shared" si="1"/>
-        <v>37851.353223950195</v>
+        <v>53622.750400596109</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="C18" s="376" t="s">
+      <c r="C18" s="341" t="s">
         <v>638</v>
       </c>
-      <c r="D18" s="377">
+      <c r="D18" s="342">
         <f>NPV(C3,E17:I17)</f>
-        <v>23972.961716835925</v>
-      </c>
-      <c r="E18" s="374"/>
-      <c r="F18" s="374"/>
-      <c r="G18" s="374"/>
-      <c r="H18" s="374"/>
-      <c r="I18" s="374"/>
+        <v>31746.303678510321</v>
+      </c>
+      <c r="E18" s="339"/>
+      <c r="F18" s="339"/>
+      <c r="G18" s="339"/>
+      <c r="H18" s="339"/>
+      <c r="I18" s="339"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="C19" s="376" t="s">
+      <c r="C19" s="341" t="s">
         <v>639</v>
       </c>
-      <c r="D19" s="377">
+      <c r="D19" s="342">
         <f>D18/D29</f>
-        <v>21.893744474307365</v>
-      </c>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="374"/>
-      <c r="H19" s="374"/>
-      <c r="I19" s="374"/>
+        <v>28.992890780489038</v>
+      </c>
+      <c r="E19" s="339"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="339"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="339"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="C20" s="372" t="s">
+      <c r="C20" s="337" t="s">
         <v>640</v>
       </c>
-      <c r="D20" s="377"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
-      <c r="H20" s="374"/>
-      <c r="I20" s="374"/>
+      <c r="D20" s="342"/>
+      <c r="E20" s="339"/>
+      <c r="F20" s="339"/>
+      <c r="G20" s="339"/>
+      <c r="H20" s="339"/>
+      <c r="I20" s="339"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="371"/>
-      <c r="C21" s="373" t="s">
+      <c r="B21" s="336"/>
+      <c r="C21" s="338" t="s">
         <v>641</v>
       </c>
-      <c r="E21" s="374">
+      <c r="E21" s="339">
         <f>Model!G58</f>
         <v>166.25455000000002</v>
       </c>
-      <c r="F21" s="374">
+      <c r="F21" s="339">
         <f>Model!H58</f>
         <v>167.91709550000002</v>
       </c>
-      <c r="G21" s="374">
+      <c r="G21" s="339">
         <f>Model!I58</f>
         <v>169.59626645500003</v>
       </c>
-      <c r="H21" s="374">
+      <c r="H21" s="339">
         <f>Model!J58</f>
         <v>171.29222911955003</v>
       </c>
-      <c r="I21" s="374">
+      <c r="I21" s="339">
         <f>Model!K58</f>
         <v>173.00515141074553</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="371"/>
+      <c r="B22" s="336"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="C23" s="372" t="s">
+      <c r="C23" s="337" t="s">
         <v>642</v>
       </c>
-      <c r="D23" s="371"/>
-      <c r="E23" s="374">
+      <c r="D23" s="336"/>
+      <c r="E23" s="339">
         <f>E15+E21-E14</f>
         <v>1328.9773132146256</v>
       </c>
-      <c r="F23" s="374">
+      <c r="F23" s="339">
         <f t="shared" ref="F23:I23" si="2">F15+F21-F14</f>
         <v>1815.6377673368763</v>
       </c>
-      <c r="G23" s="374">
+      <c r="G23" s="339">
         <f t="shared" si="2"/>
         <v>2246.0909099629016</v>
       </c>
-      <c r="H23" s="374">
+      <c r="H23" s="339">
         <f t="shared" si="2"/>
         <v>2795.6482465802605</v>
       </c>
-      <c r="I23" s="374">
+      <c r="I23" s="339">
         <f t="shared" si="2"/>
         <v>3499.8337665780023</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="C24" s="378" t="s">
+      <c r="C24" s="343" t="s">
         <v>643</v>
       </c>
-      <c r="D24" s="379"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
-      <c r="G24" s="374"/>
-      <c r="H24" s="374"/>
-      <c r="I24" s="380">
+      <c r="D24" s="344"/>
+      <c r="E24" s="339"/>
+      <c r="F24" s="339"/>
+      <c r="G24" s="339"/>
+      <c r="H24" s="339"/>
+      <c r="I24" s="345">
         <f>I23*(1+C5)/(C4-C5)</f>
-        <v>50340.074724752092</v>
+        <v>87902.801579168445</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="C25" s="379" t="s">
+      <c r="C25" s="344" t="s">
         <v>640</v>
       </c>
-      <c r="D25" s="379"/>
-      <c r="E25" s="374">
+      <c r="D25" s="344"/>
+      <c r="E25" s="339">
         <f>E23+E24</f>
         <v>1328.9773132146256</v>
       </c>
-      <c r="F25" s="374">
-        <f t="shared" ref="F25:I25" si="3">F23+F24</f>
+      <c r="F25" s="339">
+        <f t="shared" ref="F25:H25" si="3">F23+F24</f>
         <v>1815.6377673368763</v>
       </c>
-      <c r="G25" s="374">
+      <c r="G25" s="339">
         <f t="shared" si="3"/>
         <v>2246.0909099629016</v>
       </c>
-      <c r="H25" s="374">
+      <c r="H25" s="339">
         <f t="shared" si="3"/>
         <v>2795.6482465802605</v>
       </c>
-      <c r="I25" s="374">
+      <c r="I25" s="339">
         <f>I23+I24</f>
-        <v>53839.908491330098</v>
+        <v>91402.635345746443</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="C26" s="392" t="s">
+      <c r="C26" s="357" t="s">
         <v>644</v>
       </c>
-      <c r="D26" s="393">
+      <c r="D26" s="358">
         <f>NPV(C4,E25:I25)</f>
-        <v>36111.152826487894</v>
-      </c>
-      <c r="E26" s="381"/>
+        <v>57142.075709728982</v>
+      </c>
+      <c r="E26" s="346"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="C27" s="394" t="s">
+      <c r="C27" s="359" t="s">
         <v>645</v>
       </c>
-      <c r="D27" s="395">
+      <c r="D27" s="360">
         <f>Model!F294</f>
         <v>9894</v>
       </c>
-      <c r="E27" s="382"/>
+      <c r="E27" s="347"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="C28" s="394" t="s">
+      <c r="C28" s="359" t="s">
         <v>638</v>
       </c>
-      <c r="D28" s="396">
+      <c r="D28" s="361">
         <f>D26-D27</f>
-        <v>26217.152826487894</v>
-      </c>
-      <c r="E28" s="381"/>
+        <v>47248.075709728982</v>
+      </c>
+      <c r="E28" s="346"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="C29" s="394" t="s">
+      <c r="C29" s="359" t="s">
         <v>646</v>
       </c>
-      <c r="D29" s="397">
+      <c r="D29" s="362">
         <f>'Data Source'!J59</f>
         <v>1094.9685534591194</v>
       </c>
-      <c r="E29" s="381"/>
+      <c r="E29" s="346"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="C30" s="398" t="s">
+      <c r="C30" s="363" t="s">
         <v>647</v>
       </c>
-      <c r="D30" s="399">
+      <c r="D30" s="364">
         <f>D28/D29</f>
-        <v>23.943292931714964</v>
-      </c>
-      <c r="E30" s="381"/>
+        <v>43.150166788322281</v>
+      </c>
+      <c r="E30" s="346"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="C31" s="383"/>
-      <c r="D31" s="384"/>
-      <c r="E31" s="381"/>
+      <c r="C31" s="348"/>
+      <c r="D31" s="349"/>
+      <c r="E31" s="346"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="C32" s="400" t="s">
+        <v>652</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Meiru Zhong. UPS Financial Model.xlsx
+++ b/Meiru Zhong. UPS Financial Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhongmeiru/Desktop/brandeis/CFM/hw/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B3635-D70D-4547-9C6F-7B873CBCBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C553E7-DD16-094A-9F3E-3A2250311C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="940" windowWidth="22100" windowHeight="16140" activeTab="4" xr2:uid="{9FCFE7B9-A04B-7F49-9C8B-16E8ECB0D342}"/>
+    <workbookView xWindow="2460" yWindow="500" windowWidth="26340" windowHeight="16300" activeTab="4" xr2:uid="{9FCFE7B9-A04B-7F49-9C8B-16E8ECB0D342}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="654">
   <si>
     <t>Meiru Zhong</t>
   </si>
@@ -2241,6 +2241,9 @@
   </si>
   <si>
     <t>Verified: On November 10, 1999, UPS offered 109,400,000 shares on the NYSE. The Initial Public Offering stock price was $50.</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2684,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3585,27 +3588,64 @@
     <xf numFmtId="38" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3621,76 +3661,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3792,8 +3801,8 @@
       <sheetName val="Data Sources"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="45">
           <cell r="L45" t="str">
@@ -3806,29 +3815,17 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="6">
           <cell r="K6">
             <v>1999</v>
           </cell>
-          <cell r="L6">
-            <v>2000</v>
-          </cell>
-          <cell r="M6">
-            <v>2001</v>
-          </cell>
-          <cell r="N6">
-            <v>2002</v>
-          </cell>
-          <cell r="O6">
-            <v>2003</v>
-          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4399,8 +4396,8 @@
   </sheetPr>
   <dimension ref="B1:P354"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A29" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136:F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4413,50 +4410,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="20">
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="383" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
+      <c r="H1" s="383"/>
+      <c r="I1" s="383"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="366" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="378"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="378"/>
-      <c r="H4" s="378"/>
-      <c r="I4" s="378"/>
-      <c r="J4" s="378"/>
-      <c r="K4" s="378"/>
-      <c r="L4" s="378"/>
-      <c r="M4" s="378"/>
+      <c r="B4" s="367"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="367"/>
+      <c r="I4" s="367"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="367"/>
+      <c r="L4" s="367"/>
+      <c r="M4" s="367"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="6"/>
@@ -5089,78 +5086,78 @@
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="378"/>
-      <c r="C24" s="378"/>
-      <c r="D24" s="378"/>
-      <c r="E24" s="378"/>
-      <c r="F24" s="378"/>
-      <c r="G24" s="378"/>
-      <c r="H24" s="378"/>
-      <c r="I24" s="378"/>
-      <c r="J24" s="378"/>
-      <c r="K24" s="378"/>
-      <c r="L24" s="378"/>
-      <c r="M24" s="378"/>
+      <c r="B24" s="367"/>
+      <c r="C24" s="367"/>
+      <c r="D24" s="367"/>
+      <c r="E24" s="367"/>
+      <c r="F24" s="367"/>
+      <c r="G24" s="367"/>
+      <c r="H24" s="367"/>
+      <c r="I24" s="367"/>
+      <c r="J24" s="367"/>
+      <c r="K24" s="367"/>
+      <c r="L24" s="367"/>
+      <c r="M24" s="367"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="388" t="s">
+      <c r="B25" s="368" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="388"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="388"/>
-      <c r="F25" s="388"/>
-      <c r="G25" s="388"/>
-      <c r="H25" s="388"/>
-      <c r="I25" s="388"/>
-      <c r="J25" s="388"/>
-      <c r="K25" s="388"/>
-      <c r="L25" s="388"/>
-      <c r="M25" s="388"/>
+      <c r="C25" s="368"/>
+      <c r="D25" s="368"/>
+      <c r="E25" s="368"/>
+      <c r="F25" s="368"/>
+      <c r="G25" s="368"/>
+      <c r="H25" s="368"/>
+      <c r="I25" s="368"/>
+      <c r="J25" s="368"/>
+      <c r="K25" s="368"/>
+      <c r="L25" s="368"/>
+      <c r="M25" s="368"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="369" t="s">
+      <c r="B27" s="366" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="380"/>
-      <c r="D27" s="380"/>
-      <c r="E27" s="380"/>
-      <c r="F27" s="380"/>
-      <c r="G27" s="380"/>
-      <c r="H27" s="380"/>
-      <c r="I27" s="380"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="369"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="369"/>
+      <c r="I27" s="369"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="379"/>
-      <c r="C28" s="379"/>
-      <c r="D28" s="379"/>
-      <c r="E28" s="379"/>
-      <c r="F28" s="379"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="379"/>
+      <c r="B28" s="371"/>
+      <c r="C28" s="371"/>
+      <c r="D28" s="371"/>
+      <c r="E28" s="371"/>
+      <c r="F28" s="371"/>
+      <c r="G28" s="371"/>
+      <c r="H28" s="371"/>
+      <c r="I28" s="371"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="380" t="s">
+      <c r="B29" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="380"/>
-      <c r="D29" s="380"/>
-      <c r="E29" s="380"/>
-      <c r="F29" s="380"/>
-      <c r="G29" s="380"/>
-      <c r="H29" s="380"/>
-      <c r="I29" s="380"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="369"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="369"/>
+      <c r="G29" s="369"/>
+      <c r="H29" s="369"/>
+      <c r="I29" s="369"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="382"/>
-      <c r="C30" s="382"/>
-      <c r="D30" s="382"/>
-      <c r="E30" s="382"/>
-      <c r="F30" s="382"/>
-      <c r="G30" s="382"/>
-      <c r="H30" s="382"/>
-      <c r="I30" s="382"/>
+      <c r="B30" s="377"/>
+      <c r="C30" s="377"/>
+      <c r="D30" s="377"/>
+      <c r="E30" s="377"/>
+      <c r="F30" s="377"/>
+      <c r="G30" s="377"/>
+      <c r="H30" s="377"/>
+      <c r="I30" s="377"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="25"/>
@@ -6227,16 +6224,16 @@
       <c r="P62" s="122"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="383" t="s">
+      <c r="B63" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="383"/>
-      <c r="D63" s="383"/>
-      <c r="E63" s="383"/>
-      <c r="F63" s="383"/>
-      <c r="G63" s="383"/>
-      <c r="H63" s="383"/>
-      <c r="I63" s="383"/>
+      <c r="C63" s="372"/>
+      <c r="D63" s="372"/>
+      <c r="E63" s="372"/>
+      <c r="F63" s="372"/>
+      <c r="G63" s="372"/>
+      <c r="H63" s="372"/>
+      <c r="I63" s="372"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="56" t="s">
@@ -6263,11 +6260,11 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="386" t="s">
+      <c r="F68" s="374" t="s">
         <v>517</v>
       </c>
-      <c r="G68" s="386"/>
-      <c r="H68" s="386"/>
+      <c r="G68" s="374"/>
+      <c r="H68" s="374"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="31" t="s">
@@ -7042,11 +7039,11 @@
       </c>
     </row>
     <row r="117" spans="2:8">
-      <c r="B117" s="383" t="s">
+      <c r="B117" s="372" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="383"/>
-      <c r="D117" s="383"/>
+      <c r="C117" s="372"/>
+      <c r="D117" s="372"/>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="67" t="s">
@@ -7081,13 +7078,13 @@
       <c r="B122" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C122" s="385" t="s">
+      <c r="C122" s="373" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="385"/>
-      <c r="E122" s="385"/>
-      <c r="F122" s="385"/>
-      <c r="G122" s="385"/>
+      <c r="D122" s="373"/>
+      <c r="E122" s="373"/>
+      <c r="F122" s="373"/>
+      <c r="G122" s="373"/>
       <c r="H122" s="68" t="s">
         <v>105</v>
       </c>
@@ -7217,48 +7214,48 @@
       <c r="H128" s="73"/>
     </row>
     <row r="129" spans="2:13">
-      <c r="B129" s="387"/>
-      <c r="C129" s="387"/>
-      <c r="D129" s="387"/>
-      <c r="E129" s="387"/>
-      <c r="F129" s="387"/>
-      <c r="G129" s="387"/>
-      <c r="H129" s="387"/>
+      <c r="B129" s="375"/>
+      <c r="C129" s="375"/>
+      <c r="D129" s="375"/>
+      <c r="E129" s="375"/>
+      <c r="F129" s="375"/>
+      <c r="G129" s="375"/>
+      <c r="H129" s="375"/>
     </row>
     <row r="130" spans="2:13">
-      <c r="B130" s="368" t="s">
+      <c r="B130" s="370" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="368"/>
-      <c r="D130" s="368"/>
-      <c r="E130" s="368"/>
-      <c r="F130" s="368"/>
-      <c r="G130" s="368"/>
-      <c r="H130" s="368"/>
+      <c r="C130" s="370"/>
+      <c r="D130" s="370"/>
+      <c r="E130" s="370"/>
+      <c r="F130" s="370"/>
+      <c r="G130" s="370"/>
+      <c r="H130" s="370"/>
     </row>
     <row r="132" spans="2:13">
-      <c r="B132" s="369" t="s">
+      <c r="B132" s="366" t="s">
         <v>112</v>
       </c>
-      <c r="C132" s="369"/>
-      <c r="D132" s="369"/>
-      <c r="E132" s="369"/>
-      <c r="F132" s="369"/>
+      <c r="C132" s="366"/>
+      <c r="D132" s="366"/>
+      <c r="E132" s="366"/>
+      <c r="F132" s="366"/>
     </row>
     <row r="133" spans="2:13">
-      <c r="B133" s="370"/>
-      <c r="C133" s="370"/>
-      <c r="D133" s="370"/>
-      <c r="E133" s="370"/>
-      <c r="F133" s="370"/>
+      <c r="B133" s="378"/>
+      <c r="C133" s="378"/>
+      <c r="D133" s="378"/>
+      <c r="E133" s="378"/>
+      <c r="F133" s="378"/>
     </row>
     <row r="134" spans="2:13">
       <c r="B134" s="25"/>
       <c r="C134" s="74"/>
-      <c r="D134" s="384" t="s">
+      <c r="D134" s="379" t="s">
         <v>113</v>
       </c>
-      <c r="E134" s="384"/>
+      <c r="E134" s="379"/>
       <c r="F134" s="74"/>
       <c r="H134" s="122"/>
       <c r="I134" s="122"/>
@@ -7270,7 +7267,9 @@
       <c r="M134" s="122"/>
     </row>
     <row r="135" spans="2:13">
-      <c r="B135" s="33"/>
+      <c r="B135" s="33" t="s">
+        <v>653</v>
+      </c>
       <c r="C135" s="75">
         <v>1995</v>
       </c>
@@ -8581,20 +8580,20 @@
       <c r="M176" s="132"/>
     </row>
     <row r="177" spans="2:6">
-      <c r="B177" s="371"/>
-      <c r="C177" s="371"/>
-      <c r="D177" s="371"/>
-      <c r="E177" s="371"/>
-      <c r="F177" s="371"/>
+      <c r="B177" s="376"/>
+      <c r="C177" s="376"/>
+      <c r="D177" s="376"/>
+      <c r="E177" s="376"/>
+      <c r="F177" s="376"/>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="368" t="s">
+      <c r="B178" s="370" t="s">
         <v>132</v>
       </c>
-      <c r="C178" s="368"/>
-      <c r="D178" s="368"/>
-      <c r="E178" s="368"/>
-      <c r="F178" s="368"/>
+      <c r="C178" s="370"/>
+      <c r="D178" s="370"/>
+      <c r="E178" s="370"/>
+      <c r="F178" s="370"/>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" s="58"/>
@@ -8611,18 +8610,18 @@
       <c r="F180" s="58"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="369" t="s">
+      <c r="B181" s="366" t="s">
         <v>133</v>
       </c>
-      <c r="C181" s="369"/>
-      <c r="D181" s="369"/>
+      <c r="C181" s="366"/>
+      <c r="D181" s="366"/>
       <c r="E181" s="58"/>
       <c r="F181" s="58"/>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="381"/>
-      <c r="C182" s="381"/>
-      <c r="D182" s="381"/>
+      <c r="B182" s="380"/>
+      <c r="C182" s="380"/>
+      <c r="D182" s="380"/>
       <c r="E182" s="58"/>
       <c r="F182" s="58"/>
     </row>
@@ -8841,35 +8840,35 @@
       <c r="F200" s="58"/>
     </row>
     <row r="201" spans="2:6">
-      <c r="B201" s="371"/>
-      <c r="C201" s="371"/>
-      <c r="D201" s="371"/>
+      <c r="B201" s="376"/>
+      <c r="C201" s="376"/>
+      <c r="D201" s="376"/>
       <c r="E201" s="58"/>
       <c r="F201" s="58"/>
     </row>
     <row r="202" spans="2:6">
-      <c r="B202" s="368" t="s">
+      <c r="B202" s="370" t="s">
         <v>154</v>
       </c>
-      <c r="C202" s="368"/>
-      <c r="D202" s="368"/>
+      <c r="C202" s="370"/>
+      <c r="D202" s="370"/>
       <c r="E202" s="58"/>
       <c r="F202" s="58"/>
     </row>
     <row r="203" spans="2:6">
-      <c r="B203" s="367" t="s">
+      <c r="B203" s="382" t="s">
         <v>155</v>
       </c>
-      <c r="C203" s="368"/>
-      <c r="D203" s="368"/>
+      <c r="C203" s="370"/>
+      <c r="D203" s="370"/>
       <c r="E203" s="58"/>
       <c r="F203" s="58"/>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="369" t="s">
+      <c r="B205" s="366" t="s">
         <v>156</v>
       </c>
-      <c r="C205" s="369"/>
+      <c r="C205" s="366"/>
       <c r="D205" s="56"/>
     </row>
     <row r="206" spans="2:6">
@@ -9036,36 +9035,36 @@
       <c r="D223" s="85"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="371"/>
-      <c r="C224" s="371"/>
-      <c r="D224" s="371"/>
+      <c r="B224" s="376"/>
+      <c r="C224" s="376"/>
+      <c r="D224" s="376"/>
     </row>
     <row r="225" spans="2:8">
-      <c r="B225" s="368" t="s">
+      <c r="B225" s="370" t="s">
         <v>174</v>
       </c>
-      <c r="C225" s="368"/>
-      <c r="D225" s="368"/>
+      <c r="C225" s="370"/>
+      <c r="D225" s="370"/>
     </row>
     <row r="227" spans="2:8">
-      <c r="B227" s="369" t="s">
+      <c r="B227" s="366" t="s">
         <v>175</v>
       </c>
-      <c r="C227" s="369"/>
-      <c r="D227" s="369"/>
-      <c r="E227" s="369"/>
-      <c r="F227" s="369"/>
-      <c r="G227" s="369"/>
-      <c r="H227" s="369"/>
+      <c r="C227" s="366"/>
+      <c r="D227" s="366"/>
+      <c r="E227" s="366"/>
+      <c r="F227" s="366"/>
+      <c r="G227" s="366"/>
+      <c r="H227" s="366"/>
     </row>
     <row r="228" spans="2:8">
-      <c r="B228" s="377"/>
-      <c r="C228" s="377"/>
-      <c r="D228" s="377"/>
-      <c r="E228" s="377"/>
-      <c r="F228" s="377"/>
-      <c r="G228" s="377"/>
-      <c r="H228" s="377"/>
+      <c r="B228" s="381"/>
+      <c r="C228" s="381"/>
+      <c r="D228" s="381"/>
+      <c r="E228" s="381"/>
+      <c r="F228" s="381"/>
+      <c r="G228" s="381"/>
+      <c r="H228" s="381"/>
     </row>
     <row r="229" spans="2:8" ht="45">
       <c r="B229" s="97"/>
@@ -9236,94 +9235,94 @@
       </c>
     </row>
     <row r="237" spans="2:8">
-      <c r="B237" s="377"/>
-      <c r="C237" s="377"/>
-      <c r="D237" s="377"/>
-      <c r="E237" s="377"/>
-      <c r="F237" s="377"/>
-      <c r="G237" s="377"/>
-      <c r="H237" s="377"/>
+      <c r="B237" s="381"/>
+      <c r="C237" s="381"/>
+      <c r="D237" s="381"/>
+      <c r="E237" s="381"/>
+      <c r="F237" s="381"/>
+      <c r="G237" s="381"/>
+      <c r="H237" s="381"/>
     </row>
     <row r="238" spans="2:8">
-      <c r="B238" s="371"/>
-      <c r="C238" s="371"/>
-      <c r="D238" s="371"/>
-      <c r="E238" s="371"/>
-      <c r="F238" s="371"/>
-      <c r="G238" s="371"/>
-      <c r="H238" s="371"/>
+      <c r="B238" s="376"/>
+      <c r="C238" s="376"/>
+      <c r="D238" s="376"/>
+      <c r="E238" s="376"/>
+      <c r="F238" s="376"/>
+      <c r="G238" s="376"/>
+      <c r="H238" s="376"/>
     </row>
     <row r="239" spans="2:8">
-      <c r="B239" s="376" t="s">
+      <c r="B239" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="C239" s="376"/>
-      <c r="D239" s="376"/>
-      <c r="E239" s="376"/>
-      <c r="F239" s="376"/>
-      <c r="G239" s="376"/>
-      <c r="H239" s="376"/>
+      <c r="C239" s="389"/>
+      <c r="D239" s="389"/>
+      <c r="E239" s="389"/>
+      <c r="F239" s="389"/>
+      <c r="G239" s="389"/>
+      <c r="H239" s="389"/>
     </row>
     <row r="240" spans="2:8">
-      <c r="B240" s="378"/>
-      <c r="C240" s="378"/>
-      <c r="D240" s="378"/>
-      <c r="E240" s="378"/>
-      <c r="F240" s="378"/>
-      <c r="G240" s="378"/>
-      <c r="H240" s="378"/>
+      <c r="B240" s="367"/>
+      <c r="C240" s="367"/>
+      <c r="D240" s="367"/>
+      <c r="E240" s="367"/>
+      <c r="F240" s="367"/>
+      <c r="G240" s="367"/>
+      <c r="H240" s="367"/>
     </row>
     <row r="241" spans="2:8">
-      <c r="B241" s="367" t="s">
+      <c r="B241" s="382" t="s">
         <v>189</v>
       </c>
-      <c r="C241" s="368"/>
-      <c r="D241" s="368"/>
-      <c r="E241" s="368"/>
-      <c r="F241" s="368"/>
-      <c r="G241" s="368"/>
-      <c r="H241" s="368"/>
+      <c r="C241" s="370"/>
+      <c r="D241" s="370"/>
+      <c r="E241" s="370"/>
+      <c r="F241" s="370"/>
+      <c r="G241" s="370"/>
+      <c r="H241" s="370"/>
     </row>
     <row r="243" spans="2:8">
-      <c r="B243" s="369" t="s">
+      <c r="B243" s="366" t="s">
         <v>190</v>
       </c>
-      <c r="C243" s="369"/>
-      <c r="D243" s="369"/>
-      <c r="E243" s="369"/>
-      <c r="F243" s="369"/>
+      <c r="C243" s="366"/>
+      <c r="D243" s="366"/>
+      <c r="E243" s="366"/>
+      <c r="F243" s="366"/>
     </row>
     <row r="244" spans="2:8">
-      <c r="B244" s="379"/>
-      <c r="C244" s="379"/>
-      <c r="D244" s="379"/>
-      <c r="E244" s="379"/>
-      <c r="F244" s="379"/>
+      <c r="B244" s="371"/>
+      <c r="C244" s="371"/>
+      <c r="D244" s="371"/>
+      <c r="E244" s="371"/>
+      <c r="F244" s="371"/>
     </row>
     <row r="245" spans="2:8">
-      <c r="B245" s="380" t="s">
+      <c r="B245" s="369" t="s">
         <v>191</v>
       </c>
-      <c r="C245" s="380"/>
-      <c r="D245" s="380"/>
-      <c r="E245" s="380"/>
-      <c r="F245" s="380"/>
+      <c r="C245" s="369"/>
+      <c r="D245" s="369"/>
+      <c r="E245" s="369"/>
+      <c r="F245" s="369"/>
     </row>
     <row r="246" spans="2:8">
-      <c r="B246" s="380" t="s">
+      <c r="B246" s="369" t="s">
         <v>192</v>
       </c>
-      <c r="C246" s="380"/>
-      <c r="D246" s="380"/>
-      <c r="E246" s="380"/>
-      <c r="F246" s="380"/>
+      <c r="C246" s="369"/>
+      <c r="D246" s="369"/>
+      <c r="E246" s="369"/>
+      <c r="F246" s="369"/>
     </row>
     <row r="247" spans="2:8">
-      <c r="B247" s="370"/>
-      <c r="C247" s="370"/>
-      <c r="D247" s="370"/>
-      <c r="E247" s="370"/>
-      <c r="F247" s="370"/>
+      <c r="B247" s="378"/>
+      <c r="C247" s="378"/>
+      <c r="D247" s="378"/>
+      <c r="E247" s="378"/>
+      <c r="F247" s="378"/>
     </row>
     <row r="248" spans="2:8">
       <c r="B248" s="31" t="s">
@@ -9847,45 +9846,45 @@
       </c>
     </row>
     <row r="283" spans="2:6">
-      <c r="B283" s="371"/>
-      <c r="C283" s="371"/>
-      <c r="D283" s="371"/>
-      <c r="E283" s="371"/>
-      <c r="F283" s="371"/>
+      <c r="B283" s="376"/>
+      <c r="C283" s="376"/>
+      <c r="D283" s="376"/>
+      <c r="E283" s="376"/>
+      <c r="F283" s="376"/>
     </row>
     <row r="284" spans="2:6">
-      <c r="B284" s="368" t="s">
+      <c r="B284" s="370" t="s">
         <v>305</v>
       </c>
-      <c r="C284" s="368"/>
-      <c r="D284" s="368"/>
-      <c r="E284" s="368"/>
-      <c r="F284" s="368"/>
+      <c r="C284" s="370"/>
+      <c r="D284" s="370"/>
+      <c r="E284" s="370"/>
+      <c r="F284" s="370"/>
     </row>
     <row r="285" spans="2:6">
-      <c r="B285" s="368"/>
-      <c r="C285" s="368"/>
-      <c r="D285" s="368"/>
-      <c r="E285" s="368"/>
-      <c r="F285" s="368"/>
+      <c r="B285" s="370"/>
+      <c r="C285" s="370"/>
+      <c r="D285" s="370"/>
+      <c r="E285" s="370"/>
+      <c r="F285" s="370"/>
     </row>
     <row r="286" spans="2:6">
-      <c r="B286" s="367" t="s">
+      <c r="B286" s="382" t="s">
         <v>306</v>
       </c>
-      <c r="C286" s="368"/>
-      <c r="D286" s="368"/>
-      <c r="E286" s="368"/>
-      <c r="F286" s="368"/>
+      <c r="C286" s="370"/>
+      <c r="D286" s="370"/>
+      <c r="E286" s="370"/>
+      <c r="F286" s="370"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="369" t="s">
+      <c r="B288" s="366" t="s">
         <v>307</v>
       </c>
-      <c r="C288" s="370"/>
-      <c r="D288" s="370"/>
-      <c r="E288" s="370"/>
-      <c r="F288" s="370"/>
+      <c r="C288" s="378"/>
+      <c r="D288" s="378"/>
+      <c r="E288" s="378"/>
+      <c r="F288" s="378"/>
     </row>
     <row r="290" spans="2:7">
       <c r="B290" t="s">
@@ -10660,66 +10659,66 @@
       </c>
     </row>
     <row r="336" spans="2:7">
-      <c r="B336" s="371"/>
-      <c r="C336" s="371"/>
-      <c r="D336" s="371"/>
-      <c r="E336" s="371"/>
-      <c r="F336" s="371"/>
-      <c r="G336" s="371"/>
+      <c r="B336" s="376"/>
+      <c r="C336" s="376"/>
+      <c r="D336" s="376"/>
+      <c r="E336" s="376"/>
+      <c r="F336" s="376"/>
+      <c r="G336" s="376"/>
     </row>
     <row r="337" spans="2:7">
-      <c r="B337" s="368" t="s">
+      <c r="B337" s="370" t="s">
         <v>305</v>
       </c>
-      <c r="C337" s="368"/>
-      <c r="D337" s="368"/>
-      <c r="E337" s="368"/>
-      <c r="F337" s="368"/>
-      <c r="G337" s="368"/>
+      <c r="C337" s="370"/>
+      <c r="D337" s="370"/>
+      <c r="E337" s="370"/>
+      <c r="F337" s="370"/>
+      <c r="G337" s="370"/>
     </row>
     <row r="338" spans="2:7">
-      <c r="B338" s="368"/>
-      <c r="C338" s="368"/>
-      <c r="D338" s="368"/>
-      <c r="E338" s="368"/>
-      <c r="F338" s="368"/>
-      <c r="G338" s="368"/>
+      <c r="B338" s="370"/>
+      <c r="C338" s="370"/>
+      <c r="D338" s="370"/>
+      <c r="E338" s="370"/>
+      <c r="F338" s="370"/>
+      <c r="G338" s="370"/>
     </row>
     <row r="339" spans="2:7">
-      <c r="B339" s="367" t="s">
+      <c r="B339" s="382" t="s">
         <v>493</v>
       </c>
-      <c r="C339" s="368"/>
-      <c r="D339" s="368"/>
-      <c r="E339" s="368"/>
-      <c r="F339" s="368"/>
-      <c r="G339" s="368"/>
+      <c r="C339" s="370"/>
+      <c r="D339" s="370"/>
+      <c r="E339" s="370"/>
+      <c r="F339" s="370"/>
+      <c r="G339" s="370"/>
     </row>
     <row r="340" spans="2:7">
-      <c r="B340" s="368" t="s">
+      <c r="B340" s="370" t="s">
         <v>494</v>
       </c>
-      <c r="C340" s="368"/>
-      <c r="D340" s="368"/>
-      <c r="E340" s="368"/>
-      <c r="F340" s="368"/>
-      <c r="G340" s="368"/>
+      <c r="C340" s="370"/>
+      <c r="D340" s="370"/>
+      <c r="E340" s="370"/>
+      <c r="F340" s="370"/>
+      <c r="G340" s="370"/>
     </row>
     <row r="342" spans="2:7">
-      <c r="B342" s="372" t="s">
+      <c r="B342" s="385" t="s">
         <v>495</v>
       </c>
-      <c r="C342" s="372"/>
+      <c r="C342" s="385"/>
     </row>
     <row r="343" spans="2:7">
-      <c r="B343" s="373"/>
-      <c r="C343" s="373"/>
+      <c r="B343" s="386"/>
+      <c r="C343" s="386"/>
     </row>
     <row r="344" spans="2:7">
-      <c r="B344" s="374" t="s">
+      <c r="B344" s="387" t="s">
         <v>496</v>
       </c>
-      <c r="C344" s="374"/>
+      <c r="C344" s="387"/>
     </row>
     <row r="345" spans="2:7">
       <c r="B345" s="109"/>
@@ -10779,14 +10778,14 @@
       <c r="C352" s="115"/>
     </row>
     <row r="353" spans="2:7">
-      <c r="B353" s="375"/>
-      <c r="C353" s="375"/>
+      <c r="B353" s="388"/>
+      <c r="C353" s="388"/>
     </row>
     <row r="354" spans="2:7">
-      <c r="B354" s="366" t="s">
+      <c r="B354" s="384" t="s">
         <v>504</v>
       </c>
-      <c r="C354" s="366"/>
+      <c r="C354" s="384"/>
       <c r="D354" s="58"/>
       <c r="E354" s="58"/>
       <c r="F354" s="58"/>
@@ -10794,45 +10793,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B228:H228"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B227:H227"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B237:H237"/>
-    <mergeCell ref="B240:H240"/>
-    <mergeCell ref="B241:H241"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B354:C354"/>
     <mergeCell ref="B286:F286"/>
@@ -10849,6 +10809,45 @@
     <mergeCell ref="B285:F285"/>
     <mergeCell ref="B238:H238"/>
     <mergeCell ref="B239:H239"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B237:H237"/>
+    <mergeCell ref="B240:H240"/>
+    <mergeCell ref="B241:H241"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B228:H228"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B227:H227"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10861,8 +10860,8 @@
   </sheetPr>
   <dimension ref="B1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10877,29 +10876,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20">
-      <c r="B1" s="389" t="s">
+      <c r="B1" s="390" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="389"/>
-      <c r="H1" s="389"/>
-      <c r="I1" s="389"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="390"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="390" t="s">
+      <c r="B3" s="394" t="s">
         <v>507</v>
       </c>
-      <c r="C3" s="391"/>
-      <c r="D3" s="391"/>
-      <c r="E3" s="392"/>
-      <c r="G3" s="390" t="s">
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="396"/>
+      <c r="G3" s="394" t="s">
         <v>526</v>
       </c>
-      <c r="H3" s="391"/>
-      <c r="I3" s="392"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="396"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="144" t="s">
@@ -10990,13 +10989,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="396" t="s">
+    <row r="9" spans="2:9" ht="16" customHeight="1">
+      <c r="B9" s="397" t="s">
         <v>525</v>
       </c>
-      <c r="C9" s="397"/>
-      <c r="D9" s="397"/>
-      <c r="E9" s="398"/>
+      <c r="C9" s="398"/>
+      <c r="D9" s="398"/>
+      <c r="E9" s="399"/>
       <c r="F9" s="155"/>
       <c r="G9" s="149" t="s">
         <v>167</v>
@@ -11131,19 +11130,19 @@
     <row r="17" spans="2:9" ht="16" customHeight="1">
       <c r="B17" s="167"/>
       <c r="C17" s="168"/>
-      <c r="G17" s="393" t="s">
+      <c r="G17" s="400" t="s">
         <v>528</v>
       </c>
-      <c r="H17" s="394"/>
-      <c r="I17" s="395"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="396" t="s">
+      <c r="H17" s="401"/>
+      <c r="I17" s="402"/>
+    </row>
+    <row r="18" spans="2:9" ht="16" customHeight="1">
+      <c r="B18" s="397" t="s">
         <v>524</v>
       </c>
-      <c r="C18" s="397"/>
-      <c r="D18" s="397"/>
-      <c r="E18" s="398"/>
+      <c r="C18" s="398"/>
+      <c r="D18" s="398"/>
+      <c r="E18" s="399"/>
       <c r="G18" s="164" t="s">
         <v>518</v>
       </c>
@@ -11284,15 +11283,15 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="390" t="s">
+      <c r="B27" s="394" t="s">
         <v>511</v>
       </c>
-      <c r="C27" s="391"/>
-      <c r="D27" s="391"/>
-      <c r="E27" s="392"/>
+      <c r="C27" s="395"/>
+      <c r="D27" s="395"/>
+      <c r="E27" s="396"/>
       <c r="H27" s="173"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" ht="16" customHeight="1">
       <c r="B28" s="149" t="s">
         <v>128</v>
       </c>
@@ -11302,11 +11301,11 @@
         <f>'Data Source'!M170</f>
         <v>0.15906941395354476</v>
       </c>
-      <c r="G28" s="393" t="s">
+      <c r="G28" s="400" t="s">
         <v>523</v>
       </c>
-      <c r="H28" s="394"/>
-      <c r="I28" s="395"/>
+      <c r="H28" s="401"/>
+      <c r="I28" s="402"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="174" t="s">
@@ -11336,12 +11335,12 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="390" t="s">
+      <c r="B31" s="394" t="s">
         <v>527</v>
       </c>
-      <c r="C31" s="391"/>
-      <c r="D31" s="391"/>
-      <c r="E31" s="392"/>
+      <c r="C31" s="395"/>
+      <c r="D31" s="395"/>
+      <c r="E31" s="396"/>
       <c r="G31" s="177" t="s">
         <v>530</v>
       </c>
@@ -11396,12 +11395,12 @@
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="390" t="s">
+      <c r="B35" s="394" t="s">
         <v>537</v>
       </c>
-      <c r="C35" s="391"/>
-      <c r="D35" s="391"/>
-      <c r="E35" s="392"/>
+      <c r="C35" s="395"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="396"/>
       <c r="G35" s="152" t="s">
         <v>521</v>
       </c>
@@ -11428,11 +11427,11 @@
         <f>'Data Source'!H75</f>
         <v>0.10826845400891985</v>
       </c>
-      <c r="G37" s="390" t="s">
+      <c r="G37" s="394" t="s">
         <v>532</v>
       </c>
-      <c r="H37" s="391"/>
-      <c r="I37" s="392"/>
+      <c r="H37" s="395"/>
+      <c r="I37" s="396"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="186" t="s">
@@ -11523,11 +11522,11 @@
       <c r="C43" s="145"/>
       <c r="D43" s="145"/>
       <c r="E43" s="146"/>
-      <c r="G43" s="390" t="s">
+      <c r="G43" s="394" t="s">
         <v>546</v>
       </c>
-      <c r="H43" s="391"/>
-      <c r="I43" s="392"/>
+      <c r="H43" s="395"/>
+      <c r="I43" s="396"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="187" t="s">
@@ -11545,11 +11544,11 @@
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="G46" s="390" t="s">
+      <c r="G46" s="394" t="s">
         <v>623</v>
       </c>
-      <c r="H46" s="391"/>
-      <c r="I46" s="392"/>
+      <c r="H46" s="395"/>
+      <c r="I46" s="396"/>
     </row>
     <row r="47" spans="2:9">
       <c r="G47" s="202" t="s">
@@ -11567,20 +11566,8 @@
     </row>
     <row r="53" ht="16" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11593,8 +11580,9 @@
   </sheetPr>
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D227" sqref="D227:K227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11611,18 +11599,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20">
       <c r="A1" s="327"/>
-      <c r="B1" s="389" t="s">
+      <c r="B1" s="391" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="389"/>
-      <c r="H1" s="389"/>
-      <c r="I1" s="389"/>
-      <c r="J1" s="389"/>
-      <c r="K1" s="389"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="203"/>
@@ -11637,47 +11625,48 @@
       <c r="K2" s="290"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="399" t="s">
+      <c r="B3" s="392" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="399"/>
-      <c r="H3" s="399"/>
-      <c r="I3" s="399"/>
-      <c r="J3" s="399"/>
-      <c r="K3" s="399"/>
+      <c r="C3" s="392"/>
+      <c r="D3" s="392"/>
+      <c r="E3" s="392"/>
+      <c r="F3" s="392"/>
+      <c r="G3" s="392"/>
+      <c r="H3" s="392"/>
+      <c r="I3" s="392"/>
+      <c r="J3" s="392"/>
+      <c r="K3" s="392"/>
     </row>
     <row r="4" spans="1:11" s="204" customFormat="1">
       <c r="B4" s="200"/>
       <c r="C4" s="200"/>
-      <c r="D4" s="220">
+      <c r="D4" s="262">
+        <f t="shared" ref="D4:E4" si="0">E4-1</f>
         <v>1996</v>
       </c>
       <c r="E4" s="262">
-        <f>D4+1</f>
+        <f t="shared" si="0"/>
         <v>1997</v>
       </c>
       <c r="F4" s="262">
-        <f t="shared" ref="F4:J4" si="0">E4+1</f>
+        <f>G4-1</f>
         <v>1998</v>
       </c>
       <c r="G4" s="291">
-        <f>F4+1</f>
+        <f>Assumptions!D5</f>
         <v>1999</v>
       </c>
       <c r="H4" s="291">
-        <f t="shared" si="0"/>
+        <f>G4+1</f>
         <v>2000</v>
       </c>
       <c r="I4" s="291">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:J4" si="1">H4+1</f>
         <v>2001</v>
       </c>
       <c r="J4" s="291">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2002</v>
       </c>
       <c r="K4" s="291">
@@ -12254,35 +12243,35 @@
       </c>
       <c r="C28" s="145"/>
       <c r="D28" s="223">
-        <f t="shared" ref="D28:K30" si="1">D8*D17*D$24/1000</f>
+        <f t="shared" ref="D28:K30" si="2">D8*D17*D$24/1000</f>
         <v>3733.3935999999999</v>
       </c>
       <c r="E28" s="267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4053.2573399999997</v>
       </c>
       <c r="F28" s="267">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4691.1818800000001</v>
       </c>
       <c r="G28" s="297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5286.344293378148</v>
       </c>
       <c r="H28" s="297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5957.0139685421282</v>
       </c>
       <c r="I28" s="297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6712.7703857384013</v>
       </c>
       <c r="J28" s="297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7564.4083578797499</v>
       </c>
       <c r="K28" s="297">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8524.0922177716966</v>
       </c>
     </row>
@@ -12292,35 +12281,35 @@
       </c>
       <c r="C29" s="145"/>
       <c r="D29" s="224">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2207.4047799999998</v>
       </c>
       <c r="E29" s="268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2313.4471799999997</v>
       </c>
       <c r="F29" s="268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2464.1479800000002</v>
       </c>
       <c r="G29" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2621.2325590980536</v>
       </c>
       <c r="H29" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2788.3309706407049</v>
       </c>
       <c r="I29" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2966.0815767180084</v>
       </c>
       <c r="J29" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3155.1634337456203</v>
       </c>
       <c r="K29" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3356.2988866478854</v>
       </c>
     </row>
@@ -12330,35 +12319,35 @@
       </c>
       <c r="C30" s="145"/>
       <c r="D30" s="224">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12947.992900000001</v>
       </c>
       <c r="E30" s="268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12501.73947</v>
       </c>
       <c r="F30" s="268">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13498.563299999998</v>
       </c>
       <c r="G30" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13853.279190034782</v>
       </c>
       <c r="H30" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14217.316321141432</v>
       </c>
       <c r="I30" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14590.919637337294</v>
       </c>
       <c r="J30" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14974.340519290268</v>
       </c>
       <c r="K30" s="298">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15367.836953461452</v>
       </c>
     </row>
@@ -12372,31 +12361,31 @@
         <v>18888.791280000001</v>
       </c>
       <c r="E31" s="269">
-        <f t="shared" ref="E31:K31" si="2">SUM(E28:E30)</f>
+        <f t="shared" ref="E31:K31" si="3">SUM(E28:E30)</f>
         <v>18868.44399</v>
       </c>
       <c r="F31" s="269">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20653.89316</v>
       </c>
       <c r="G31" s="299">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21760.856042510983</v>
       </c>
       <c r="H31" s="299">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22962.661260324265</v>
       </c>
       <c r="I31" s="299">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24269.771599793705</v>
       </c>
       <c r="J31" s="299">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25693.912310915639</v>
       </c>
       <c r="K31" s="299">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27248.228057881031</v>
       </c>
     </row>
@@ -12420,35 +12409,35 @@
       </c>
       <c r="C33" s="145"/>
       <c r="D33" s="224">
-        <f t="shared" ref="D33:K34" si="3">D12*D21*D$24/1000</f>
+        <f t="shared" ref="D33:K34" si="4">D12*D21*D$24/1000</f>
         <v>1058.2402</v>
       </c>
       <c r="E33" s="268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>919.4222400000001</v>
       </c>
       <c r="F33" s="268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>953.05879999999991</v>
       </c>
       <c r="G33" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>899.9353243697351</v>
       </c>
       <c r="H33" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>849.77295005141377</v>
       </c>
       <c r="I33" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>802.40662532589374</v>
       </c>
       <c r="J33" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>757.68049845306791</v>
       </c>
       <c r="K33" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>715.44740486524483</v>
       </c>
     </row>
@@ -12458,35 +12447,35 @@
       </c>
       <c r="C34" s="145"/>
       <c r="D34" s="224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1838.9803200000001</v>
       </c>
       <c r="E34" s="268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1922.0840099999998</v>
       </c>
       <c r="F34" s="268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2175.7030399999999</v>
       </c>
       <c r="G34" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2386.4264687053555</v>
       </c>
       <c r="H34" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2617.5590996726805</v>
       </c>
       <c r="I34" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2871.0776259518602</v>
       </c>
       <c r="J34" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3149.150189301226</v>
       </c>
       <c r="K34" s="298">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3454.1549225747863</v>
       </c>
     </row>
@@ -12538,31 +12527,31 @@
         <v>3074.2205199999999</v>
       </c>
       <c r="E36" s="269">
-        <f t="shared" ref="E36:K36" si="4">SUM(E33:E35)</f>
+        <f t="shared" ref="E36:K36" si="5">SUM(E33:E35)</f>
         <v>3067.5062499999999</v>
       </c>
       <c r="F36" s="269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3398.7618399999997</v>
       </c>
       <c r="G36" s="299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3599.3105348425479</v>
       </c>
       <c r="H36" s="299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3830.061364442</v>
       </c>
       <c r="I36" s="299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4093.9127055116078</v>
       </c>
       <c r="J36" s="299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4394.1364498125213</v>
       </c>
       <c r="K36" s="299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4734.4235314850466</v>
       </c>
     </row>
@@ -12614,31 +12603,31 @@
         <v>22376.0118</v>
       </c>
       <c r="E38" s="271">
-        <f t="shared" ref="E38:K38" si="5">SUM(E36:E37,E31)</f>
+        <f t="shared" ref="E38:K38" si="6">SUM(E36:E37,E31)</f>
         <v>22458.950239999998</v>
       </c>
       <c r="F38" s="271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24791.654999999999</v>
       </c>
       <c r="G38" s="301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26344.1776825054</v>
       </c>
       <c r="H38" s="301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28102.976826474252</v>
       </c>
       <c r="I38" s="301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30108.345584131504</v>
       </c>
       <c r="J38" s="301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32411.142229054865</v>
       </c>
       <c r="K38" s="301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35075.953038810258</v>
       </c>
     </row>
@@ -12655,51 +12644,52 @@
       <c r="K39" s="302"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="399" t="s">
+      <c r="B41" s="392" t="s">
         <v>550</v>
       </c>
-      <c r="C41" s="399"/>
-      <c r="D41" s="399"/>
-      <c r="E41" s="399"/>
-      <c r="F41" s="399"/>
-      <c r="G41" s="399"/>
-      <c r="H41" s="399"/>
-      <c r="I41" s="399"/>
-      <c r="J41" s="399"/>
-      <c r="K41" s="399"/>
+      <c r="C41" s="392"/>
+      <c r="D41" s="392"/>
+      <c r="E41" s="392"/>
+      <c r="F41" s="392"/>
+      <c r="G41" s="392"/>
+      <c r="H41" s="392"/>
+      <c r="I41" s="392"/>
+      <c r="J41" s="392"/>
+      <c r="K41" s="392"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="145"/>
       <c r="C42" s="145"/>
       <c r="D42" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E42" s="262">
-        <f>D42+1</f>
+      <c r="E42" s="220">
+        <f t="shared" ref="E42:F42" si="7">E4</f>
         <v>1997</v>
       </c>
-      <c r="F42" s="262">
-        <f t="shared" ref="F42:J42" si="6">E42+1</f>
+      <c r="F42" s="220">
+        <f t="shared" si="7"/>
         <v>1998</v>
       </c>
       <c r="G42" s="291">
-        <f>F42+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H42" s="291">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H42:K42" si="8">H4</f>
         <v>2000</v>
       </c>
       <c r="I42" s="291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2001</v>
       </c>
       <c r="J42" s="291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2002</v>
       </c>
       <c r="K42" s="291">
-        <f>J42+1</f>
+        <f t="shared" si="8"/>
         <v>2003</v>
       </c>
     </row>
@@ -12797,19 +12787,19 @@
         <v>710.73095238095243</v>
       </c>
       <c r="H46" s="294">
-        <f t="shared" ref="H46:K46" si="7">H203</f>
+        <f t="shared" ref="H46:K46" si="9">H203</f>
         <v>765.29627290599183</v>
       </c>
       <c r="I46" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>809.55412855608608</v>
       </c>
       <c r="J46" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>859.85142152649632</v>
       </c>
       <c r="K46" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>917.4402001119455</v>
       </c>
     </row>
@@ -12892,18 +12882,18 @@
       <c r="K49" s="303"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="399" t="s">
+      <c r="B51" s="392" t="s">
         <v>552</v>
       </c>
-      <c r="C51" s="399"/>
-      <c r="D51" s="399"/>
-      <c r="E51" s="399"/>
-      <c r="F51" s="399"/>
-      <c r="G51" s="399"/>
-      <c r="H51" s="399"/>
-      <c r="I51" s="399"/>
-      <c r="J51" s="399"/>
-      <c r="K51" s="399"/>
+      <c r="C51" s="392"/>
+      <c r="D51" s="392"/>
+      <c r="E51" s="392"/>
+      <c r="F51" s="392"/>
+      <c r="G51" s="392"/>
+      <c r="H51" s="392"/>
+      <c r="I51" s="392"/>
+      <c r="J51" s="392"/>
+      <c r="K51" s="392"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="200" t="s">
@@ -12911,34 +12901,35 @@
       </c>
       <c r="C52" s="145"/>
       <c r="D52" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E52" s="262">
-        <f>D52+1</f>
+      <c r="E52" s="220">
+        <f t="shared" ref="E52:F52" si="10">E4</f>
         <v>1997</v>
       </c>
-      <c r="F52" s="262">
-        <f t="shared" ref="F52:J52" si="8">E52+1</f>
+      <c r="F52" s="220">
+        <f t="shared" si="10"/>
         <v>1998</v>
       </c>
       <c r="G52" s="291">
-        <f>F52+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H52" s="291">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H52:K52" si="11">H4</f>
         <v>2000</v>
       </c>
       <c r="I52" s="291">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2001</v>
       </c>
       <c r="J52" s="291">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2002</v>
       </c>
       <c r="K52" s="291">
-        <f>J52+1</f>
+        <f t="shared" si="11"/>
         <v>2003</v>
       </c>
     </row>
@@ -13033,19 +13024,19 @@
         <v>2375.0650000000001</v>
       </c>
       <c r="H56" s="307">
-        <f t="shared" ref="H56:K56" si="9">H54-H55</f>
+        <f t="shared" ref="H56:K56" si="12">H54-H55</f>
         <v>2398.81565</v>
       </c>
       <c r="I56" s="307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2422.8038065000001</v>
       </c>
       <c r="J56" s="307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2447.031844565</v>
       </c>
       <c r="K56" s="307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2471.5021630106503</v>
       </c>
     </row>
@@ -13062,19 +13053,19 @@
         <v>196</v>
       </c>
       <c r="H57" s="308">
-        <f t="shared" ref="H57:K57" si="10">H54-G54</f>
+        <f t="shared" ref="H57:K57" si="13">H54-G54</f>
         <v>23.869999999999891</v>
       </c>
       <c r="I57" s="308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.108700000000226</v>
       </c>
       <c r="J57" s="308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.349787000000106</v>
       </c>
       <c r="K57" s="308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.593284869999934</v>
       </c>
     </row>
@@ -13118,18 +13109,18 @@
     </row>
     <row r="59" spans="2:11" ht="17" thickTop="1"/>
     <row r="61" spans="2:11">
-      <c r="B61" s="399" t="s">
+      <c r="B61" s="392" t="s">
         <v>559</v>
       </c>
-      <c r="C61" s="399"/>
-      <c r="D61" s="399"/>
-      <c r="E61" s="399"/>
-      <c r="F61" s="399"/>
-      <c r="G61" s="399"/>
-      <c r="H61" s="399"/>
-      <c r="I61" s="399"/>
-      <c r="J61" s="399"/>
-      <c r="K61" s="399"/>
+      <c r="C61" s="392"/>
+      <c r="D61" s="392"/>
+      <c r="E61" s="392"/>
+      <c r="F61" s="392"/>
+      <c r="G61" s="392"/>
+      <c r="H61" s="392"/>
+      <c r="I61" s="392"/>
+      <c r="J61" s="392"/>
+      <c r="K61" s="392"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="200" t="s">
@@ -13137,34 +13128,35 @@
       </c>
       <c r="C62" s="145"/>
       <c r="D62" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E62" s="262">
-        <f>D62+1</f>
+      <c r="E62" s="220">
+        <f t="shared" ref="E62:F62" si="14">E4</f>
         <v>1997</v>
       </c>
-      <c r="F62" s="262">
-        <f t="shared" ref="F62:J62" si="11">E62+1</f>
+      <c r="F62" s="220">
+        <f t="shared" si="14"/>
         <v>1998</v>
       </c>
       <c r="G62" s="291">
-        <f>F62+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H62" s="291">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H62:K62" si="15">H4</f>
         <v>2000</v>
       </c>
       <c r="I62" s="291">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2001</v>
       </c>
       <c r="J62" s="291">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2002</v>
       </c>
       <c r="K62" s="291">
-        <f>J62+1</f>
+        <f t="shared" si="15"/>
         <v>2003</v>
       </c>
     </row>
@@ -13199,19 +13191,19 @@
         <v>2586.7877632146265</v>
       </c>
       <c r="H64" s="305">
-        <f t="shared" ref="H64:K64" si="12">H257</f>
+        <f t="shared" ref="H64:K64" si="16">H257</f>
         <v>4258.2590850514989</v>
       </c>
       <c r="I64" s="305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6358.7418850593986</v>
       </c>
       <c r="J64" s="305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9007.3259405851113</v>
       </c>
       <c r="K64" s="305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12358.624874198016</v>
       </c>
     </row>
@@ -13232,19 +13224,19 @@
         <v>389</v>
       </c>
       <c r="H65" s="305">
-        <f t="shared" ref="H65:K65" si="13">G65</f>
+        <f t="shared" ref="H65:K65" si="17">G65</f>
         <v>389</v>
       </c>
       <c r="I65" s="305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>389</v>
       </c>
       <c r="J65" s="305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>389</v>
       </c>
       <c r="K65" s="305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>389</v>
       </c>
     </row>
@@ -13386,27 +13378,27 @@
         <v>4477</v>
       </c>
       <c r="F70" s="277">
-        <f t="shared" ref="F70:K70" si="14">SUM(F64:F69)</f>
+        <f t="shared" ref="F70:K70" si="18">SUM(F64:F69)</f>
         <v>5425</v>
       </c>
       <c r="G70" s="311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7040.4880567719129</v>
       </c>
       <c r="H70" s="311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8983.3283119251573</v>
       </c>
       <c r="I70" s="311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11393.223805552758</v>
       </c>
       <c r="J70" s="311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>14397.111348301709</v>
       </c>
       <c r="K70" s="311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18159.569719541716</v>
       </c>
     </row>
@@ -13519,19 +13511,19 @@
         <v>247</v>
       </c>
       <c r="H75" s="300">
-        <f t="shared" ref="H75:K75" si="15">G75</f>
+        <f t="shared" ref="H75:K75" si="19">G75</f>
         <v>247</v>
       </c>
       <c r="I75" s="300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>247</v>
       </c>
       <c r="J75" s="300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>247</v>
       </c>
       <c r="K75" s="300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>247</v>
       </c>
     </row>
@@ -13552,19 +13544,19 @@
         <v>—</v>
       </c>
       <c r="H76" s="300" t="str">
-        <f t="shared" ref="H76:K76" si="16">G76</f>
+        <f t="shared" ref="H76:K76" si="20">G76</f>
         <v>—</v>
       </c>
       <c r="I76" s="300" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>—</v>
       </c>
       <c r="J76" s="300" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>—</v>
       </c>
       <c r="K76" s="300" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>—</v>
       </c>
     </row>
@@ -13585,19 +13577,19 @@
         <v>410</v>
       </c>
       <c r="H77" s="300">
-        <f t="shared" ref="H77:K77" si="17">G77</f>
+        <f t="shared" ref="H77:K77" si="21">G77</f>
         <v>410</v>
       </c>
       <c r="I77" s="300">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>410</v>
       </c>
       <c r="J77" s="300">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>410</v>
       </c>
       <c r="K77" s="300">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>410</v>
       </c>
     </row>
@@ -13645,27 +13637,27 @@
         <v>3398</v>
       </c>
       <c r="F79" s="279">
-        <f t="shared" ref="F79:K79" si="18">SUM(F73:F78)</f>
+        <f t="shared" ref="F79:K79" si="22">SUM(F73:F78)</f>
         <v>3717</v>
       </c>
       <c r="G79" s="312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4057.8651763003481</v>
       </c>
       <c r="H79" s="312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4284.9149188627316</v>
       </c>
       <c r="I79" s="312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4543.7952246270761</v>
       </c>
       <c r="J79" s="312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4841.071572069186</v>
       </c>
       <c r="K79" s="312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5185.0816373499165</v>
       </c>
     </row>
@@ -13679,27 +13671,27 @@
         <v>1079</v>
       </c>
       <c r="F80" s="278">
-        <f t="shared" ref="F80:K80" si="19">F70-F79</f>
+        <f t="shared" ref="F80:K80" si="23">F70-F79</f>
         <v>1708</v>
       </c>
       <c r="G80" s="308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2982.6228804715647</v>
       </c>
       <c r="H80" s="308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4698.4133930624257</v>
       </c>
       <c r="I80" s="308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6849.4285809256817</v>
       </c>
       <c r="J80" s="308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9556.0397762325229</v>
       </c>
       <c r="K80" s="308">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>12974.4880821918</v>
       </c>
     </row>
@@ -13713,7 +13705,7 @@
         <v>465</v>
       </c>
       <c r="F81" s="278">
-        <f t="shared" ref="F81:K81" si="20">F66+F67+F68-F73-F74-F78</f>
+        <f t="shared" ref="F81:K81" si="24">F66+F67+F68-F73-F74-F78</f>
         <v>736</v>
       </c>
       <c r="G81" s="308">
@@ -13721,19 +13713,19 @@
         <v>663.83511725693745</v>
       </c>
       <c r="H81" s="308">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>708.15430801092714</v>
       </c>
       <c r="I81" s="308">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>758.68669586628471</v>
       </c>
       <c r="J81" s="308">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>816.71383564741166</v>
       </c>
       <c r="K81" s="308">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>883.86320799378291</v>
       </c>
     </row>
@@ -13749,23 +13741,23 @@
         <v>271</v>
       </c>
       <c r="G82" s="304">
-        <f t="shared" ref="G82:K82" si="21">G81-F81</f>
+        <f t="shared" ref="G82:K82" si="25">G81-F81</f>
         <v>-72.164882743062549</v>
       </c>
       <c r="H82" s="304">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>44.319190753989687</v>
       </c>
       <c r="I82" s="304">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50.53238785535757</v>
       </c>
       <c r="J82" s="304">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>58.027139781126948</v>
       </c>
       <c r="K82" s="304">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>67.149372346371251</v>
       </c>
     </row>
@@ -13778,18 +13770,18 @@
       <c r="F84" s="264"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="399" t="s">
+      <c r="B85" s="392" t="s">
         <v>568</v>
       </c>
-      <c r="C85" s="399"/>
-      <c r="D85" s="399"/>
-      <c r="E85" s="399"/>
-      <c r="F85" s="399"/>
-      <c r="G85" s="399"/>
-      <c r="H85" s="399"/>
-      <c r="I85" s="399"/>
-      <c r="J85" s="399"/>
-      <c r="K85" s="399"/>
+      <c r="C85" s="392"/>
+      <c r="D85" s="392"/>
+      <c r="E85" s="392"/>
+      <c r="F85" s="392"/>
+      <c r="G85" s="392"/>
+      <c r="H85" s="392"/>
+      <c r="I85" s="392"/>
+      <c r="J85" s="392"/>
+      <c r="K85" s="392"/>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="200" t="s">
@@ -13797,34 +13789,35 @@
       </c>
       <c r="C86" s="145"/>
       <c r="D86" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E86" s="262">
-        <f>D86+1</f>
+      <c r="E86" s="220">
+        <f t="shared" ref="E86:F86" si="26">E4</f>
         <v>1997</v>
       </c>
-      <c r="F86" s="262">
-        <f t="shared" ref="F86:J86" si="22">E86+1</f>
+      <c r="F86" s="220">
+        <f t="shared" si="26"/>
         <v>1998</v>
       </c>
       <c r="G86" s="291">
-        <f>F86+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H86" s="291">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="H86:K86" si="27">H4</f>
         <v>2000</v>
       </c>
       <c r="I86" s="291">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2001</v>
       </c>
       <c r="J86" s="291">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2002</v>
       </c>
       <c r="K86" s="291">
-        <f>J86+1</f>
+        <f t="shared" si="27"/>
         <v>2003</v>
       </c>
     </row>
@@ -13876,19 +13869,19 @@
         <v>432.26650390464192</v>
       </c>
       <c r="H88" s="300">
-        <f t="shared" ref="H88:K88" si="23">H87-G87</f>
+        <f t="shared" ref="H88:K88" si="28">H87-G87</f>
         <v>261.32562038196511</v>
       </c>
       <c r="I88" s="300">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>297.96138830658401</v>
       </c>
       <c r="J88" s="300">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>342.15377231202547</v>
       </c>
       <c r="K88" s="300">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>395.94250454799385</v>
       </c>
     </row>
@@ -13952,19 +13945,19 @@
         <v>344.75894559619974</v>
       </c>
       <c r="H91" s="300">
-        <f t="shared" ref="H91:K91" si="24">H90-G90</f>
+        <f t="shared" ref="H91:K91" si="29">H90-G90</f>
         <v>539.69072350308397</v>
       </c>
       <c r="I91" s="300">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>615.35105894371009</v>
       </c>
       <c r="J91" s="300">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>706.61734834297386</v>
       </c>
       <c r="K91" s="300">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>817.70205474991781</v>
       </c>
     </row>
@@ -14028,19 +14021,19 @@
         <v>441.11394028801442</v>
       </c>
       <c r="H94" s="300">
-        <f t="shared" ref="H94:K94" si="25">H93-G93</f>
+        <f t="shared" ref="H94:K94" si="30">H93-G93</f>
         <v>306.11297002196989</v>
       </c>
       <c r="I94" s="300">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>349.02756719024183</v>
       </c>
       <c r="J94" s="300">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>400.79387276902162</v>
       </c>
       <c r="K94" s="300">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>463.80119885668864</v>
       </c>
     </row>
@@ -14104,19 +14097,19 @@
         <v>14.779999999999973</v>
       </c>
       <c r="H97" s="300">
-        <f t="shared" ref="H97:K97" si="26">H96-G96</f>
+        <f t="shared" ref="H97:K97" si="31">H96-G96</f>
         <v>14.927799999999934</v>
       </c>
       <c r="I97" s="300">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>15.077078000000029</v>
       </c>
       <c r="J97" s="300">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>15.227848779999931</v>
       </c>
       <c r="K97" s="300">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>15.380127267799935</v>
       </c>
     </row>
@@ -14180,19 +14173,19 @@
         <v>18.029999999999973</v>
       </c>
       <c r="H100" s="300">
-        <f t="shared" ref="H100:K100" si="27">H99-G99</f>
+        <f t="shared" ref="H100:K100" si="32">H99-G99</f>
         <v>18.210299999999961</v>
       </c>
       <c r="I100" s="300">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>18.392403000000058</v>
       </c>
       <c r="J100" s="300">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>18.57632703000013</v>
       </c>
       <c r="K100" s="300">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>18.762090300300088</v>
       </c>
     </row>
@@ -14256,19 +14249,19 @@
         <v>2.5699999999999932</v>
       </c>
       <c r="H103" s="300">
-        <f t="shared" ref="H103:K103" si="28">H102-G102</f>
+        <f t="shared" ref="H103:K103" si="33">H102-G102</f>
         <v>2.5957000000000221</v>
       </c>
       <c r="I103" s="300">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2.6216570000000274</v>
       </c>
       <c r="J103" s="300">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2.6478735700000016</v>
       </c>
       <c r="K103" s="300">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2.6743523056999834</v>
       </c>
     </row>
@@ -14331,19 +14324,19 @@
         <v>0</v>
       </c>
       <c r="H106" s="300">
-        <f t="shared" ref="H106:K106" si="29">H105-G105</f>
+        <f t="shared" ref="H106:K106" si="34">H105-G105</f>
         <v>0</v>
       </c>
       <c r="I106" s="300">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J106" s="300">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K106" s="300">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -14360,19 +14353,19 @@
         <v>1253.519389788856</v>
       </c>
       <c r="H107" s="313">
-        <f t="shared" ref="H107:K107" si="30">H88+H91+H94+H97+H100+H103</f>
+        <f t="shared" ref="H107:K107" si="35">H88+H91+H94+H97+H100+H103</f>
         <v>1142.8631139070189</v>
       </c>
       <c r="I107" s="313">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1298.4311524405362</v>
       </c>
       <c r="J107" s="313">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1486.017042804021</v>
       </c>
       <c r="K107" s="313">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1714.2623280284004</v>
       </c>
     </row>
@@ -14389,19 +14382,19 @@
         <v>0</v>
       </c>
       <c r="H108" s="313">
-        <f t="shared" ref="H108:K108" si="31">H106</f>
+        <f t="shared" ref="H108:K108" si="36">H106</f>
         <v>0</v>
       </c>
       <c r="I108" s="313">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J108" s="313">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K108" s="313">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -14418,36 +14411,36 @@
         <v>1253.519389788856</v>
       </c>
       <c r="H109" s="314">
-        <f t="shared" ref="H109:K109" si="32">SUM(H107:H108)</f>
+        <f t="shared" ref="H109:K109" si="37">SUM(H107:H108)</f>
         <v>1142.8631139070189</v>
       </c>
       <c r="I109" s="314">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1298.4311524405362</v>
       </c>
       <c r="J109" s="314">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1486.017042804021</v>
       </c>
       <c r="K109" s="314">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1714.2623280284004</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="17" thickTop="1"/>
     <row r="112" spans="2:11">
-      <c r="B112" s="399" t="s">
+      <c r="B112" s="392" t="s">
         <v>566</v>
       </c>
-      <c r="C112" s="399"/>
-      <c r="D112" s="399"/>
-      <c r="E112" s="399"/>
-      <c r="F112" s="399"/>
-      <c r="G112" s="399"/>
-      <c r="H112" s="399"/>
-      <c r="I112" s="399"/>
-      <c r="J112" s="399"/>
-      <c r="K112" s="399"/>
+      <c r="C112" s="392"/>
+      <c r="D112" s="392"/>
+      <c r="E112" s="392"/>
+      <c r="F112" s="392"/>
+      <c r="G112" s="392"/>
+      <c r="H112" s="392"/>
+      <c r="I112" s="392"/>
+      <c r="J112" s="392"/>
+      <c r="K112" s="392"/>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="206" t="s">
@@ -14486,34 +14479,35 @@
       <c r="B115" s="145"/>
       <c r="C115" s="145"/>
       <c r="D115" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E115" s="262">
-        <f>D115+1</f>
+      <c r="E115" s="220">
+        <f t="shared" ref="E115:F115" si="38">E4</f>
         <v>1997</v>
       </c>
-      <c r="F115" s="262">
-        <f t="shared" ref="F115:J115" si="33">E115+1</f>
+      <c r="F115" s="220">
+        <f t="shared" si="38"/>
         <v>1998</v>
       </c>
       <c r="G115" s="291">
-        <f>F115+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H115" s="291">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="H115:K115" si="39">H4</f>
         <v>2000</v>
       </c>
       <c r="I115" s="291">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2001</v>
       </c>
       <c r="J115" s="291">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2002</v>
       </c>
       <c r="K115" s="291">
-        <f>J115+1</f>
+        <f t="shared" si="39"/>
         <v>2003</v>
       </c>
     </row>
@@ -14620,15 +14614,15 @@
         <v>232.13333333333333</v>
       </c>
       <c r="I121" s="294">
-        <f t="shared" ref="I121:K121" si="34">H121</f>
+        <f t="shared" ref="I121:K121" si="40">H121</f>
         <v>232.13333333333333</v>
       </c>
       <c r="J121" s="294">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>232.13333333333333</v>
       </c>
       <c r="K121" s="294">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>232.13333333333333</v>
       </c>
     </row>
@@ -14650,11 +14644,11 @@
         <v>28.817766926976127</v>
       </c>
       <c r="J122" s="294">
-        <f t="shared" ref="J122:K122" si="35">I122</f>
+        <f t="shared" ref="J122:K122" si="41">I122</f>
         <v>28.817766926976127</v>
       </c>
       <c r="K122" s="294">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>28.817766926976127</v>
       </c>
     </row>
@@ -14725,19 +14719,19 @@
         <v>232.13333333333333</v>
       </c>
       <c r="H126" s="316">
-        <f t="shared" ref="H126:K126" si="36">SUM(H121:H125)</f>
+        <f t="shared" ref="H126:K126" si="42">SUM(H121:H125)</f>
         <v>260.95110026030943</v>
       </c>
       <c r="I126" s="316">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>278.37280828577377</v>
       </c>
       <c r="J126" s="316">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>298.23690083954602</v>
       </c>
       <c r="K126" s="316">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>321.04715232701437</v>
       </c>
     </row>
@@ -14790,34 +14784,35 @@
       <c r="B130" s="145"/>
       <c r="C130" s="145"/>
       <c r="D130" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E130" s="262">
-        <f>D130+1</f>
+      <c r="E130" s="220">
+        <f t="shared" ref="E130:F130" si="43">E4</f>
         <v>1997</v>
       </c>
-      <c r="F130" s="262">
-        <f t="shared" ref="F130" si="37">E130+1</f>
+      <c r="F130" s="220">
+        <f t="shared" si="43"/>
         <v>1998</v>
       </c>
       <c r="G130" s="291">
-        <f>F130+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H130" s="291">
-        <f t="shared" ref="H130:J130" si="38">G130+1</f>
+        <f t="shared" ref="H130:K130" si="44">H4</f>
         <v>2000</v>
       </c>
       <c r="I130" s="291">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2001</v>
       </c>
       <c r="J130" s="291">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>2002</v>
       </c>
       <c r="K130" s="291">
-        <f>J130+1</f>
+        <f t="shared" si="44"/>
         <v>2003</v>
       </c>
     </row>
@@ -14865,19 +14860,19 @@
         <v>344.75894559619974</v>
       </c>
       <c r="H133" s="305">
-        <f t="shared" ref="H133:K133" si="39">H90-G90</f>
+        <f t="shared" ref="H133:K133" si="45">H90-G90</f>
         <v>539.69072350308397</v>
       </c>
       <c r="I133" s="305">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>615.35105894371009</v>
       </c>
       <c r="J133" s="305">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>706.61734834297386</v>
       </c>
       <c r="K133" s="305">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>817.70205474991781</v>
       </c>
     </row>
@@ -14924,15 +14919,15 @@
         <v>221.11428571428573</v>
       </c>
       <c r="I136" s="294">
-        <f t="shared" ref="I136:K136" si="40">H136</f>
+        <f t="shared" ref="I136:K136" si="46">H136</f>
         <v>221.11428571428573</v>
       </c>
       <c r="J136" s="294">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>221.11428571428573</v>
       </c>
       <c r="K136" s="294">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>221.11428571428573</v>
       </c>
     </row>
@@ -14954,11 +14949,11 @@
         <v>9.8502555884628489</v>
       </c>
       <c r="J137" s="294">
-        <f t="shared" ref="J137:K137" si="41">I137</f>
+        <f t="shared" ref="J137:K137" si="47">I137</f>
         <v>9.8502555884628489</v>
       </c>
       <c r="K137" s="294">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>9.8502555884628489</v>
       </c>
     </row>
@@ -15020,19 +15015,19 @@
         <v>221.11428571428573</v>
       </c>
       <c r="H141" s="316">
-        <f t="shared" ref="H141:K141" si="42">SUM(H136:H140)</f>
+        <f t="shared" ref="H141:K141" si="48">SUM(H136:H140)</f>
         <v>230.96454130274859</v>
       </c>
       <c r="I141" s="316">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>246.38427625997954</v>
       </c>
       <c r="J141" s="316">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>263.96573508694269</v>
       </c>
       <c r="K141" s="316">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>284.15480218245625</v>
       </c>
     </row>
@@ -15085,34 +15080,35 @@
       <c r="B145" s="145"/>
       <c r="C145" s="145"/>
       <c r="D145" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E145" s="262">
-        <f>D145+1</f>
+      <c r="E145" s="220">
+        <f t="shared" ref="E145:F145" si="49">E4</f>
         <v>1997</v>
       </c>
-      <c r="F145" s="262">
-        <f t="shared" ref="F145" si="43">E145+1</f>
+      <c r="F145" s="220">
+        <f t="shared" si="49"/>
         <v>1998</v>
       </c>
       <c r="G145" s="291">
-        <f>F145+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H145" s="291">
-        <f t="shared" ref="H145:J145" si="44">G145+1</f>
+        <f t="shared" ref="H145:K145" si="50">H4</f>
         <v>2000</v>
       </c>
       <c r="I145" s="291">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>2001</v>
       </c>
       <c r="J145" s="291">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>2002</v>
       </c>
       <c r="K145" s="291">
-        <f>J145+1</f>
+        <f t="shared" si="50"/>
         <v>2003</v>
       </c>
     </row>
@@ -15160,19 +15156,19 @@
         <v>441.11394028801442</v>
       </c>
       <c r="H148" s="305">
-        <f t="shared" ref="H148:K148" si="45">H93-G93</f>
+        <f t="shared" ref="H148:K148" si="51">H93-G93</f>
         <v>306.11297002196989</v>
       </c>
       <c r="I148" s="305">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>349.02756719024183</v>
       </c>
       <c r="J148" s="305">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>400.79387276902162</v>
       </c>
       <c r="K148" s="305">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>463.80119885668864</v>
       </c>
     </row>
@@ -15219,15 +15215,15 @@
         <v>138.13333333333333</v>
       </c>
       <c r="I151" s="294">
-        <f t="shared" ref="I151:K151" si="46">H151</f>
+        <f t="shared" ref="I151:K151" si="52">H151</f>
         <v>138.13333333333333</v>
       </c>
       <c r="J151" s="294">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>138.13333333333333</v>
       </c>
       <c r="K151" s="294">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>138.13333333333333</v>
       </c>
     </row>
@@ -15249,11 +15245,11 @@
         <v>14.703798009600481</v>
       </c>
       <c r="J152" s="294">
-        <f t="shared" ref="J152:K152" si="47">I152</f>
+        <f t="shared" ref="J152:K152" si="53">I152</f>
         <v>14.703798009600481</v>
       </c>
       <c r="K152" s="294">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>14.703798009600481</v>
       </c>
     </row>
@@ -15324,19 +15320,19 @@
         <v>138.13333333333333</v>
       </c>
       <c r="H156" s="316">
-        <f t="shared" ref="H156:K156" si="48">SUM(H151:H155)</f>
+        <f t="shared" ref="H156:K156" si="54">SUM(H151:H155)</f>
         <v>152.83713134293382</v>
       </c>
       <c r="I156" s="316">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>163.0408970103328</v>
       </c>
       <c r="J156" s="316">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>174.67514925000754</v>
       </c>
       <c r="K156" s="316">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>188.03494500897492</v>
       </c>
     </row>
@@ -15389,34 +15385,35 @@
       <c r="B160" s="145"/>
       <c r="C160" s="145"/>
       <c r="D160" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E160" s="262">
-        <f>D160+1</f>
+      <c r="E160" s="220">
+        <f t="shared" ref="E160:F160" si="55">E4</f>
         <v>1997</v>
       </c>
-      <c r="F160" s="262">
-        <f t="shared" ref="F160" si="49">E160+1</f>
+      <c r="F160" s="220">
+        <f t="shared" si="55"/>
         <v>1998</v>
       </c>
       <c r="G160" s="291">
-        <f>F160+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H160" s="291">
-        <f t="shared" ref="H160:J160" si="50">G160+1</f>
+        <f t="shared" ref="H160:K160" si="56">H4</f>
         <v>2000</v>
       </c>
       <c r="I160" s="291">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>2001</v>
       </c>
       <c r="J160" s="291">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>2002</v>
       </c>
       <c r="K160" s="291">
-        <f>J160+1</f>
+        <f t="shared" si="56"/>
         <v>2003</v>
       </c>
     </row>
@@ -15523,15 +15520,15 @@
         <v>36.950000000000003</v>
       </c>
       <c r="I166" s="294">
-        <f t="shared" ref="I166:K166" si="51">H166</f>
+        <f t="shared" ref="I166:K166" si="57">H166</f>
         <v>36.950000000000003</v>
       </c>
       <c r="J166" s="294">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>36.950000000000003</v>
       </c>
       <c r="K166" s="294">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>36.950000000000003</v>
       </c>
     </row>
@@ -15553,11 +15550,11 @@
         <v>0.36949999999999933</v>
       </c>
       <c r="J167" s="306">
-        <f t="shared" ref="J167:K167" si="52">I167</f>
+        <f t="shared" ref="J167:K167" si="58">I167</f>
         <v>0.36949999999999933</v>
       </c>
       <c r="K167" s="306">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.36949999999999933</v>
       </c>
     </row>
@@ -15628,19 +15625,19 @@
         <v>36.950000000000003</v>
       </c>
       <c r="H171" s="318">
-        <f t="shared" ref="H171:K171" si="53">SUM(H166:H170)</f>
+        <f t="shared" ref="H171:K171" si="59">SUM(H166:H170)</f>
         <v>37.319500000000005</v>
       </c>
       <c r="I171" s="318">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>37.692695000000001</v>
       </c>
       <c r="J171" s="318">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>38.069621949999998</v>
       </c>
       <c r="K171" s="318">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>38.450318169499994</v>
       </c>
     </row>
@@ -15693,34 +15690,35 @@
       <c r="B175" s="145"/>
       <c r="C175" s="145"/>
       <c r="D175" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E175" s="262">
-        <f>D175+1</f>
+      <c r="E175" s="220">
+        <f t="shared" ref="E175:F175" si="60">E4</f>
         <v>1997</v>
       </c>
-      <c r="F175" s="262">
-        <f t="shared" ref="F175" si="54">E175+1</f>
+      <c r="F175" s="220">
+        <f t="shared" si="60"/>
         <v>1998</v>
       </c>
       <c r="G175" s="291">
-        <f>F175+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H175" s="291">
-        <f t="shared" ref="H175:J175" si="55">G175+1</f>
+        <f t="shared" ref="H175:K175" si="61">H4</f>
         <v>2000</v>
       </c>
       <c r="I175" s="291">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>2001</v>
       </c>
       <c r="J175" s="291">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>2002</v>
       </c>
       <c r="K175" s="291">
-        <f>J175+1</f>
+        <f t="shared" si="61"/>
         <v>2003</v>
       </c>
     </row>
@@ -15827,15 +15825,15 @@
         <v>72.12</v>
       </c>
       <c r="I181" s="294">
-        <f t="shared" ref="I181:K181" si="56">H181</f>
+        <f t="shared" ref="I181:K181" si="62">H181</f>
         <v>72.12</v>
       </c>
       <c r="J181" s="294">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>72.12</v>
       </c>
       <c r="K181" s="294">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>72.12</v>
       </c>
     </row>
@@ -15857,11 +15855,11 @@
         <v>0.72841199999999839</v>
       </c>
       <c r="J182" s="306">
-        <f t="shared" ref="J182:K182" si="57">I182</f>
+        <f t="shared" ref="J182:K182" si="63">I182</f>
         <v>0.72841199999999839</v>
       </c>
       <c r="K182" s="306">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0.72841199999999839</v>
       </c>
     </row>
@@ -15932,19 +15930,19 @@
         <v>72.12</v>
       </c>
       <c r="H186" s="318">
-        <f t="shared" ref="H186:K186" si="58">SUM(H181:H185)</f>
+        <f t="shared" ref="H186:K186" si="64">SUM(H181:H185)</f>
         <v>72.841200000000001</v>
       </c>
       <c r="I186" s="318">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>73.576823999999988</v>
       </c>
       <c r="J186" s="318">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>74.312520119999988</v>
       </c>
       <c r="K186" s="318">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>75.055573201199991</v>
       </c>
     </row>
@@ -15997,34 +15995,35 @@
       <c r="B190" s="145"/>
       <c r="C190" s="145"/>
       <c r="D190" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E190" s="262">
-        <f>D190+1</f>
+      <c r="E190" s="220">
+        <f t="shared" ref="E190:F190" si="65">E4</f>
         <v>1997</v>
       </c>
-      <c r="F190" s="262">
-        <f t="shared" ref="F190" si="59">E190+1</f>
+      <c r="F190" s="220">
+        <f t="shared" si="65"/>
         <v>1998</v>
       </c>
       <c r="G190" s="291">
-        <f>F190+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H190" s="291">
-        <f t="shared" ref="H190:J190" si="60">G190+1</f>
+        <f t="shared" ref="H190:K190" si="66">H4</f>
         <v>2000</v>
       </c>
       <c r="I190" s="291">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>2001</v>
       </c>
       <c r="J190" s="291">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>2002</v>
       </c>
       <c r="K190" s="291">
-        <f>J190+1</f>
+        <f t="shared" si="66"/>
         <v>2003</v>
       </c>
     </row>
@@ -16131,15 +16130,15 @@
         <v>10.28</v>
       </c>
       <c r="I196" s="294">
-        <f t="shared" ref="I196:K196" si="61">H196</f>
+        <f t="shared" ref="I196:K196" si="67">H196</f>
         <v>10.28</v>
       </c>
       <c r="J196" s="294">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>10.28</v>
       </c>
       <c r="K196" s="294">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>10.28</v>
       </c>
     </row>
@@ -16161,11 +16160,11 @@
         <v>0.10279999999999972</v>
       </c>
       <c r="J197" s="306">
-        <f t="shared" ref="J197:K197" si="62">I197</f>
+        <f t="shared" ref="J197:K197" si="68">I197</f>
         <v>0.10279999999999972</v>
       </c>
       <c r="K197" s="306">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.10279999999999972</v>
       </c>
     </row>
@@ -16236,19 +16235,19 @@
         <v>10.28</v>
       </c>
       <c r="H201" s="318">
-        <f t="shared" ref="H201:K201" si="63">SUM(H196:H200)</f>
+        <f t="shared" ref="H201:K201" si="69">SUM(H196:H200)</f>
         <v>10.3828</v>
       </c>
       <c r="I201" s="318">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>10.486628</v>
       </c>
       <c r="J201" s="318">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>10.591494280000001</v>
       </c>
       <c r="K201" s="318">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>10.697409222800001</v>
       </c>
     </row>
@@ -16295,18 +16294,18 @@
     </row>
     <row r="204" spans="2:11" ht="17" thickTop="1"/>
     <row r="206" spans="2:11">
-      <c r="B206" s="399" t="s">
+      <c r="B206" s="392" t="s">
         <v>587</v>
       </c>
-      <c r="C206" s="399"/>
-      <c r="D206" s="399"/>
-      <c r="E206" s="399"/>
-      <c r="F206" s="399"/>
-      <c r="G206" s="399"/>
-      <c r="H206" s="399"/>
-      <c r="I206" s="399"/>
-      <c r="J206" s="399"/>
-      <c r="K206" s="399"/>
+      <c r="C206" s="392"/>
+      <c r="D206" s="392"/>
+      <c r="E206" s="392"/>
+      <c r="F206" s="392"/>
+      <c r="G206" s="392"/>
+      <c r="H206" s="392"/>
+      <c r="I206" s="392"/>
+      <c r="J206" s="392"/>
+      <c r="K206" s="392"/>
     </row>
     <row r="207" spans="2:11">
       <c r="B207" s="200" t="s">
@@ -16314,34 +16313,35 @@
       </c>
       <c r="C207" s="145"/>
       <c r="D207" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E207" s="262">
-        <f>D207+1</f>
+      <c r="E207" s="220">
+        <f t="shared" ref="E207:F207" si="70">E4</f>
         <v>1997</v>
       </c>
-      <c r="F207" s="262">
-        <f t="shared" ref="F207" si="64">E207+1</f>
+      <c r="F207" s="220">
+        <f t="shared" si="70"/>
         <v>1998</v>
       </c>
       <c r="G207" s="291">
-        <f>F207+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H207" s="291">
-        <f t="shared" ref="H207:J207" si="65">G207+1</f>
+        <f t="shared" ref="H207:K207" si="71">H4</f>
         <v>2000</v>
       </c>
       <c r="I207" s="291">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2001</v>
       </c>
       <c r="J207" s="291">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2002</v>
       </c>
       <c r="K207" s="291">
-        <f>J207+1</f>
+        <f t="shared" si="71"/>
         <v>2003</v>
       </c>
     </row>
@@ -16415,23 +16415,23 @@
         <v>3237</v>
       </c>
       <c r="G210" s="319">
-        <f t="shared" ref="G210:K211" si="66">G36</f>
+        <f t="shared" ref="G210:K211" si="72">G36</f>
         <v>3599.3105348425479</v>
       </c>
       <c r="H210" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>3830.061364442</v>
       </c>
       <c r="I210" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>4093.9127055116078</v>
       </c>
       <c r="J210" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>4394.1364498125213</v>
       </c>
       <c r="K210" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>4734.4235314850466</v>
       </c>
     </row>
@@ -16453,23 +16453,23 @@
         <v>901</v>
       </c>
       <c r="G211" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>984.01110515186883</v>
       </c>
       <c r="H211" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>1310.2542017079868</v>
       </c>
       <c r="I211" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>1744.6612788261918</v>
       </c>
       <c r="J211" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>2323.0934683267033</v>
       </c>
       <c r="K211" s="319">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>3093.3014494441777</v>
       </c>
     </row>
@@ -16483,11 +16483,11 @@
         <v>22368</v>
       </c>
       <c r="E212" s="280">
-        <f t="shared" ref="E212:F212" si="67">SUM(E209:E211)</f>
+        <f t="shared" ref="E212:F212" si="73">SUM(E209:E211)</f>
         <v>22458</v>
       </c>
       <c r="F212" s="280">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>24788</v>
       </c>
       <c r="G212" s="320">
@@ -16495,19 +16495,19 @@
         <v>26344.1776825054</v>
       </c>
       <c r="H212" s="320">
-        <f t="shared" ref="H212:K212" si="68">SUM(H209:H211)</f>
+        <f t="shared" ref="H212:K212" si="74">SUM(H209:H211)</f>
         <v>28102.976826474252</v>
       </c>
       <c r="I212" s="320">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>30108.345584131504</v>
       </c>
       <c r="J212" s="320">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>32411.142229054865</v>
       </c>
       <c r="K212" s="320">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>35075.953038810258</v>
       </c>
     </row>
@@ -16555,23 +16555,23 @@
         <v>14346</v>
       </c>
       <c r="G215" s="298">
-        <f t="shared" ref="G215:K218" si="69">G44</f>
+        <f t="shared" ref="G215:K218" si="75">G44</f>
         <v>15094.961282286298</v>
       </c>
       <c r="H215" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>15883.023568501492</v>
       </c>
       <c r="I215" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>16712.228203831786</v>
       </c>
       <c r="J215" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>17584.723105923178</v>
       </c>
       <c r="K215" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>18502.768328707349</v>
       </c>
     </row>
@@ -16584,23 +16584,23 @@
       <c r="E216" s="285"/>
       <c r="F216" s="285"/>
       <c r="G216" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>211</v>
       </c>
       <c r="H216" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>146</v>
       </c>
       <c r="I216" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>115</v>
       </c>
       <c r="J216" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>94</v>
       </c>
       <c r="K216" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>77</v>
       </c>
     </row>
@@ -16613,23 +16613,23 @@
       <c r="E217" s="285"/>
       <c r="F217" s="285"/>
       <c r="G217" s="294">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>710.73095238095243</v>
       </c>
       <c r="H217" s="294">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>765.29627290599183</v>
       </c>
       <c r="I217" s="294">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>809.55412855608608</v>
       </c>
       <c r="J217" s="294">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>859.85142152649632</v>
       </c>
       <c r="K217" s="294">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>917.4402001119455</v>
       </c>
     </row>
@@ -16651,23 +16651,23 @@
         <v>7352</v>
       </c>
       <c r="G218" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>7648.3904087928177</v>
       </c>
       <c r="H218" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>7956.7295763484717</v>
       </c>
       <c r="I218" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>8277.4992079844651</v>
       </c>
       <c r="J218" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>8611.2004286097017</v>
       </c>
       <c r="K218" s="298">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>8958.3545656108599</v>
       </c>
     </row>
@@ -16693,19 +16693,19 @@
         <v>—</v>
       </c>
       <c r="H219" s="322" t="str">
-        <f t="shared" ref="H219:K219" si="70">G219</f>
+        <f t="shared" ref="H219:K219" si="76">G219</f>
         <v>—</v>
       </c>
       <c r="I219" s="322" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>—</v>
       </c>
       <c r="J219" s="322" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>—</v>
       </c>
       <c r="K219" s="322" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>—</v>
       </c>
     </row>
@@ -16719,11 +16719,11 @@
         <v>20339</v>
       </c>
       <c r="E220" s="280">
-        <f t="shared" ref="E220:F220" si="71">SUM(E215:E219)</f>
+        <f t="shared" ref="E220:F220" si="77">SUM(E215:E219)</f>
         <v>20750</v>
       </c>
       <c r="F220" s="280">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>21698</v>
       </c>
       <c r="G220" s="307">
@@ -16731,19 +16731,19 @@
         <v>23665.082643460068</v>
       </c>
       <c r="H220" s="307">
-        <f t="shared" ref="H220:K220" si="72">SUM(H215:H219)</f>
+        <f t="shared" ref="H220:K220" si="78">SUM(H215:H219)</f>
         <v>24751.049417755956</v>
       </c>
       <c r="I220" s="307">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>25914.281540372336</v>
       </c>
       <c r="J220" s="307">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>27149.774956059373</v>
       </c>
       <c r="K220" s="307">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>28455.563094430152</v>
       </c>
     </row>
@@ -16757,11 +16757,11 @@
         <v>2029</v>
       </c>
       <c r="E221" s="280">
-        <f t="shared" ref="E221:F221" si="73">E212-E220</f>
+        <f t="shared" ref="E221:F221" si="79">E212-E220</f>
         <v>1708</v>
       </c>
       <c r="F221" s="280">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>3090</v>
       </c>
       <c r="G221" s="313">
@@ -16769,19 +16769,19 @@
         <v>2679.0950390453327</v>
       </c>
       <c r="H221" s="313">
-        <f t="shared" ref="H221:K221" si="74">H212-H220</f>
+        <f t="shared" ref="H221:K221" si="80">H212-H220</f>
         <v>3351.9274087182966</v>
       </c>
       <c r="I221" s="313">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>4194.0640437591683</v>
       </c>
       <c r="J221" s="313">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>5261.3672729954924</v>
       </c>
       <c r="K221" s="313">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>6620.3899443801056</v>
       </c>
     </row>
@@ -16857,19 +16857,19 @@
         <v>2512.8404890453326</v>
       </c>
       <c r="H224" s="323">
-        <f t="shared" ref="H224:K224" si="75">H221-H223</f>
+        <f t="shared" ref="H224:K224" si="81">H221-H223</f>
         <v>3184.0103132182967</v>
       </c>
       <c r="I224" s="323">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>4024.4677773041681</v>
       </c>
       <c r="J224" s="323">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>5090.0750438759424</v>
       </c>
       <c r="K224" s="323">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>6447.3847929693602</v>
       </c>
     </row>
@@ -16933,11 +16933,11 @@
         <v>1146</v>
       </c>
       <c r="E227" s="273">
-        <f t="shared" ref="E227:F227" si="76">E224-E225</f>
+        <f t="shared" ref="E227:F227" si="82">E224-E225</f>
         <v>909</v>
       </c>
       <c r="F227" s="273">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1741</v>
       </c>
       <c r="G227" s="314">
@@ -16949,32 +16949,32 @@
         <v>2069.6067035918932</v>
       </c>
       <c r="I227" s="314">
-        <f t="shared" ref="I227:K227" si="77">I224-I225</f>
+        <f t="shared" ref="I227:K227" si="83">I224-I225</f>
         <v>2615.904055247709</v>
       </c>
       <c r="J227" s="314">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>3308.5487785193627</v>
       </c>
       <c r="K227" s="314">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>4190.8001154300837</v>
       </c>
     </row>
     <row r="228" spans="2:11" ht="17" thickTop="1"/>
     <row r="230" spans="2:11">
-      <c r="B230" s="399" t="s">
+      <c r="B230" s="392" t="s">
         <v>594</v>
       </c>
-      <c r="C230" s="399"/>
-      <c r="D230" s="399"/>
-      <c r="E230" s="399"/>
-      <c r="F230" s="399"/>
-      <c r="G230" s="399"/>
-      <c r="H230" s="399"/>
-      <c r="I230" s="399"/>
-      <c r="J230" s="399"/>
-      <c r="K230" s="399"/>
+      <c r="C230" s="392"/>
+      <c r="D230" s="392"/>
+      <c r="E230" s="392"/>
+      <c r="F230" s="392"/>
+      <c r="G230" s="392"/>
+      <c r="H230" s="392"/>
+      <c r="I230" s="392"/>
+      <c r="J230" s="392"/>
+      <c r="K230" s="392"/>
     </row>
     <row r="231" spans="2:11">
       <c r="B231" s="200" t="s">
@@ -16982,34 +16982,35 @@
       </c>
       <c r="C231" s="145"/>
       <c r="D231" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E231" s="262">
-        <f>D231+1</f>
+      <c r="E231" s="220">
+        <f t="shared" ref="E231:F231" si="84">E4</f>
         <v>1997</v>
       </c>
-      <c r="F231" s="262">
-        <f t="shared" ref="F231" si="78">E231+1</f>
+      <c r="F231" s="220">
+        <f t="shared" si="84"/>
         <v>1998</v>
       </c>
       <c r="G231" s="291">
-        <f>F231+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H231" s="291">
-        <f t="shared" ref="H231:J231" si="79">G231+1</f>
+        <f t="shared" ref="H231:K231" si="85">H4</f>
         <v>2000</v>
       </c>
       <c r="I231" s="291">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2001</v>
       </c>
       <c r="J231" s="291">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>2002</v>
       </c>
       <c r="K231" s="291">
-        <f>J231+1</f>
+        <f t="shared" si="85"/>
         <v>2003</v>
       </c>
     </row>
@@ -17036,23 +17037,23 @@
       <c r="E233" s="265"/>
       <c r="F233" s="265"/>
       <c r="G233" s="305">
-        <f t="shared" ref="G233:K233" si="80">G227</f>
+        <f t="shared" ref="G233:K233" si="86">G227</f>
         <v>1633.3463178794664</v>
       </c>
       <c r="H233" s="305">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>2069.6067035918932</v>
       </c>
       <c r="I233" s="305">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>2615.904055247709</v>
       </c>
       <c r="J233" s="305">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>3308.5487785193627</v>
       </c>
       <c r="K233" s="305">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>4190.8001154300837</v>
       </c>
     </row>
@@ -17069,19 +17070,19 @@
         <v>710.73095238095243</v>
       </c>
       <c r="H234" s="294">
-        <f t="shared" ref="H234:K234" si="81">H203</f>
+        <f t="shared" ref="H234:K234" si="87">H203</f>
         <v>765.29627290599183</v>
       </c>
       <c r="I234" s="294">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>809.55412855608608</v>
       </c>
       <c r="J234" s="294">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>859.85142152649632</v>
       </c>
       <c r="K234" s="294">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>917.4402001119455</v>
       </c>
     </row>
@@ -17127,19 +17128,19 @@
         <v>2416.2421530034817</v>
       </c>
       <c r="H236" s="307">
-        <f t="shared" ref="H236:K236" si="82">H233+H234-H235</f>
+        <f t="shared" ref="H236:K236" si="88">H233+H234-H235</f>
         <v>2790.5837857438955</v>
       </c>
       <c r="I236" s="307">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3374.9257959484376</v>
       </c>
       <c r="J236" s="307">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>4110.373060264732</v>
       </c>
       <c r="K236" s="307">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>5041.0909431956579</v>
       </c>
     </row>
@@ -17182,19 +17183,19 @@
         <v>1253.519389788856</v>
       </c>
       <c r="H239" s="300">
-        <f t="shared" ref="H239:K239" si="83">H107</f>
+        <f t="shared" ref="H239:K239" si="89">H107</f>
         <v>1142.8631139070189</v>
       </c>
       <c r="I239" s="300">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1298.4311524405362</v>
       </c>
       <c r="J239" s="300">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1486.017042804021</v>
       </c>
       <c r="K239" s="300">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1714.2623280284004</v>
       </c>
     </row>
@@ -17211,19 +17212,19 @@
         <v>0</v>
       </c>
       <c r="H240" s="300">
-        <f t="shared" ref="H240:K240" si="84">H108</f>
+        <f t="shared" ref="H240:K240" si="90">H108</f>
         <v>0</v>
       </c>
       <c r="I240" s="300">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="J240" s="300">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="K240" s="300">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -17240,19 +17241,19 @@
         <v>-1253.519389788856</v>
       </c>
       <c r="H241" s="313">
-        <f t="shared" ref="H241:K241" si="85">-SUM(H239:H240)</f>
+        <f t="shared" ref="H241:K241" si="91">-SUM(H239:H240)</f>
         <v>-1142.8631139070189</v>
       </c>
       <c r="I241" s="313">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>-1298.4311524405362</v>
       </c>
       <c r="J241" s="313">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>-1486.017042804021</v>
       </c>
       <c r="K241" s="313">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>-1714.2623280284004</v>
       </c>
     </row>
@@ -17295,19 +17296,19 @@
         <v>196</v>
       </c>
       <c r="H244" s="305">
-        <f t="shared" ref="H244:K244" si="86">H57</f>
+        <f t="shared" ref="H244:K244" si="92">H57</f>
         <v>23.869999999999891</v>
       </c>
       <c r="I244" s="305">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>24.108700000000226</v>
       </c>
       <c r="J244" s="305">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>24.349787000000106</v>
       </c>
       <c r="K244" s="305">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>24.593284869999934</v>
       </c>
     </row>
@@ -17324,19 +17325,19 @@
         <v>11.935</v>
       </c>
       <c r="H245" s="306">
-        <f t="shared" ref="H245:K245" si="87">H55</f>
+        <f t="shared" ref="H245:K245" si="93">H55</f>
         <v>12.054349999999999</v>
       </c>
       <c r="I245" s="306">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>12.174893500000001</v>
       </c>
       <c r="J245" s="306">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>12.296642435000001</v>
       </c>
       <c r="K245" s="306">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>12.419608859350001</v>
       </c>
     </row>
@@ -17353,19 +17354,19 @@
         <v>184.065</v>
       </c>
       <c r="H246" s="307">
-        <f t="shared" ref="H246:K246" si="88">H244-H245</f>
+        <f t="shared" ref="H246:K246" si="94">H244-H245</f>
         <v>11.815649999999891</v>
       </c>
       <c r="I246" s="307">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>11.933806500000225</v>
       </c>
       <c r="J246" s="307">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>12.053144565000105</v>
       </c>
       <c r="K246" s="307">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>12.173676010649933</v>
       </c>
     </row>
@@ -17394,19 +17395,19 @@
         <v>1346.7877632146258</v>
       </c>
       <c r="H248" s="324">
-        <f t="shared" ref="H248:K248" si="89">H236+H241+H246</f>
+        <f t="shared" ref="H248:K248" si="95">H236+H241+H246</f>
         <v>1659.5363218368766</v>
       </c>
       <c r="I248" s="324">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2088.4284500079016</v>
       </c>
       <c r="J248" s="324">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>2636.4091620257109</v>
       </c>
       <c r="K248" s="324">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>3339.0022911779074</v>
       </c>
     </row>
@@ -17423,19 +17424,19 @@
         <v>1240</v>
       </c>
       <c r="H249" s="325">
-        <f t="shared" ref="H249:K249" si="90">G250</f>
+        <f t="shared" ref="H249:K249" si="96">G250</f>
         <v>2586.7877632146256</v>
       </c>
       <c r="I249" s="325">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>4246.3240850515022</v>
       </c>
       <c r="J249" s="325">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>6334.7525350594042</v>
       </c>
       <c r="K249" s="325">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>8971.1616970851155</v>
       </c>
     </row>
@@ -17455,36 +17456,36 @@
         <v>2586.7877632146256</v>
       </c>
       <c r="H250" s="326">
-        <f t="shared" ref="H250:K250" si="91">SUM(H248:H249)</f>
+        <f t="shared" ref="H250:K250" si="97">SUM(H248:H249)</f>
         <v>4246.3240850515022</v>
       </c>
       <c r="I250" s="326">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>6334.7525350594042</v>
       </c>
       <c r="J250" s="326">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>8971.1616970851155</v>
       </c>
       <c r="K250" s="326">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>12310.163988263022</v>
       </c>
     </row>
     <row r="251" spans="2:11" ht="17" thickTop="1"/>
     <row r="253" spans="2:11">
-      <c r="B253" s="399" t="s">
+      <c r="B253" s="392" t="s">
         <v>595</v>
       </c>
-      <c r="C253" s="399"/>
-      <c r="D253" s="399"/>
-      <c r="E253" s="399"/>
-      <c r="F253" s="399"/>
-      <c r="G253" s="399"/>
-      <c r="H253" s="399"/>
-      <c r="I253" s="399"/>
-      <c r="J253" s="399"/>
-      <c r="K253" s="399"/>
+      <c r="C253" s="392"/>
+      <c r="D253" s="392"/>
+      <c r="E253" s="392"/>
+      <c r="F253" s="392"/>
+      <c r="G253" s="392"/>
+      <c r="H253" s="392"/>
+      <c r="I253" s="392"/>
+      <c r="J253" s="392"/>
+      <c r="K253" s="392"/>
     </row>
     <row r="254" spans="2:11">
       <c r="B254" s="200" t="s">
@@ -17492,34 +17493,35 @@
       </c>
       <c r="C254" s="145"/>
       <c r="D254" s="220">
+        <f>D4</f>
         <v>1996</v>
       </c>
-      <c r="E254" s="262">
-        <f>D254+1</f>
+      <c r="E254" s="220">
+        <f t="shared" ref="E254:F254" si="98">E4</f>
         <v>1997</v>
       </c>
-      <c r="F254" s="262">
-        <f t="shared" ref="F254" si="92">E254+1</f>
+      <c r="F254" s="220">
+        <f t="shared" si="98"/>
         <v>1998</v>
       </c>
       <c r="G254" s="291">
-        <f>F254+1</f>
+        <f>G4</f>
         <v>1999</v>
       </c>
       <c r="H254" s="291">
-        <f t="shared" ref="H254:J254" si="93">G254+1</f>
+        <f t="shared" ref="H254:K254" si="99">H4</f>
         <v>2000</v>
       </c>
       <c r="I254" s="291">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>2001</v>
       </c>
       <c r="J254" s="291">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>2002</v>
       </c>
       <c r="K254" s="291">
-        <f>J254+1</f>
+        <f t="shared" si="99"/>
         <v>2003</v>
       </c>
     </row>
@@ -17570,19 +17572,19 @@
         <v>2586.7877632146265</v>
       </c>
       <c r="H257" s="305">
-        <f t="shared" ref="H257:K257" si="94">H263-SUM(H258:H262)</f>
+        <f t="shared" ref="H257:K257" si="100">H263-SUM(H258:H262)</f>
         <v>4258.2590850514989</v>
       </c>
       <c r="I257" s="305">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>6358.7418850593986</v>
       </c>
       <c r="J257" s="305">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>9007.3259405851113</v>
       </c>
       <c r="K257" s="305">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>12358.624874198016</v>
       </c>
     </row>
@@ -17605,19 +17607,19 @@
         <v>389</v>
       </c>
       <c r="H258" s="293">
-        <f t="shared" ref="H258:K258" si="95">G258</f>
+        <f t="shared" ref="H258:K258" si="101">G258</f>
         <v>389</v>
       </c>
       <c r="I258" s="293">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>389</v>
       </c>
       <c r="J258" s="293">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>389</v>
       </c>
       <c r="K258" s="293">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>389</v>
       </c>
     </row>
@@ -17640,19 +17642,19 @@
         <v>2852.2433898211489</v>
       </c>
       <c r="H259" s="300">
-        <f t="shared" ref="H259:K259" si="96">H66</f>
+        <f t="shared" ref="H259:K259" si="102">H66</f>
         <v>3042.6658540508679</v>
       </c>
       <c r="I259" s="300">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>3259.784029160207</v>
       </c>
       <c r="J259" s="300">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>3509.1042618029869</v>
       </c>
       <c r="K259" s="300">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>3797.619208401461</v>
       </c>
     </row>
@@ -17671,23 +17673,23 @@
         <v>703</v>
       </c>
       <c r="G260" s="300">
-        <f t="shared" ref="G260:K260" si="97">G67</f>
+        <f t="shared" ref="G260:K260" si="103">G67</f>
         <v>765.94954190996771</v>
       </c>
       <c r="H260" s="300">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>817.08613136324948</v>
       </c>
       <c r="I260" s="300">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>875.39166284727696</v>
       </c>
       <c r="J260" s="300">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>942.34482633365053</v>
       </c>
       <c r="K260" s="300">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>1019.8234496411577</v>
       </c>
     </row>
@@ -17706,23 +17708,23 @@
         <v>380</v>
       </c>
       <c r="G261" s="300">
-        <f t="shared" ref="G261:K261" si="98">G68</f>
+        <f t="shared" ref="G261:K261" si="104">G68</f>
         <v>446.50736182616907</v>
       </c>
       <c r="H261" s="300">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>476.31724145954132</v>
       </c>
       <c r="I261" s="300">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>510.30622848587711</v>
       </c>
       <c r="J261" s="300">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>549.33631957995976</v>
       </c>
       <c r="K261" s="300">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>594.50218730108031</v>
       </c>
     </row>
@@ -17741,23 +17743,23 @@
         <v>—</v>
       </c>
       <c r="G262" s="300" t="str">
-        <f t="shared" ref="G262:K262" si="99">G69</f>
+        <f t="shared" ref="G262:K262" si="105">G69</f>
         <v>—</v>
       </c>
       <c r="H262" s="300" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>—</v>
       </c>
       <c r="I262" s="300" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>—</v>
       </c>
       <c r="J262" s="300" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>—</v>
       </c>
       <c r="K262" s="300" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>—</v>
       </c>
     </row>
@@ -17780,19 +17782,19 @@
         <v>7040.4880567719119</v>
       </c>
       <c r="H263" s="307">
-        <f t="shared" ref="H263:K263" si="100">H278-H277</f>
+        <f t="shared" ref="H263:K263" si="106">H278-H277</f>
         <v>8983.3283119251573</v>
       </c>
       <c r="I263" s="307">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>11393.22380555276</v>
       </c>
       <c r="J263" s="307">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>14397.111348301709</v>
       </c>
       <c r="K263" s="307">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>18159.569719541716</v>
       </c>
     </row>
@@ -17841,19 +17843,19 @@
         <v>3914.2665039046419</v>
       </c>
       <c r="H266" s="300">
-        <f t="shared" ref="H266:K266" si="101">H87</f>
+        <f t="shared" ref="H266:K266" si="107">H87</f>
         <v>4175.592124286607</v>
       </c>
       <c r="I266" s="300">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>4473.553512593191</v>
       </c>
       <c r="J266" s="300">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>4815.7072849052165</v>
       </c>
       <c r="K266" s="300">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>5211.6497894532104</v>
       </c>
     </row>
@@ -17876,19 +17878,19 @@
         <v>8083.7589455961997</v>
       </c>
       <c r="H267" s="300">
-        <f t="shared" ref="H267:K267" si="102">H90</f>
+        <f t="shared" ref="H267:K267" si="108">H90</f>
         <v>8623.4496690992837</v>
       </c>
       <c r="I267" s="300">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>9238.8007280429938</v>
       </c>
       <c r="J267" s="300">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>9945.4180763859677</v>
       </c>
       <c r="K267" s="300">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>10763.120131135885</v>
       </c>
     </row>
@@ -17911,19 +17913,19 @@
         <v>651</v>
       </c>
       <c r="H268" s="300">
-        <f t="shared" ref="H268:K268" si="103">H105</f>
+        <f t="shared" ref="H268:K268" si="109">H105</f>
         <v>651</v>
       </c>
       <c r="I268" s="300">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>651</v>
       </c>
       <c r="J268" s="300">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>651</v>
       </c>
       <c r="K268" s="300">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>651</v>
       </c>
     </row>
@@ -17946,19 +17948,19 @@
         <v>1492.78</v>
       </c>
       <c r="H269" s="300">
-        <f t="shared" ref="H269:K269" si="104">H96</f>
+        <f t="shared" ref="H269:K269" si="110">H96</f>
         <v>1507.7077999999999</v>
       </c>
       <c r="I269" s="300">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1522.7848779999999</v>
       </c>
       <c r="J269" s="300">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1538.0127267799999</v>
       </c>
       <c r="K269" s="300">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1553.3928540477998</v>
       </c>
     </row>
@@ -17981,19 +17983,19 @@
         <v>1821.03</v>
       </c>
       <c r="H270" s="300">
-        <f t="shared" ref="H270:K270" si="105">H99</f>
+        <f t="shared" ref="H270:K270" si="111">H99</f>
         <v>1839.2402999999999</v>
       </c>
       <c r="I270" s="300">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1857.632703</v>
       </c>
       <c r="J270" s="300">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1876.2090300300001</v>
       </c>
       <c r="K270" s="300">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>1894.9711203303002</v>
       </c>
     </row>
@@ -18016,19 +18018,19 @@
         <v>4585.1139402880144</v>
       </c>
       <c r="H271" s="300">
-        <f t="shared" ref="H271:K271" si="106">H93</f>
+        <f t="shared" ref="H271:K271" si="112">H93</f>
         <v>4891.2269103099843</v>
       </c>
       <c r="I271" s="300">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>5240.2544775002261</v>
       </c>
       <c r="J271" s="300">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>5641.0483502692477</v>
       </c>
       <c r="K271" s="300">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>6104.8495491259364</v>
       </c>
     </row>
@@ -18051,19 +18053,19 @@
         <v>259.57</v>
       </c>
       <c r="H272" s="300">
-        <f t="shared" ref="H272:K272" si="107">H102</f>
+        <f t="shared" ref="H272:K272" si="113">H102</f>
         <v>262.16570000000002</v>
       </c>
       <c r="I272" s="300">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>264.78735700000004</v>
       </c>
       <c r="J272" s="300">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>267.43523057000004</v>
       </c>
       <c r="K272" s="300">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>270.10958287570003</v>
       </c>
     </row>
@@ -18084,19 +18086,19 @@
         <v>20807.519389788857</v>
       </c>
       <c r="H273" s="300">
-        <f t="shared" ref="H273:K273" si="108">SUM(H266:H272)</f>
+        <f t="shared" ref="H273:K273" si="114">SUM(H266:H272)</f>
         <v>21950.382503695877</v>
       </c>
       <c r="I273" s="300">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>23248.813656136415</v>
       </c>
       <c r="J273" s="300">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>24734.830698940434</v>
       </c>
       <c r="K273" s="300">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>26449.093026968836</v>
       </c>
     </row>
@@ -18119,15 +18121,15 @@
         <v>8880.7309523809527</v>
       </c>
       <c r="H274" s="294">
-        <f t="shared" ref="H274:J274" si="109">G274+H203</f>
+        <f t="shared" ref="H274:J274" si="115">G274+H203</f>
         <v>9646.0272252869436</v>
       </c>
       <c r="I274" s="294">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>10455.58135384303</v>
       </c>
       <c r="J274" s="294">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>11315.432775369527</v>
       </c>
       <c r="K274" s="294">
@@ -18154,19 +18156,19 @@
         <v>11926.788437407904</v>
       </c>
       <c r="H275" s="300">
-        <f t="shared" ref="H275:K275" si="110">H273-H274</f>
+        <f t="shared" ref="H275:K275" si="116">H273-H274</f>
         <v>12304.355278408933</v>
       </c>
       <c r="I275" s="300">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>12793.232302293385</v>
       </c>
       <c r="J275" s="300">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>13419.397923570907</v>
       </c>
       <c r="K275" s="300">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>14216.220051487364</v>
       </c>
     </row>
@@ -18189,19 +18191,19 @@
         <v>258</v>
       </c>
       <c r="H276" s="293">
-        <f t="shared" ref="H276:K276" si="111">G276</f>
+        <f t="shared" ref="H276:K276" si="117">G276</f>
         <v>258</v>
       </c>
       <c r="I276" s="293">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>258</v>
       </c>
       <c r="J276" s="293">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>258</v>
       </c>
       <c r="K276" s="293">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>258</v>
       </c>
     </row>
@@ -18216,27 +18218,27 @@
         <v>11435</v>
       </c>
       <c r="F277" s="280">
-        <f t="shared" ref="F277:K277" si="112">SUM(F275:F276)</f>
+        <f t="shared" ref="F277:K277" si="118">SUM(F275:F276)</f>
         <v>11642</v>
       </c>
       <c r="G277" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>12184.788437407904</v>
       </c>
       <c r="H277" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>12562.355278408933</v>
       </c>
       <c r="I277" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>13051.232302293385</v>
       </c>
       <c r="J277" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>13677.397923570907</v>
       </c>
       <c r="K277" s="307">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>14474.220051487364</v>
       </c>
     </row>
@@ -18251,7 +18253,7 @@
         <v>15912</v>
       </c>
       <c r="F278" s="280">
-        <f t="shared" ref="F278" si="113">F263+F277</f>
+        <f t="shared" ref="F278" si="119">F263+F277</f>
         <v>17067</v>
       </c>
       <c r="G278" s="307">
@@ -18259,19 +18261,19 @@
         <v>19225.276494179816</v>
       </c>
       <c r="H278" s="307">
-        <f t="shared" ref="H278:K278" si="114">H299</f>
+        <f t="shared" ref="H278:K278" si="120">H299</f>
         <v>21545.683590334091</v>
       </c>
       <c r="I278" s="307">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>24444.456107846145</v>
       </c>
       <c r="J278" s="307">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>28074.509271872615</v>
       </c>
       <c r="K278" s="307">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>32633.789771029082</v>
       </c>
     </row>
@@ -18334,19 +18336,19 @@
         <v>1410.428093472445</v>
       </c>
       <c r="H282" s="300">
-        <f t="shared" ref="H282:K282" si="115">H73</f>
+        <f t="shared" ref="H282:K282" si="121">H73</f>
         <v>1504.5915839152044</v>
       </c>
       <c r="I282" s="300">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>1611.9560447710094</v>
       </c>
       <c r="J282" s="300">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>1735.2443523696511</v>
       </c>
       <c r="K282" s="300">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>1877.9143599578558</v>
       </c>
     </row>
@@ -18365,23 +18367,23 @@
         <v>1092</v>
       </c>
       <c r="G283" s="300">
-        <f t="shared" ref="G283:K283" si="116">G74</f>
+        <f t="shared" ref="G283:K283" si="122">G74</f>
         <v>1280.5836804574574</v>
       </c>
       <c r="H283" s="300">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>1366.0784530828619</v>
       </c>
       <c r="I283" s="300">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>1463.5589110157168</v>
       </c>
       <c r="J283" s="300">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>1575.4972618134098</v>
       </c>
       <c r="K283" s="300">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>1705.0330277654271</v>
       </c>
     </row>
@@ -18400,23 +18402,23 @@
         <v>247</v>
       </c>
       <c r="G284" s="300">
-        <f t="shared" ref="G284:K284" si="117">G75</f>
+        <f t="shared" ref="G284:K284" si="123">G75</f>
         <v>247</v>
       </c>
       <c r="H284" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>247</v>
       </c>
       <c r="I284" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>247</v>
       </c>
       <c r="J284" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>247</v>
       </c>
       <c r="K284" s="300">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>247</v>
       </c>
     </row>
@@ -18435,23 +18437,23 @@
         <v>—</v>
       </c>
       <c r="G285" s="300" t="str">
-        <f t="shared" ref="G285:K285" si="118">G76</f>
+        <f t="shared" ref="G285:K285" si="124">G76</f>
         <v>—</v>
       </c>
       <c r="H285" s="300" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>—</v>
       </c>
       <c r="I285" s="300" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>—</v>
       </c>
       <c r="J285" s="300" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>—</v>
       </c>
       <c r="K285" s="300" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>—</v>
       </c>
     </row>
@@ -18470,23 +18472,23 @@
         <v>410</v>
       </c>
       <c r="G286" s="300">
-        <f t="shared" ref="G286:K286" si="119">G77</f>
+        <f t="shared" ref="G286:K286" si="125">G77</f>
         <v>410</v>
       </c>
       <c r="H286" s="300">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>410</v>
       </c>
       <c r="I286" s="300">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>410</v>
       </c>
       <c r="J286" s="300">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>410</v>
       </c>
       <c r="K286" s="300">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>410</v>
       </c>
     </row>
@@ -18544,19 +18546,19 @@
         <v>4057.8651763003481</v>
       </c>
       <c r="H288" s="313">
-        <f t="shared" ref="H288:K288" si="120">SUM(H282:H287)</f>
+        <f t="shared" ref="H288:K288" si="126">SUM(H282:H287)</f>
         <v>4284.9149188627316</v>
       </c>
       <c r="I288" s="313">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>4543.7952246270761</v>
       </c>
       <c r="J288" s="313">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>4841.071572069186</v>
       </c>
       <c r="K288" s="313">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>5185.0816373499165</v>
       </c>
     </row>
@@ -18591,19 +18593,19 @@
         <v>2375.0650000000001</v>
       </c>
       <c r="H290" s="305">
-        <f t="shared" ref="H290:K290" si="121">H56</f>
+        <f t="shared" ref="H290:K290" si="127">H56</f>
         <v>2398.81565</v>
       </c>
       <c r="I290" s="305">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>2422.8038065000001</v>
       </c>
       <c r="J290" s="305">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>2447.031844565</v>
       </c>
       <c r="K290" s="305">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>2471.5021630106503</v>
       </c>
     </row>
@@ -18626,19 +18628,19 @@
         <v>969</v>
       </c>
       <c r="H291" s="293">
-        <f t="shared" ref="H291:K291" si="122">G291</f>
+        <f t="shared" ref="H291:K291" si="128">G291</f>
         <v>969</v>
       </c>
       <c r="I291" s="293">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>969</v>
       </c>
       <c r="J291" s="293">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>969</v>
       </c>
       <c r="K291" s="293">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>969</v>
       </c>
     </row>
@@ -18661,19 +18663,19 @@
         <v>3017</v>
       </c>
       <c r="H292" s="305">
-        <f t="shared" ref="H292:K292" si="123">G292</f>
+        <f t="shared" ref="H292:K292" si="129">G292</f>
         <v>3017</v>
       </c>
       <c r="I292" s="305">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>3017</v>
       </c>
       <c r="J292" s="305">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>3017</v>
       </c>
       <c r="K292" s="305">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>3017</v>
       </c>
     </row>
@@ -18684,11 +18686,11 @@
       <c r="C293" s="232"/>
       <c r="D293" s="233"/>
       <c r="E293" s="280">
-        <f t="shared" ref="E293:F293" si="124">SUM(E290:E292)</f>
+        <f t="shared" ref="E293:F293" si="130">SUM(E290:E292)</f>
         <v>6427</v>
       </c>
       <c r="F293" s="280">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>6177</v>
       </c>
       <c r="G293" s="307">
@@ -18696,19 +18698,19 @@
         <v>6361.0650000000005</v>
       </c>
       <c r="H293" s="307">
-        <f t="shared" ref="H293:K293" si="125">SUM(H290:H292)</f>
+        <f t="shared" ref="H293:K293" si="131">SUM(H290:H292)</f>
         <v>6384.8156500000005</v>
       </c>
       <c r="I293" s="307">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>6408.8038065000001</v>
       </c>
       <c r="J293" s="307">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>6433.031844565</v>
       </c>
       <c r="K293" s="307">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>6457.5021630106503</v>
       </c>
     </row>
@@ -18723,27 +18725,27 @@
         <v>9825</v>
       </c>
       <c r="F294" s="280">
-        <f t="shared" ref="F294:K294" si="126">F288+F293</f>
+        <f t="shared" ref="F294:K294" si="132">F288+F293</f>
         <v>9894</v>
       </c>
       <c r="G294" s="307">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>10418.93017630035</v>
       </c>
       <c r="H294" s="307">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>10669.730568862731</v>
       </c>
       <c r="I294" s="307">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>10952.599031127076</v>
       </c>
       <c r="J294" s="307">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>11274.103416634185</v>
       </c>
       <c r="K294" s="307">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>11642.583800360568</v>
       </c>
     </row>
@@ -18792,19 +18794,19 @@
         <v>1633.3463178794664</v>
       </c>
       <c r="H297" s="305">
-        <f t="shared" ref="H297:K297" si="127">H227</f>
+        <f t="shared" ref="H297:K297" si="133">H227</f>
         <v>2069.6067035918932</v>
       </c>
       <c r="I297" s="305">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>2615.904055247709</v>
       </c>
       <c r="J297" s="305">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>3308.5487785193627</v>
       </c>
       <c r="K297" s="305">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>4190.8001154300837</v>
       </c>
     </row>
@@ -18831,15 +18833,15 @@
         <v>10875.95302147136</v>
       </c>
       <c r="I298" s="307">
-        <f t="shared" ref="I298:K298" si="128">H298+I297</f>
+        <f t="shared" ref="I298:K298" si="134">H298+I297</f>
         <v>13491.857076719069</v>
       </c>
       <c r="J298" s="307">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>16800.40585523843</v>
       </c>
       <c r="K298" s="307">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>20991.205970668514</v>
       </c>
     </row>
@@ -18854,27 +18856,27 @@
         <v>15912</v>
       </c>
       <c r="F299" s="273">
-        <f t="shared" ref="F299:K299" si="129">F294+F298</f>
+        <f t="shared" ref="F299:K299" si="135">F294+F298</f>
         <v>17067</v>
       </c>
       <c r="G299" s="304">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>19225.276494179816</v>
       </c>
       <c r="H299" s="304">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>21545.683590334091</v>
       </c>
       <c r="I299" s="304">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>24444.456107846145</v>
       </c>
       <c r="J299" s="304">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>28074.509271872615</v>
       </c>
       <c r="K299" s="304">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>32633.789771029082</v>
       </c>
     </row>
@@ -18927,18 +18929,6 @@
       <c r="G305" s="293"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B253:K253"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B85:K85"/>
-    <mergeCell ref="B112:K112"/>
-    <mergeCell ref="B206:K206"/>
-    <mergeCell ref="B230:K230"/>
-  </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18952,8 +18942,8 @@
   </sheetPr>
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -18968,16 +18958,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20">
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="393" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="329" t="str">
@@ -19015,26 +19005,27 @@
     </row>
     <row r="6" spans="2:9" s="350" customFormat="1">
       <c r="D6" s="353">
+        <f>E6-1</f>
         <v>1998</v>
       </c>
       <c r="E6" s="354">
-        <f>'[1]The Model'!K6</f>
+        <f>Model!G4</f>
         <v>1999</v>
       </c>
       <c r="F6" s="354">
-        <f>'[1]The Model'!L6</f>
+        <f>E6+1</f>
         <v>2000</v>
       </c>
       <c r="G6" s="354">
-        <f>'[1]The Model'!M6</f>
+        <f t="shared" ref="G6:I6" si="0">F6+1</f>
         <v>2001</v>
       </c>
       <c r="H6" s="354">
-        <f>'[1]The Model'!N6</f>
+        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="I6" s="354">
-        <f>'[1]The Model'!O6</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
     </row>
@@ -19194,19 +19185,19 @@
         <v>1358.7227632146255</v>
       </c>
       <c r="F15" s="339">
-        <f t="shared" ref="F15:I15" si="0">SUM(F10:F14)</f>
+        <f t="shared" ref="F15:I15" si="1">SUM(F10:F14)</f>
         <v>1671.5906718368763</v>
       </c>
       <c r="G15" s="339">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2100.6033435079016</v>
       </c>
       <c r="H15" s="339">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2648.7058044607106</v>
       </c>
       <c r="I15" s="339">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3351.4219000372568</v>
       </c>
     </row>
@@ -19232,19 +19223,19 @@
         <v>1358.7227632146255</v>
       </c>
       <c r="F17" s="339">
-        <f t="shared" ref="F17:I17" si="1">F15+F16</f>
+        <f t="shared" ref="F17:I17" si="2">F15+F16</f>
         <v>1671.5906718368763</v>
       </c>
       <c r="G17" s="339">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2100.6033435079016</v>
       </c>
       <c r="H17" s="339">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2648.7058044607106</v>
       </c>
       <c r="I17" s="339">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53622.750400596109</v>
       </c>
     </row>
@@ -19326,19 +19317,19 @@
         <v>1328.9773132146256</v>
       </c>
       <c r="F23" s="339">
-        <f t="shared" ref="F23:I23" si="2">F15+F21-F14</f>
+        <f t="shared" ref="F23:I23" si="3">F15+F21-F14</f>
         <v>1815.6377673368763</v>
       </c>
       <c r="G23" s="339">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2246.0909099629016</v>
       </c>
       <c r="H23" s="339">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2795.6482465802605</v>
       </c>
       <c r="I23" s="339">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3499.8337665780023</v>
       </c>
     </row>
@@ -19366,15 +19357,15 @@
         <v>1328.9773132146256</v>
       </c>
       <c r="F25" s="339">
-        <f t="shared" ref="F25:H25" si="3">F23+F24</f>
+        <f t="shared" ref="F25:H25" si="4">F23+F24</f>
         <v>1815.6377673368763</v>
       </c>
       <c r="G25" s="339">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2246.0909099629016</v>
       </c>
       <c r="H25" s="339">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2795.6482465802605</v>
       </c>
       <c r="I25" s="339">
@@ -19438,14 +19429,11 @@
       <c r="E31" s="346"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="C32" s="400" t="s">
+      <c r="C32" s="365" t="s">
         <v>652</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>